--- a/vaccRes.xlsx
+++ b/vaccRes.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\m.alistratenko\Documents\GitHub\diploma\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41FF7DA4-64A1-40DF-A78E-CDB92BA3C3C3}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{157AA768-3489-4EFD-9431-6CC8059749F1}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="5580" tabRatio="843" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="297" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="331" uniqueCount="69">
   <si>
     <t>Crystal Ball Data</t>
   </si>
@@ -227,6 +227,24 @@
   <si>
     <t>Оптимізований 2 вак  0.1 крок</t>
   </si>
+  <si>
+    <t>Методи</t>
+  </si>
+  <si>
+    <t>Пропорційний з оптимізацією по часу</t>
+  </si>
+  <si>
+    <t>Прогностичний, крок = 0.1, кількість вакцинацій = 1</t>
+  </si>
+  <si>
+    <t>Прогностичний, крок = 0.1, кількість вакцинацій = 2</t>
+  </si>
+  <si>
+    <t>Прогностичний, крок = 0.0001, кількість вакцинацій = 1</t>
+  </si>
+  <si>
+    <t>Прогностичний, крок = 0.0001, кількість вакцинацій = 2</t>
+  </si>
 </sst>
 </file>
 
@@ -389,7 +407,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
@@ -408,7 +426,22 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -420,18 +453,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -771,16 +793,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:N210"/>
+  <dimension ref="A1:N248"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A65" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="O139" sqref="O139"/>
+    <sheetView tabSelected="1" topLeftCell="A217" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="L229" sqref="L229"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="18.6640625" style="3" customWidth="1"/>
-    <col min="2" max="13" width="15.109375" style="3" customWidth="1"/>
+    <col min="2" max="8" width="18.88671875" style="3" customWidth="1"/>
+    <col min="9" max="13" width="15.109375" style="3" customWidth="1"/>
     <col min="14" max="14" width="13.88671875" style="3" customWidth="1"/>
     <col min="15" max="256" width="9.109375" style="3"/>
     <col min="257" max="257" width="18.6640625" style="3" customWidth="1"/>
@@ -1038,43 +1061,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="11" t="s">
         <v>56</v>
       </c>
-      <c r="B1" s="8"/>
-      <c r="C1" s="8"/>
-      <c r="D1" s="8"/>
-      <c r="E1" s="8"/>
-      <c r="F1" s="8"/>
-      <c r="G1" s="8"/>
-      <c r="H1" s="8"/>
-      <c r="I1" s="8"/>
-      <c r="J1" s="8"/>
-      <c r="K1" s="8"/>
-      <c r="L1" s="8"/>
-      <c r="M1" s="8"/>
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="11"/>
+      <c r="F1" s="11"/>
+      <c r="G1" s="11"/>
+      <c r="H1" s="11"/>
+      <c r="I1" s="11"/>
+      <c r="J1" s="11"/>
+      <c r="K1" s="11"/>
+      <c r="L1" s="11"/>
+      <c r="M1" s="11"/>
     </row>
     <row r="2" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="7" t="s">
+      <c r="A2" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="C2" s="7"/>
-      <c r="D2" s="7"/>
-      <c r="E2" s="7"/>
-      <c r="F2" s="7"/>
-      <c r="G2" s="7"/>
-      <c r="H2" s="7"/>
-      <c r="I2" s="7"/>
-      <c r="J2" s="7"/>
-      <c r="K2" s="7"/>
-      <c r="L2" s="7"/>
-      <c r="M2" s="7"/>
+      <c r="C2" s="10"/>
+      <c r="D2" s="10"/>
+      <c r="E2" s="10"/>
+      <c r="F2" s="10"/>
+      <c r="G2" s="10"/>
+      <c r="H2" s="10"/>
+      <c r="I2" s="10"/>
+      <c r="J2" s="10"/>
+      <c r="K2" s="10"/>
+      <c r="L2" s="10"/>
+      <c r="M2" s="10"/>
     </row>
     <row r="3" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="7"/>
+      <c r="A3" s="10"/>
       <c r="B3" s="4" t="s">
         <v>19</v>
       </c>
@@ -2229,40 +2252,40 @@
       <c r="N30"/>
     </row>
     <row r="31" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="8" t="s">
+      <c r="A31" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="B31" s="8"/>
-      <c r="C31" s="8"/>
-      <c r="D31" s="8"/>
-      <c r="E31" s="8"/>
-      <c r="F31" s="8"/>
-      <c r="G31" s="8"/>
-      <c r="H31" s="8"/>
-      <c r="I31" s="8"/>
-      <c r="J31" s="8"/>
-      <c r="K31" s="8"/>
-      <c r="L31" s="8"/>
-      <c r="M31" s="8"/>
+      <c r="B31" s="11"/>
+      <c r="C31" s="11"/>
+      <c r="D31" s="11"/>
+      <c r="E31" s="11"/>
+      <c r="F31" s="11"/>
+      <c r="G31" s="11"/>
+      <c r="H31" s="11"/>
+      <c r="I31" s="11"/>
+      <c r="J31" s="11"/>
+      <c r="K31" s="11"/>
+      <c r="L31" s="11"/>
+      <c r="M31" s="11"/>
     </row>
     <row r="32" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="B32" s="9" t="s">
+      <c r="B32" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="C32" s="10"/>
-      <c r="D32" s="10"/>
-      <c r="E32" s="10"/>
-      <c r="F32" s="10"/>
-      <c r="G32" s="10"/>
-      <c r="H32" s="10"/>
-      <c r="I32" s="10"/>
-      <c r="J32" s="10"/>
-      <c r="K32" s="10"/>
-      <c r="L32" s="10"/>
-      <c r="M32" s="11"/>
+      <c r="C32" s="15"/>
+      <c r="D32" s="15"/>
+      <c r="E32" s="15"/>
+      <c r="F32" s="15"/>
+      <c r="G32" s="15"/>
+      <c r="H32" s="15"/>
+      <c r="I32" s="15"/>
+      <c r="J32" s="15"/>
+      <c r="K32" s="15"/>
+      <c r="L32" s="15"/>
+      <c r="M32" s="16"/>
     </row>
     <row r="33" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="13"/>
@@ -3404,45 +3427,45 @@
       </c>
     </row>
     <row r="62" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A62" s="8" t="s">
+      <c r="A62" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="B62" s="8"/>
-      <c r="C62" s="8"/>
-      <c r="D62" s="8"/>
-      <c r="E62" s="8"/>
-      <c r="F62" s="8"/>
-      <c r="G62" s="8"/>
-      <c r="H62" s="8"/>
-      <c r="I62" s="8"/>
-      <c r="J62" s="8"/>
-      <c r="K62" s="8"/>
-      <c r="L62" s="8"/>
-      <c r="M62" s="8"/>
+      <c r="B62" s="11"/>
+      <c r="C62" s="11"/>
+      <c r="D62" s="11"/>
+      <c r="E62" s="11"/>
+      <c r="F62" s="11"/>
+      <c r="G62" s="11"/>
+      <c r="H62" s="11"/>
+      <c r="I62" s="11"/>
+      <c r="J62" s="11"/>
+      <c r="K62" s="11"/>
+      <c r="L62" s="11"/>
+      <c r="M62" s="11"/>
       <c r="N62"/>
     </row>
     <row r="63" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A63" s="7" t="s">
+      <c r="A63" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="B63" s="7" t="s">
+      <c r="B63" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="C63" s="7"/>
-      <c r="D63" s="7"/>
-      <c r="E63" s="7"/>
-      <c r="F63" s="7"/>
-      <c r="G63" s="7"/>
-      <c r="H63" s="7"/>
-      <c r="I63" s="7"/>
-      <c r="J63" s="7"/>
-      <c r="K63" s="7"/>
-      <c r="L63" s="7"/>
-      <c r="M63" s="7"/>
+      <c r="C63" s="10"/>
+      <c r="D63" s="10"/>
+      <c r="E63" s="10"/>
+      <c r="F63" s="10"/>
+      <c r="G63" s="10"/>
+      <c r="H63" s="10"/>
+      <c r="I63" s="10"/>
+      <c r="J63" s="10"/>
+      <c r="K63" s="10"/>
+      <c r="L63" s="10"/>
+      <c r="M63" s="10"/>
       <c r="N63"/>
     </row>
     <row r="64" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A64" s="7"/>
+      <c r="A64" s="10"/>
       <c r="B64" s="4" t="s">
         <v>19</v>
       </c>
@@ -4614,45 +4637,45 @@
       <c r="N91"/>
     </row>
     <row r="92" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A92" s="8" t="s">
+      <c r="A92" s="11" t="s">
         <v>61</v>
       </c>
-      <c r="B92" s="8"/>
-      <c r="C92" s="8"/>
-      <c r="D92" s="8"/>
-      <c r="E92" s="8"/>
-      <c r="F92" s="8"/>
-      <c r="G92" s="8"/>
-      <c r="H92" s="8"/>
-      <c r="I92" s="8"/>
-      <c r="J92" s="8"/>
-      <c r="K92" s="8"/>
-      <c r="L92" s="8"/>
-      <c r="M92" s="8"/>
+      <c r="B92" s="11"/>
+      <c r="C92" s="11"/>
+      <c r="D92" s="11"/>
+      <c r="E92" s="11"/>
+      <c r="F92" s="11"/>
+      <c r="G92" s="11"/>
+      <c r="H92" s="11"/>
+      <c r="I92" s="11"/>
+      <c r="J92" s="11"/>
+      <c r="K92" s="11"/>
+      <c r="L92" s="11"/>
+      <c r="M92" s="11"/>
       <c r="N92"/>
     </row>
     <row r="93" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A93" s="7" t="s">
+      <c r="A93" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="B93" s="7" t="s">
+      <c r="B93" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="C93" s="7"/>
-      <c r="D93" s="7"/>
-      <c r="E93" s="7"/>
-      <c r="F93" s="7"/>
-      <c r="G93" s="7"/>
-      <c r="H93" s="7"/>
-      <c r="I93" s="7"/>
-      <c r="J93" s="7"/>
-      <c r="K93" s="7"/>
-      <c r="L93" s="7"/>
-      <c r="M93" s="7"/>
+      <c r="C93" s="10"/>
+      <c r="D93" s="10"/>
+      <c r="E93" s="10"/>
+      <c r="F93" s="10"/>
+      <c r="G93" s="10"/>
+      <c r="H93" s="10"/>
+      <c r="I93" s="10"/>
+      <c r="J93" s="10"/>
+      <c r="K93" s="10"/>
+      <c r="L93" s="10"/>
+      <c r="M93" s="10"/>
       <c r="N93"/>
     </row>
     <row r="94" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A94" s="7"/>
+      <c r="A94" s="10"/>
       <c r="B94" s="4" t="s">
         <v>19</v>
       </c>
@@ -5792,45 +5815,45 @@
       </c>
     </row>
     <row r="122" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A122" s="8" t="s">
+      <c r="A122" s="11" t="s">
         <v>62</v>
       </c>
-      <c r="B122" s="8"/>
-      <c r="C122" s="8"/>
-      <c r="D122" s="8"/>
-      <c r="E122" s="8"/>
-      <c r="F122" s="8"/>
-      <c r="G122" s="8"/>
-      <c r="H122" s="8"/>
-      <c r="I122" s="8"/>
-      <c r="J122" s="8"/>
-      <c r="K122" s="8"/>
-      <c r="L122" s="8"/>
-      <c r="M122" s="8"/>
+      <c r="B122" s="11"/>
+      <c r="C122" s="11"/>
+      <c r="D122" s="11"/>
+      <c r="E122" s="11"/>
+      <c r="F122" s="11"/>
+      <c r="G122" s="11"/>
+      <c r="H122" s="11"/>
+      <c r="I122" s="11"/>
+      <c r="J122" s="11"/>
+      <c r="K122" s="11"/>
+      <c r="L122" s="11"/>
+      <c r="M122" s="11"/>
       <c r="N122"/>
     </row>
     <row r="123" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A123" s="7" t="s">
+      <c r="A123" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="B123" s="7" t="s">
+      <c r="B123" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="C123" s="7"/>
-      <c r="D123" s="7"/>
-      <c r="E123" s="7"/>
-      <c r="F123" s="7"/>
-      <c r="G123" s="7"/>
-      <c r="H123" s="7"/>
-      <c r="I123" s="7"/>
-      <c r="J123" s="7"/>
-      <c r="K123" s="7"/>
-      <c r="L123" s="7"/>
-      <c r="M123" s="7"/>
+      <c r="C123" s="10"/>
+      <c r="D123" s="10"/>
+      <c r="E123" s="10"/>
+      <c r="F123" s="10"/>
+      <c r="G123" s="10"/>
+      <c r="H123" s="10"/>
+      <c r="I123" s="10"/>
+      <c r="J123" s="10"/>
+      <c r="K123" s="10"/>
+      <c r="L123" s="10"/>
+      <c r="M123" s="10"/>
       <c r="N123"/>
     </row>
     <row r="124" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A124" s="7"/>
+      <c r="A124" s="10"/>
       <c r="B124" s="4" t="s">
         <v>19</v>
       </c>
@@ -5873,40 +5896,40 @@
       <c r="A125" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="B125" s="14">
-        <v>0</v>
-      </c>
-      <c r="C125" s="14">
-        <v>0</v>
-      </c>
-      <c r="D125" s="14">
-        <v>0</v>
-      </c>
-      <c r="E125" s="14">
-        <v>0</v>
-      </c>
-      <c r="F125" s="14">
-        <v>0</v>
-      </c>
-      <c r="G125" s="14">
-        <v>0</v>
-      </c>
-      <c r="H125" s="14">
-        <v>0</v>
-      </c>
-      <c r="I125" s="14">
+      <c r="B125" s="8">
+        <v>0</v>
+      </c>
+      <c r="C125" s="8">
+        <v>0</v>
+      </c>
+      <c r="D125" s="8">
+        <v>0</v>
+      </c>
+      <c r="E125" s="8">
+        <v>0</v>
+      </c>
+      <c r="F125" s="8">
+        <v>0</v>
+      </c>
+      <c r="G125" s="8">
+        <v>0</v>
+      </c>
+      <c r="H125" s="8">
+        <v>0</v>
+      </c>
+      <c r="I125" s="8">
         <v>0.1</v>
       </c>
-      <c r="J125" s="14">
+      <c r="J125" s="8">
         <v>0.1</v>
       </c>
-      <c r="K125" s="14">
-        <v>0</v>
-      </c>
-      <c r="L125" s="14">
-        <v>0</v>
-      </c>
-      <c r="M125" s="14">
+      <c r="K125" s="8">
+        <v>0</v>
+      </c>
+      <c r="L125" s="8">
+        <v>0</v>
+      </c>
+      <c r="M125" s="8">
         <v>0</v>
       </c>
       <c r="N125">
@@ -5917,40 +5940,40 @@
       <c r="A126" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="B126" s="14">
+      <c r="B126" s="8">
         <v>0.1</v>
       </c>
-      <c r="C126" s="14">
-        <v>0</v>
-      </c>
-      <c r="D126" s="14">
-        <v>0</v>
-      </c>
-      <c r="E126" s="14">
-        <v>0</v>
-      </c>
-      <c r="F126" s="14">
-        <v>0</v>
-      </c>
-      <c r="G126" s="14">
-        <v>0</v>
-      </c>
-      <c r="H126" s="14">
-        <v>0</v>
-      </c>
-      <c r="I126" s="14">
-        <v>0</v>
-      </c>
-      <c r="J126" s="14">
-        <v>0</v>
-      </c>
-      <c r="K126" s="14">
-        <v>0</v>
-      </c>
-      <c r="L126" s="14">
+      <c r="C126" s="8">
+        <v>0</v>
+      </c>
+      <c r="D126" s="8">
+        <v>0</v>
+      </c>
+      <c r="E126" s="8">
+        <v>0</v>
+      </c>
+      <c r="F126" s="8">
+        <v>0</v>
+      </c>
+      <c r="G126" s="8">
+        <v>0</v>
+      </c>
+      <c r="H126" s="8">
+        <v>0</v>
+      </c>
+      <c r="I126" s="8">
+        <v>0</v>
+      </c>
+      <c r="J126" s="8">
+        <v>0</v>
+      </c>
+      <c r="K126" s="8">
+        <v>0</v>
+      </c>
+      <c r="L126" s="8">
         <v>0.1</v>
       </c>
-      <c r="M126" s="14">
+      <c r="M126" s="8">
         <v>0</v>
       </c>
       <c r="N126">
@@ -5961,40 +5984,40 @@
       <c r="A127" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="B127" s="14">
-        <v>0</v>
-      </c>
-      <c r="C127" s="14">
-        <v>0</v>
-      </c>
-      <c r="D127" s="14">
-        <v>0</v>
-      </c>
-      <c r="E127" s="14">
-        <v>0</v>
-      </c>
-      <c r="F127" s="14">
-        <v>0</v>
-      </c>
-      <c r="G127" s="14">
-        <v>0</v>
-      </c>
-      <c r="H127" s="14">
-        <v>0</v>
-      </c>
-      <c r="I127" s="14">
+      <c r="B127" s="8">
+        <v>0</v>
+      </c>
+      <c r="C127" s="8">
+        <v>0</v>
+      </c>
+      <c r="D127" s="8">
+        <v>0</v>
+      </c>
+      <c r="E127" s="8">
+        <v>0</v>
+      </c>
+      <c r="F127" s="8">
+        <v>0</v>
+      </c>
+      <c r="G127" s="8">
+        <v>0</v>
+      </c>
+      <c r="H127" s="8">
+        <v>0</v>
+      </c>
+      <c r="I127" s="8">
         <v>0.1</v>
       </c>
-      <c r="J127" s="14">
+      <c r="J127" s="8">
         <v>0.1</v>
       </c>
-      <c r="K127" s="14">
-        <v>0</v>
-      </c>
-      <c r="L127" s="14">
-        <v>0</v>
-      </c>
-      <c r="M127" s="14">
+      <c r="K127" s="8">
+        <v>0</v>
+      </c>
+      <c r="L127" s="8">
+        <v>0</v>
+      </c>
+      <c r="M127" s="8">
         <v>0</v>
       </c>
       <c r="N127">
@@ -6005,40 +6028,40 @@
       <c r="A128" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="B128" s="14">
-        <v>0</v>
-      </c>
-      <c r="C128" s="14">
-        <v>0</v>
-      </c>
-      <c r="D128" s="14">
-        <v>0</v>
-      </c>
-      <c r="E128" s="14">
-        <v>0</v>
-      </c>
-      <c r="F128" s="14">
-        <v>0</v>
-      </c>
-      <c r="G128" s="14">
-        <v>0</v>
-      </c>
-      <c r="H128" s="14">
-        <v>0</v>
-      </c>
-      <c r="I128" s="14">
+      <c r="B128" s="8">
+        <v>0</v>
+      </c>
+      <c r="C128" s="8">
+        <v>0</v>
+      </c>
+      <c r="D128" s="8">
+        <v>0</v>
+      </c>
+      <c r="E128" s="8">
+        <v>0</v>
+      </c>
+      <c r="F128" s="8">
+        <v>0</v>
+      </c>
+      <c r="G128" s="8">
+        <v>0</v>
+      </c>
+      <c r="H128" s="8">
+        <v>0</v>
+      </c>
+      <c r="I128" s="8">
         <v>0.1</v>
       </c>
-      <c r="J128" s="14">
+      <c r="J128" s="8">
         <v>0.1</v>
       </c>
-      <c r="K128" s="14">
-        <v>0</v>
-      </c>
-      <c r="L128" s="14">
-        <v>0</v>
-      </c>
-      <c r="M128" s="14">
+      <c r="K128" s="8">
+        <v>0</v>
+      </c>
+      <c r="L128" s="8">
+        <v>0</v>
+      </c>
+      <c r="M128" s="8">
         <v>0</v>
       </c>
       <c r="N128">
@@ -6049,40 +6072,40 @@
       <c r="A129" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="B129" s="14">
-        <v>0</v>
-      </c>
-      <c r="C129" s="14">
-        <v>0</v>
-      </c>
-      <c r="D129" s="14">
-        <v>0</v>
-      </c>
-      <c r="E129" s="14">
-        <v>0</v>
-      </c>
-      <c r="F129" s="14">
-        <v>0</v>
-      </c>
-      <c r="G129" s="14">
-        <v>0</v>
-      </c>
-      <c r="H129" s="14">
-        <v>0</v>
-      </c>
-      <c r="I129" s="14">
+      <c r="B129" s="8">
+        <v>0</v>
+      </c>
+      <c r="C129" s="8">
+        <v>0</v>
+      </c>
+      <c r="D129" s="8">
+        <v>0</v>
+      </c>
+      <c r="E129" s="8">
+        <v>0</v>
+      </c>
+      <c r="F129" s="8">
+        <v>0</v>
+      </c>
+      <c r="G129" s="8">
+        <v>0</v>
+      </c>
+      <c r="H129" s="8">
+        <v>0</v>
+      </c>
+      <c r="I129" s="8">
         <v>0.1</v>
       </c>
-      <c r="J129" s="14">
+      <c r="J129" s="8">
         <v>0.1</v>
       </c>
-      <c r="K129" s="14">
-        <v>0</v>
-      </c>
-      <c r="L129" s="14">
-        <v>0</v>
-      </c>
-      <c r="M129" s="14">
+      <c r="K129" s="8">
+        <v>0</v>
+      </c>
+      <c r="L129" s="8">
+        <v>0</v>
+      </c>
+      <c r="M129" s="8">
         <v>0</v>
       </c>
       <c r="N129">
@@ -6093,40 +6116,40 @@
       <c r="A130" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="B130" s="14">
+      <c r="B130" s="8">
         <v>0.1</v>
       </c>
-      <c r="C130" s="14">
-        <v>0</v>
-      </c>
-      <c r="D130" s="14">
-        <v>0</v>
-      </c>
-      <c r="E130" s="14">
-        <v>0</v>
-      </c>
-      <c r="F130" s="14">
-        <v>0</v>
-      </c>
-      <c r="G130" s="14">
-        <v>0</v>
-      </c>
-      <c r="H130" s="14">
-        <v>0</v>
-      </c>
-      <c r="I130" s="14">
-        <v>0</v>
-      </c>
-      <c r="J130" s="14">
-        <v>0</v>
-      </c>
-      <c r="K130" s="14">
-        <v>0</v>
-      </c>
-      <c r="L130" s="14">
+      <c r="C130" s="8">
+        <v>0</v>
+      </c>
+      <c r="D130" s="8">
+        <v>0</v>
+      </c>
+      <c r="E130" s="8">
+        <v>0</v>
+      </c>
+      <c r="F130" s="8">
+        <v>0</v>
+      </c>
+      <c r="G130" s="8">
+        <v>0</v>
+      </c>
+      <c r="H130" s="8">
+        <v>0</v>
+      </c>
+      <c r="I130" s="8">
+        <v>0</v>
+      </c>
+      <c r="J130" s="8">
+        <v>0</v>
+      </c>
+      <c r="K130" s="8">
+        <v>0</v>
+      </c>
+      <c r="L130" s="8">
         <v>0.1</v>
       </c>
-      <c r="M130" s="14">
+      <c r="M130" s="8">
         <v>0</v>
       </c>
       <c r="N130">
@@ -6137,40 +6160,40 @@
       <c r="A131" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="B131" s="14">
+      <c r="B131" s="8">
         <v>0.1</v>
       </c>
-      <c r="C131" s="14">
-        <v>0</v>
-      </c>
-      <c r="D131" s="14">
-        <v>0</v>
-      </c>
-      <c r="E131" s="14">
-        <v>0</v>
-      </c>
-      <c r="F131" s="14">
-        <v>0</v>
-      </c>
-      <c r="G131" s="14">
-        <v>0</v>
-      </c>
-      <c r="H131" s="14">
-        <v>0</v>
-      </c>
-      <c r="I131" s="14">
-        <v>0</v>
-      </c>
-      <c r="J131" s="14">
-        <v>0</v>
-      </c>
-      <c r="K131" s="14">
-        <v>0</v>
-      </c>
-      <c r="L131" s="14">
+      <c r="C131" s="8">
+        <v>0</v>
+      </c>
+      <c r="D131" s="8">
+        <v>0</v>
+      </c>
+      <c r="E131" s="8">
+        <v>0</v>
+      </c>
+      <c r="F131" s="8">
+        <v>0</v>
+      </c>
+      <c r="G131" s="8">
+        <v>0</v>
+      </c>
+      <c r="H131" s="8">
+        <v>0</v>
+      </c>
+      <c r="I131" s="8">
+        <v>0</v>
+      </c>
+      <c r="J131" s="8">
+        <v>0</v>
+      </c>
+      <c r="K131" s="8">
+        <v>0</v>
+      </c>
+      <c r="L131" s="8">
         <v>0.1</v>
       </c>
-      <c r="M131" s="14">
+      <c r="M131" s="8">
         <v>0</v>
       </c>
       <c r="N131">
@@ -6181,40 +6204,40 @@
       <c r="A132" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="B132" s="14">
+      <c r="B132" s="8">
         <v>0.1</v>
       </c>
-      <c r="C132" s="14">
-        <v>0</v>
-      </c>
-      <c r="D132" s="14">
-        <v>0</v>
-      </c>
-      <c r="E132" s="14">
-        <v>0</v>
-      </c>
-      <c r="F132" s="14">
-        <v>0</v>
-      </c>
-      <c r="G132" s="14">
-        <v>0</v>
-      </c>
-      <c r="H132" s="14">
-        <v>0</v>
-      </c>
-      <c r="I132" s="14">
-        <v>0</v>
-      </c>
-      <c r="J132" s="14">
-        <v>0</v>
-      </c>
-      <c r="K132" s="14">
-        <v>0</v>
-      </c>
-      <c r="L132" s="14">
+      <c r="C132" s="8">
+        <v>0</v>
+      </c>
+      <c r="D132" s="8">
+        <v>0</v>
+      </c>
+      <c r="E132" s="8">
+        <v>0</v>
+      </c>
+      <c r="F132" s="8">
+        <v>0</v>
+      </c>
+      <c r="G132" s="8">
+        <v>0</v>
+      </c>
+      <c r="H132" s="8">
+        <v>0</v>
+      </c>
+      <c r="I132" s="8">
+        <v>0</v>
+      </c>
+      <c r="J132" s="8">
+        <v>0</v>
+      </c>
+      <c r="K132" s="8">
+        <v>0</v>
+      </c>
+      <c r="L132" s="8">
         <v>0.1</v>
       </c>
-      <c r="M132" s="14">
+      <c r="M132" s="8">
         <v>0</v>
       </c>
       <c r="N132">
@@ -6225,40 +6248,40 @@
       <c r="A133" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="B133" s="14">
-        <v>0</v>
-      </c>
-      <c r="C133" s="14">
-        <v>0</v>
-      </c>
-      <c r="D133" s="14">
-        <v>0</v>
-      </c>
-      <c r="E133" s="14">
-        <v>0</v>
-      </c>
-      <c r="F133" s="14">
-        <v>0</v>
-      </c>
-      <c r="G133" s="14">
-        <v>0</v>
-      </c>
-      <c r="H133" s="14">
-        <v>0</v>
-      </c>
-      <c r="I133" s="14">
+      <c r="B133" s="8">
+        <v>0</v>
+      </c>
+      <c r="C133" s="8">
+        <v>0</v>
+      </c>
+      <c r="D133" s="8">
+        <v>0</v>
+      </c>
+      <c r="E133" s="8">
+        <v>0</v>
+      </c>
+      <c r="F133" s="8">
+        <v>0</v>
+      </c>
+      <c r="G133" s="8">
+        <v>0</v>
+      </c>
+      <c r="H133" s="8">
+        <v>0</v>
+      </c>
+      <c r="I133" s="8">
         <v>0.1</v>
       </c>
-      <c r="J133" s="14">
+      <c r="J133" s="8">
         <v>0.1</v>
       </c>
-      <c r="K133" s="14">
-        <v>0</v>
-      </c>
-      <c r="L133" s="14">
-        <v>0</v>
-      </c>
-      <c r="M133" s="14">
+      <c r="K133" s="8">
+        <v>0</v>
+      </c>
+      <c r="L133" s="8">
+        <v>0</v>
+      </c>
+      <c r="M133" s="8">
         <v>0</v>
       </c>
       <c r="N133">
@@ -6269,40 +6292,40 @@
       <c r="A134" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="B134" s="14">
-        <v>0</v>
-      </c>
-      <c r="C134" s="14">
-        <v>0</v>
-      </c>
-      <c r="D134" s="14">
-        <v>0</v>
-      </c>
-      <c r="E134" s="14">
-        <v>0</v>
-      </c>
-      <c r="F134" s="14">
-        <v>0</v>
-      </c>
-      <c r="G134" s="14">
-        <v>0</v>
-      </c>
-      <c r="H134" s="14">
-        <v>0</v>
-      </c>
-      <c r="I134" s="14">
+      <c r="B134" s="8">
+        <v>0</v>
+      </c>
+      <c r="C134" s="8">
+        <v>0</v>
+      </c>
+      <c r="D134" s="8">
+        <v>0</v>
+      </c>
+      <c r="E134" s="8">
+        <v>0</v>
+      </c>
+      <c r="F134" s="8">
+        <v>0</v>
+      </c>
+      <c r="G134" s="8">
+        <v>0</v>
+      </c>
+      <c r="H134" s="8">
+        <v>0</v>
+      </c>
+      <c r="I134" s="8">
         <v>0.1</v>
       </c>
-      <c r="J134" s="14">
+      <c r="J134" s="8">
         <v>0.1</v>
       </c>
-      <c r="K134" s="14">
-        <v>0</v>
-      </c>
-      <c r="L134" s="14">
-        <v>0</v>
-      </c>
-      <c r="M134" s="14">
+      <c r="K134" s="8">
+        <v>0</v>
+      </c>
+      <c r="L134" s="8">
+        <v>0</v>
+      </c>
+      <c r="M134" s="8">
         <v>0</v>
       </c>
       <c r="N134">
@@ -6313,40 +6336,40 @@
       <c r="A135" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="B135" s="14">
-        <v>0</v>
-      </c>
-      <c r="C135" s="14">
-        <v>0</v>
-      </c>
-      <c r="D135" s="14">
-        <v>0</v>
-      </c>
-      <c r="E135" s="14">
-        <v>0</v>
-      </c>
-      <c r="F135" s="14">
-        <v>0</v>
-      </c>
-      <c r="G135" s="14">
-        <v>0</v>
-      </c>
-      <c r="H135" s="14">
-        <v>0</v>
-      </c>
-      <c r="I135" s="14">
+      <c r="B135" s="8">
+        <v>0</v>
+      </c>
+      <c r="C135" s="8">
+        <v>0</v>
+      </c>
+      <c r="D135" s="8">
+        <v>0</v>
+      </c>
+      <c r="E135" s="8">
+        <v>0</v>
+      </c>
+      <c r="F135" s="8">
+        <v>0</v>
+      </c>
+      <c r="G135" s="8">
+        <v>0</v>
+      </c>
+      <c r="H135" s="8">
+        <v>0</v>
+      </c>
+      <c r="I135" s="8">
         <v>0.1</v>
       </c>
-      <c r="J135" s="14">
+      <c r="J135" s="8">
         <v>0.1</v>
       </c>
-      <c r="K135" s="14">
-        <v>0</v>
-      </c>
-      <c r="L135" s="14">
-        <v>0</v>
-      </c>
-      <c r="M135" s="14">
+      <c r="K135" s="8">
+        <v>0</v>
+      </c>
+      <c r="L135" s="8">
+        <v>0</v>
+      </c>
+      <c r="M135" s="8">
         <v>0</v>
       </c>
       <c r="N135">
@@ -6357,40 +6380,40 @@
       <c r="A136" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="B136" s="14">
-        <v>0</v>
-      </c>
-      <c r="C136" s="14">
-        <v>0</v>
-      </c>
-      <c r="D136" s="14">
-        <v>0</v>
-      </c>
-      <c r="E136" s="14">
-        <v>0</v>
-      </c>
-      <c r="F136" s="14">
-        <v>0</v>
-      </c>
-      <c r="G136" s="14">
-        <v>0</v>
-      </c>
-      <c r="H136" s="14">
-        <v>0</v>
-      </c>
-      <c r="I136" s="14">
+      <c r="B136" s="8">
+        <v>0</v>
+      </c>
+      <c r="C136" s="8">
+        <v>0</v>
+      </c>
+      <c r="D136" s="8">
+        <v>0</v>
+      </c>
+      <c r="E136" s="8">
+        <v>0</v>
+      </c>
+      <c r="F136" s="8">
+        <v>0</v>
+      </c>
+      <c r="G136" s="8">
+        <v>0</v>
+      </c>
+      <c r="H136" s="8">
+        <v>0</v>
+      </c>
+      <c r="I136" s="8">
         <v>0.1</v>
       </c>
-      <c r="J136" s="14">
+      <c r="J136" s="8">
         <v>0.1</v>
       </c>
-      <c r="K136" s="14">
-        <v>0</v>
-      </c>
-      <c r="L136" s="14">
-        <v>0</v>
-      </c>
-      <c r="M136" s="14">
+      <c r="K136" s="8">
+        <v>0</v>
+      </c>
+      <c r="L136" s="8">
+        <v>0</v>
+      </c>
+      <c r="M136" s="8">
         <v>0</v>
       </c>
       <c r="N136">
@@ -6401,40 +6424,40 @@
       <c r="A137" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="B137" s="14">
-        <v>0</v>
-      </c>
-      <c r="C137" s="14">
-        <v>0</v>
-      </c>
-      <c r="D137" s="14">
-        <v>0</v>
-      </c>
-      <c r="E137" s="14">
-        <v>0</v>
-      </c>
-      <c r="F137" s="14">
-        <v>0</v>
-      </c>
-      <c r="G137" s="14">
-        <v>0</v>
-      </c>
-      <c r="H137" s="14">
-        <v>0</v>
-      </c>
-      <c r="I137" s="14">
+      <c r="B137" s="8">
+        <v>0</v>
+      </c>
+      <c r="C137" s="8">
+        <v>0</v>
+      </c>
+      <c r="D137" s="8">
+        <v>0</v>
+      </c>
+      <c r="E137" s="8">
+        <v>0</v>
+      </c>
+      <c r="F137" s="8">
+        <v>0</v>
+      </c>
+      <c r="G137" s="8">
+        <v>0</v>
+      </c>
+      <c r="H137" s="8">
+        <v>0</v>
+      </c>
+      <c r="I137" s="8">
         <v>0.1</v>
       </c>
-      <c r="J137" s="14">
+      <c r="J137" s="8">
         <v>0.1</v>
       </c>
-      <c r="K137" s="14">
-        <v>0</v>
-      </c>
-      <c r="L137" s="14">
-        <v>0</v>
-      </c>
-      <c r="M137" s="14">
+      <c r="K137" s="8">
+        <v>0</v>
+      </c>
+      <c r="L137" s="8">
+        <v>0</v>
+      </c>
+      <c r="M137" s="8">
         <v>0</v>
       </c>
       <c r="N137">
@@ -6445,40 +6468,40 @@
       <c r="A138" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="B138" s="14">
-        <v>0</v>
-      </c>
-      <c r="C138" s="14">
-        <v>0</v>
-      </c>
-      <c r="D138" s="14">
-        <v>0</v>
-      </c>
-      <c r="E138" s="14">
-        <v>0</v>
-      </c>
-      <c r="F138" s="14">
-        <v>0</v>
-      </c>
-      <c r="G138" s="14">
-        <v>0</v>
-      </c>
-      <c r="H138" s="14">
-        <v>0</v>
-      </c>
-      <c r="I138" s="14">
+      <c r="B138" s="8">
+        <v>0</v>
+      </c>
+      <c r="C138" s="8">
+        <v>0</v>
+      </c>
+      <c r="D138" s="8">
+        <v>0</v>
+      </c>
+      <c r="E138" s="8">
+        <v>0</v>
+      </c>
+      <c r="F138" s="8">
+        <v>0</v>
+      </c>
+      <c r="G138" s="8">
+        <v>0</v>
+      </c>
+      <c r="H138" s="8">
+        <v>0</v>
+      </c>
+      <c r="I138" s="8">
         <v>0.1</v>
       </c>
-      <c r="J138" s="14">
+      <c r="J138" s="8">
         <v>0.1</v>
       </c>
-      <c r="K138" s="14">
-        <v>0</v>
-      </c>
-      <c r="L138" s="14">
-        <v>0</v>
-      </c>
-      <c r="M138" s="14">
+      <c r="K138" s="8">
+        <v>0</v>
+      </c>
+      <c r="L138" s="8">
+        <v>0</v>
+      </c>
+      <c r="M138" s="8">
         <v>0</v>
       </c>
       <c r="N138">
@@ -6489,40 +6512,40 @@
       <c r="A139" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="B139" s="14">
+      <c r="B139" s="8">
         <v>0.1</v>
       </c>
-      <c r="C139" s="14">
-        <v>0</v>
-      </c>
-      <c r="D139" s="14">
-        <v>0</v>
-      </c>
-      <c r="E139" s="14">
-        <v>0</v>
-      </c>
-      <c r="F139" s="14">
-        <v>0</v>
-      </c>
-      <c r="G139" s="14">
-        <v>0</v>
-      </c>
-      <c r="H139" s="14">
-        <v>0</v>
-      </c>
-      <c r="I139" s="14">
-        <v>0</v>
-      </c>
-      <c r="J139" s="14">
-        <v>0</v>
-      </c>
-      <c r="K139" s="14">
-        <v>0</v>
-      </c>
-      <c r="L139" s="14">
+      <c r="C139" s="8">
+        <v>0</v>
+      </c>
+      <c r="D139" s="8">
+        <v>0</v>
+      </c>
+      <c r="E139" s="8">
+        <v>0</v>
+      </c>
+      <c r="F139" s="8">
+        <v>0</v>
+      </c>
+      <c r="G139" s="8">
+        <v>0</v>
+      </c>
+      <c r="H139" s="8">
+        <v>0</v>
+      </c>
+      <c r="I139" s="8">
+        <v>0</v>
+      </c>
+      <c r="J139" s="8">
+        <v>0</v>
+      </c>
+      <c r="K139" s="8">
+        <v>0</v>
+      </c>
+      <c r="L139" s="8">
         <v>0.1</v>
       </c>
-      <c r="M139" s="14">
+      <c r="M139" s="8">
         <v>0</v>
       </c>
       <c r="N139">
@@ -6533,40 +6556,40 @@
       <c r="A140" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="B140" s="14">
-        <v>0</v>
-      </c>
-      <c r="C140" s="14">
-        <v>0</v>
-      </c>
-      <c r="D140" s="14">
-        <v>0</v>
-      </c>
-      <c r="E140" s="14">
-        <v>0</v>
-      </c>
-      <c r="F140" s="14">
-        <v>0</v>
-      </c>
-      <c r="G140" s="14">
-        <v>0</v>
-      </c>
-      <c r="H140" s="14">
-        <v>0</v>
-      </c>
-      <c r="I140" s="14">
-        <v>0</v>
-      </c>
-      <c r="J140" s="14">
-        <v>0</v>
-      </c>
-      <c r="K140" s="14">
-        <v>0</v>
-      </c>
-      <c r="L140" s="14">
-        <v>0</v>
-      </c>
-      <c r="M140" s="14">
+      <c r="B140" s="8">
+        <v>0</v>
+      </c>
+      <c r="C140" s="8">
+        <v>0</v>
+      </c>
+      <c r="D140" s="8">
+        <v>0</v>
+      </c>
+      <c r="E140" s="8">
+        <v>0</v>
+      </c>
+      <c r="F140" s="8">
+        <v>0</v>
+      </c>
+      <c r="G140" s="8">
+        <v>0</v>
+      </c>
+      <c r="H140" s="8">
+        <v>0</v>
+      </c>
+      <c r="I140" s="8">
+        <v>0</v>
+      </c>
+      <c r="J140" s="8">
+        <v>0</v>
+      </c>
+      <c r="K140" s="8">
+        <v>0</v>
+      </c>
+      <c r="L140" s="8">
+        <v>0</v>
+      </c>
+      <c r="M140" s="8">
         <v>0</v>
       </c>
       <c r="N140">
@@ -6577,40 +6600,40 @@
       <c r="A141" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="B141" s="14">
-        <v>0</v>
-      </c>
-      <c r="C141" s="14">
-        <v>0</v>
-      </c>
-      <c r="D141" s="14">
-        <v>0</v>
-      </c>
-      <c r="E141" s="14">
-        <v>0</v>
-      </c>
-      <c r="F141" s="14">
-        <v>0</v>
-      </c>
-      <c r="G141" s="14">
-        <v>0</v>
-      </c>
-      <c r="H141" s="14">
-        <v>0</v>
-      </c>
-      <c r="I141" s="14">
+      <c r="B141" s="8">
+        <v>0</v>
+      </c>
+      <c r="C141" s="8">
+        <v>0</v>
+      </c>
+      <c r="D141" s="8">
+        <v>0</v>
+      </c>
+      <c r="E141" s="8">
+        <v>0</v>
+      </c>
+      <c r="F141" s="8">
+        <v>0</v>
+      </c>
+      <c r="G141" s="8">
+        <v>0</v>
+      </c>
+      <c r="H141" s="8">
+        <v>0</v>
+      </c>
+      <c r="I141" s="8">
         <v>0.1</v>
       </c>
-      <c r="J141" s="14">
+      <c r="J141" s="8">
         <v>0.1</v>
       </c>
-      <c r="K141" s="14">
-        <v>0</v>
-      </c>
-      <c r="L141" s="14">
-        <v>0</v>
-      </c>
-      <c r="M141" s="14">
+      <c r="K141" s="8">
+        <v>0</v>
+      </c>
+      <c r="L141" s="8">
+        <v>0</v>
+      </c>
+      <c r="M141" s="8">
         <v>0</v>
       </c>
       <c r="N141">
@@ -6621,40 +6644,40 @@
       <c r="A142" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="B142" s="14">
-        <v>0</v>
-      </c>
-      <c r="C142" s="14">
-        <v>0</v>
-      </c>
-      <c r="D142" s="14">
-        <v>0</v>
-      </c>
-      <c r="E142" s="14">
-        <v>0</v>
-      </c>
-      <c r="F142" s="14">
-        <v>0</v>
-      </c>
-      <c r="G142" s="14">
-        <v>0</v>
-      </c>
-      <c r="H142" s="14">
-        <v>0</v>
-      </c>
-      <c r="I142" s="14">
+      <c r="B142" s="8">
+        <v>0</v>
+      </c>
+      <c r="C142" s="8">
+        <v>0</v>
+      </c>
+      <c r="D142" s="8">
+        <v>0</v>
+      </c>
+      <c r="E142" s="8">
+        <v>0</v>
+      </c>
+      <c r="F142" s="8">
+        <v>0</v>
+      </c>
+      <c r="G142" s="8">
+        <v>0</v>
+      </c>
+      <c r="H142" s="8">
+        <v>0</v>
+      </c>
+      <c r="I142" s="8">
         <v>0.1</v>
       </c>
-      <c r="J142" s="14">
+      <c r="J142" s="8">
         <v>0.1</v>
       </c>
-      <c r="K142" s="14">
-        <v>0</v>
-      </c>
-      <c r="L142" s="14">
-        <v>0</v>
-      </c>
-      <c r="M142" s="14">
+      <c r="K142" s="8">
+        <v>0</v>
+      </c>
+      <c r="L142" s="8">
+        <v>0</v>
+      </c>
+      <c r="M142" s="8">
         <v>0</v>
       </c>
       <c r="N142">
@@ -6665,40 +6688,40 @@
       <c r="A143" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="B143" s="14">
+      <c r="B143" s="8">
         <v>0.1</v>
       </c>
-      <c r="C143" s="14">
-        <v>0</v>
-      </c>
-      <c r="D143" s="14">
-        <v>0</v>
-      </c>
-      <c r="E143" s="14">
-        <v>0</v>
-      </c>
-      <c r="F143" s="14">
-        <v>0</v>
-      </c>
-      <c r="G143" s="14">
-        <v>0</v>
-      </c>
-      <c r="H143" s="14">
-        <v>0</v>
-      </c>
-      <c r="I143" s="14">
-        <v>0</v>
-      </c>
-      <c r="J143" s="14">
-        <v>0</v>
-      </c>
-      <c r="K143" s="14">
-        <v>0</v>
-      </c>
-      <c r="L143" s="14">
+      <c r="C143" s="8">
+        <v>0</v>
+      </c>
+      <c r="D143" s="8">
+        <v>0</v>
+      </c>
+      <c r="E143" s="8">
+        <v>0</v>
+      </c>
+      <c r="F143" s="8">
+        <v>0</v>
+      </c>
+      <c r="G143" s="8">
+        <v>0</v>
+      </c>
+      <c r="H143" s="8">
+        <v>0</v>
+      </c>
+      <c r="I143" s="8">
+        <v>0</v>
+      </c>
+      <c r="J143" s="8">
+        <v>0</v>
+      </c>
+      <c r="K143" s="8">
+        <v>0</v>
+      </c>
+      <c r="L143" s="8">
         <v>0.1</v>
       </c>
-      <c r="M143" s="14">
+      <c r="M143" s="8">
         <v>0</v>
       </c>
       <c r="N143">
@@ -6709,40 +6732,40 @@
       <c r="A144" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="B144" s="14">
-        <v>0</v>
-      </c>
-      <c r="C144" s="14">
-        <v>0</v>
-      </c>
-      <c r="D144" s="14">
-        <v>0</v>
-      </c>
-      <c r="E144" s="14">
-        <v>0</v>
-      </c>
-      <c r="F144" s="14">
-        <v>0</v>
-      </c>
-      <c r="G144" s="14">
-        <v>0</v>
-      </c>
-      <c r="H144" s="14">
-        <v>0</v>
-      </c>
-      <c r="I144" s="14">
+      <c r="B144" s="8">
+        <v>0</v>
+      </c>
+      <c r="C144" s="8">
+        <v>0</v>
+      </c>
+      <c r="D144" s="8">
+        <v>0</v>
+      </c>
+      <c r="E144" s="8">
+        <v>0</v>
+      </c>
+      <c r="F144" s="8">
+        <v>0</v>
+      </c>
+      <c r="G144" s="8">
+        <v>0</v>
+      </c>
+      <c r="H144" s="8">
+        <v>0</v>
+      </c>
+      <c r="I144" s="8">
         <v>0.1</v>
       </c>
-      <c r="J144" s="14">
+      <c r="J144" s="8">
         <v>0.1</v>
       </c>
-      <c r="K144" s="14">
-        <v>0</v>
-      </c>
-      <c r="L144" s="14">
-        <v>0</v>
-      </c>
-      <c r="M144" s="14">
+      <c r="K144" s="8">
+        <v>0</v>
+      </c>
+      <c r="L144" s="8">
+        <v>0</v>
+      </c>
+      <c r="M144" s="8">
         <v>0</v>
       </c>
       <c r="N144">
@@ -6753,40 +6776,40 @@
       <c r="A145" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="B145" s="14">
-        <v>0</v>
-      </c>
-      <c r="C145" s="14">
-        <v>0</v>
-      </c>
-      <c r="D145" s="14">
-        <v>0</v>
-      </c>
-      <c r="E145" s="14">
-        <v>0</v>
-      </c>
-      <c r="F145" s="14">
-        <v>0</v>
-      </c>
-      <c r="G145" s="14">
-        <v>0</v>
-      </c>
-      <c r="H145" s="14">
-        <v>0</v>
-      </c>
-      <c r="I145" s="14">
+      <c r="B145" s="8">
+        <v>0</v>
+      </c>
+      <c r="C145" s="8">
+        <v>0</v>
+      </c>
+      <c r="D145" s="8">
+        <v>0</v>
+      </c>
+      <c r="E145" s="8">
+        <v>0</v>
+      </c>
+      <c r="F145" s="8">
+        <v>0</v>
+      </c>
+      <c r="G145" s="8">
+        <v>0</v>
+      </c>
+      <c r="H145" s="8">
+        <v>0</v>
+      </c>
+      <c r="I145" s="8">
         <v>0.1</v>
       </c>
-      <c r="J145" s="14">
+      <c r="J145" s="8">
         <v>0.1</v>
       </c>
-      <c r="K145" s="14">
-        <v>0</v>
-      </c>
-      <c r="L145" s="14">
-        <v>0</v>
-      </c>
-      <c r="M145" s="14">
+      <c r="K145" s="8">
+        <v>0</v>
+      </c>
+      <c r="L145" s="8">
+        <v>0</v>
+      </c>
+      <c r="M145" s="8">
         <v>0</v>
       </c>
       <c r="N145">
@@ -6797,40 +6820,40 @@
       <c r="A146" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="B146" s="14">
+      <c r="B146" s="8">
         <v>0.1</v>
       </c>
-      <c r="C146" s="14">
-        <v>0</v>
-      </c>
-      <c r="D146" s="14">
-        <v>0</v>
-      </c>
-      <c r="E146" s="14">
-        <v>0</v>
-      </c>
-      <c r="F146" s="14">
-        <v>0</v>
-      </c>
-      <c r="G146" s="14">
-        <v>0</v>
-      </c>
-      <c r="H146" s="14">
-        <v>0</v>
-      </c>
-      <c r="I146" s="14">
-        <v>0</v>
-      </c>
-      <c r="J146" s="14">
-        <v>0</v>
-      </c>
-      <c r="K146" s="14">
-        <v>0</v>
-      </c>
-      <c r="L146" s="14">
+      <c r="C146" s="8">
+        <v>0</v>
+      </c>
+      <c r="D146" s="8">
+        <v>0</v>
+      </c>
+      <c r="E146" s="8">
+        <v>0</v>
+      </c>
+      <c r="F146" s="8">
+        <v>0</v>
+      </c>
+      <c r="G146" s="8">
+        <v>0</v>
+      </c>
+      <c r="H146" s="8">
+        <v>0</v>
+      </c>
+      <c r="I146" s="8">
+        <v>0</v>
+      </c>
+      <c r="J146" s="8">
+        <v>0</v>
+      </c>
+      <c r="K146" s="8">
+        <v>0</v>
+      </c>
+      <c r="L146" s="8">
         <v>0.1</v>
       </c>
-      <c r="M146" s="14">
+      <c r="M146" s="8">
         <v>0</v>
       </c>
       <c r="N146">
@@ -6841,40 +6864,40 @@
       <c r="A147" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="B147" s="14">
-        <v>0</v>
-      </c>
-      <c r="C147" s="14">
-        <v>0</v>
-      </c>
-      <c r="D147" s="14">
-        <v>0</v>
-      </c>
-      <c r="E147" s="14">
-        <v>0</v>
-      </c>
-      <c r="F147" s="14">
-        <v>0</v>
-      </c>
-      <c r="G147" s="14">
-        <v>0</v>
-      </c>
-      <c r="H147" s="14">
-        <v>0</v>
-      </c>
-      <c r="I147" s="14">
+      <c r="B147" s="8">
+        <v>0</v>
+      </c>
+      <c r="C147" s="8">
+        <v>0</v>
+      </c>
+      <c r="D147" s="8">
+        <v>0</v>
+      </c>
+      <c r="E147" s="8">
+        <v>0</v>
+      </c>
+      <c r="F147" s="8">
+        <v>0</v>
+      </c>
+      <c r="G147" s="8">
+        <v>0</v>
+      </c>
+      <c r="H147" s="8">
+        <v>0</v>
+      </c>
+      <c r="I147" s="8">
         <v>0.1</v>
       </c>
-      <c r="J147" s="14">
+      <c r="J147" s="8">
         <v>0.1</v>
       </c>
-      <c r="K147" s="14">
-        <v>0</v>
-      </c>
-      <c r="L147" s="14">
-        <v>0</v>
-      </c>
-      <c r="M147" s="14">
+      <c r="K147" s="8">
+        <v>0</v>
+      </c>
+      <c r="L147" s="8">
+        <v>0</v>
+      </c>
+      <c r="M147" s="8">
         <v>0</v>
       </c>
       <c r="N147">
@@ -6885,40 +6908,40 @@
       <c r="A148" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="B148" s="14">
+      <c r="B148" s="8">
         <v>0.1</v>
       </c>
-      <c r="C148" s="14">
-        <v>0</v>
-      </c>
-      <c r="D148" s="14">
-        <v>0</v>
-      </c>
-      <c r="E148" s="14">
-        <v>0</v>
-      </c>
-      <c r="F148" s="14">
-        <v>0</v>
-      </c>
-      <c r="G148" s="14">
-        <v>0</v>
-      </c>
-      <c r="H148" s="14">
-        <v>0</v>
-      </c>
-      <c r="I148" s="14">
-        <v>0</v>
-      </c>
-      <c r="J148" s="14">
-        <v>0</v>
-      </c>
-      <c r="K148" s="14">
-        <v>0</v>
-      </c>
-      <c r="L148" s="14">
+      <c r="C148" s="8">
+        <v>0</v>
+      </c>
+      <c r="D148" s="8">
+        <v>0</v>
+      </c>
+      <c r="E148" s="8">
+        <v>0</v>
+      </c>
+      <c r="F148" s="8">
+        <v>0</v>
+      </c>
+      <c r="G148" s="8">
+        <v>0</v>
+      </c>
+      <c r="H148" s="8">
+        <v>0</v>
+      </c>
+      <c r="I148" s="8">
+        <v>0</v>
+      </c>
+      <c r="J148" s="8">
+        <v>0</v>
+      </c>
+      <c r="K148" s="8">
+        <v>0</v>
+      </c>
+      <c r="L148" s="8">
         <v>0.1</v>
       </c>
-      <c r="M148" s="14">
+      <c r="M148" s="8">
         <v>0</v>
       </c>
       <c r="N148">
@@ -6929,40 +6952,40 @@
       <c r="A149" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="B149" s="14">
-        <v>0</v>
-      </c>
-      <c r="C149" s="14">
-        <v>0</v>
-      </c>
-      <c r="D149" s="14">
-        <v>0</v>
-      </c>
-      <c r="E149" s="14">
-        <v>0</v>
-      </c>
-      <c r="F149" s="14">
-        <v>0</v>
-      </c>
-      <c r="G149" s="14">
-        <v>0</v>
-      </c>
-      <c r="H149" s="14">
-        <v>0</v>
-      </c>
-      <c r="I149" s="14">
+      <c r="B149" s="8">
+        <v>0</v>
+      </c>
+      <c r="C149" s="8">
+        <v>0</v>
+      </c>
+      <c r="D149" s="8">
+        <v>0</v>
+      </c>
+      <c r="E149" s="8">
+        <v>0</v>
+      </c>
+      <c r="F149" s="8">
+        <v>0</v>
+      </c>
+      <c r="G149" s="8">
+        <v>0</v>
+      </c>
+      <c r="H149" s="8">
+        <v>0</v>
+      </c>
+      <c r="I149" s="8">
         <v>0.1</v>
       </c>
-      <c r="J149" s="14">
+      <c r="J149" s="8">
         <v>0.1</v>
       </c>
-      <c r="K149" s="14">
-        <v>0</v>
-      </c>
-      <c r="L149" s="14">
-        <v>0</v>
-      </c>
-      <c r="M149" s="14">
+      <c r="K149" s="8">
+        <v>0</v>
+      </c>
+      <c r="L149" s="8">
+        <v>0</v>
+      </c>
+      <c r="M149" s="8">
         <v>0</v>
       </c>
       <c r="N149">
@@ -6970,45 +6993,45 @@
       </c>
     </row>
     <row r="153" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A153" s="8" t="s">
+      <c r="A153" s="11" t="s">
         <v>59</v>
       </c>
-      <c r="B153" s="8"/>
-      <c r="C153" s="8"/>
-      <c r="D153" s="8"/>
-      <c r="E153" s="8"/>
-      <c r="F153" s="8"/>
-      <c r="G153" s="8"/>
-      <c r="H153" s="8"/>
-      <c r="I153" s="8"/>
-      <c r="J153" s="8"/>
-      <c r="K153" s="8"/>
-      <c r="L153" s="8"/>
-      <c r="M153" s="8"/>
+      <c r="B153" s="11"/>
+      <c r="C153" s="11"/>
+      <c r="D153" s="11"/>
+      <c r="E153" s="11"/>
+      <c r="F153" s="11"/>
+      <c r="G153" s="11"/>
+      <c r="H153" s="11"/>
+      <c r="I153" s="11"/>
+      <c r="J153" s="11"/>
+      <c r="K153" s="11"/>
+      <c r="L153" s="11"/>
+      <c r="M153" s="11"/>
       <c r="N153"/>
     </row>
     <row r="154" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A154" s="7" t="s">
+      <c r="A154" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="B154" s="7" t="s">
+      <c r="B154" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="C154" s="7"/>
-      <c r="D154" s="7"/>
-      <c r="E154" s="7"/>
-      <c r="F154" s="7"/>
-      <c r="G154" s="7"/>
-      <c r="H154" s="7"/>
-      <c r="I154" s="7"/>
-      <c r="J154" s="7"/>
-      <c r="K154" s="7"/>
-      <c r="L154" s="7"/>
-      <c r="M154" s="7"/>
+      <c r="C154" s="10"/>
+      <c r="D154" s="10"/>
+      <c r="E154" s="10"/>
+      <c r="F154" s="10"/>
+      <c r="G154" s="10"/>
+      <c r="H154" s="10"/>
+      <c r="I154" s="10"/>
+      <c r="J154" s="10"/>
+      <c r="K154" s="10"/>
+      <c r="L154" s="10"/>
+      <c r="M154" s="10"/>
       <c r="N154"/>
     </row>
     <row r="155" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A155" s="7"/>
+      <c r="A155" s="10"/>
       <c r="B155" s="4" t="s">
         <v>19</v>
       </c>
@@ -7051,7 +7074,7 @@
       <c r="A156" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="B156" s="14">
+      <c r="B156" s="8">
         <v>1E-4</v>
       </c>
       <c r="C156" s="6">
@@ -7095,7 +7118,7 @@
       <c r="A157" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="B157" s="14">
+      <c r="B157" s="8">
         <v>1E-4</v>
       </c>
       <c r="C157" s="6">
@@ -7139,7 +7162,7 @@
       <c r="A158" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="B158" s="14">
+      <c r="B158" s="8">
         <v>1E-4</v>
       </c>
       <c r="C158" s="6">
@@ -7183,7 +7206,7 @@
       <c r="A159" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="B159" s="14">
+      <c r="B159" s="8">
         <v>1E-4</v>
       </c>
       <c r="C159" s="6">
@@ -7227,7 +7250,7 @@
       <c r="A160" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="B160" s="14">
+      <c r="B160" s="8">
         <v>1E-4</v>
       </c>
       <c r="C160" s="6">
@@ -7271,7 +7294,7 @@
       <c r="A161" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="B161" s="14">
+      <c r="B161" s="8">
         <v>1E-4</v>
       </c>
       <c r="C161" s="6">
@@ -7315,7 +7338,7 @@
       <c r="A162" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="B162" s="14">
+      <c r="B162" s="8">
         <v>1E-4</v>
       </c>
       <c r="C162" s="6">
@@ -7359,7 +7382,7 @@
       <c r="A163" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="B163" s="14">
+      <c r="B163" s="8">
         <v>1E-4</v>
       </c>
       <c r="C163" s="6">
@@ -7403,7 +7426,7 @@
       <c r="A164" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="B164" s="14">
+      <c r="B164" s="8">
         <v>1E-4</v>
       </c>
       <c r="C164" s="6">
@@ -7447,7 +7470,7 @@
       <c r="A165" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="B165" s="14">
+      <c r="B165" s="8">
         <v>1E-4</v>
       </c>
       <c r="C165" s="6">
@@ -7491,7 +7514,7 @@
       <c r="A166" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="B166" s="14">
+      <c r="B166" s="8">
         <v>1E-4</v>
       </c>
       <c r="C166" s="6">
@@ -7535,7 +7558,7 @@
       <c r="A167" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="B167" s="14">
+      <c r="B167" s="8">
         <v>1E-4</v>
       </c>
       <c r="C167" s="6">
@@ -7579,7 +7602,7 @@
       <c r="A168" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="B168" s="14">
+      <c r="B168" s="8">
         <v>1E-4</v>
       </c>
       <c r="C168" s="6">
@@ -7623,7 +7646,7 @@
       <c r="A169" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="B169" s="14">
+      <c r="B169" s="8">
         <v>1E-4</v>
       </c>
       <c r="C169" s="6">
@@ -7667,7 +7690,7 @@
       <c r="A170" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="B170" s="14">
+      <c r="B170" s="8">
         <v>1E-4</v>
       </c>
       <c r="C170" s="6">
@@ -7711,7 +7734,7 @@
       <c r="A171" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="B171" s="14">
+      <c r="B171" s="8">
         <v>1E-4</v>
       </c>
       <c r="C171" s="6">
@@ -7755,7 +7778,7 @@
       <c r="A172" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="B172" s="14">
+      <c r="B172" s="8">
         <v>1E-4</v>
       </c>
       <c r="C172" s="6">
@@ -7799,7 +7822,7 @@
       <c r="A173" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="B173" s="14">
+      <c r="B173" s="8">
         <v>1E-4</v>
       </c>
       <c r="C173" s="6">
@@ -7843,7 +7866,7 @@
       <c r="A174" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="B174" s="14">
+      <c r="B174" s="8">
         <v>1E-4</v>
       </c>
       <c r="C174" s="6">
@@ -7887,7 +7910,7 @@
       <c r="A175" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="B175" s="14">
+      <c r="B175" s="8">
         <v>1E-4</v>
       </c>
       <c r="C175" s="6">
@@ -7931,7 +7954,7 @@
       <c r="A176" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="B176" s="14">
+      <c r="B176" s="8">
         <v>1E-4</v>
       </c>
       <c r="C176" s="6">
@@ -7975,7 +7998,7 @@
       <c r="A177" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="B177" s="14">
+      <c r="B177" s="8">
         <v>1E-4</v>
       </c>
       <c r="C177" s="6">
@@ -8019,7 +8042,7 @@
       <c r="A178" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="B178" s="14">
+      <c r="B178" s="8">
         <v>1E-4</v>
       </c>
       <c r="C178" s="6">
@@ -8063,7 +8086,7 @@
       <c r="A179" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="B179" s="14">
+      <c r="B179" s="8">
         <v>1E-4</v>
       </c>
       <c r="C179" s="6">
@@ -8107,7 +8130,7 @@
       <c r="A180" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="B180" s="14">
+      <c r="B180" s="8">
         <v>1E-4</v>
       </c>
       <c r="C180" s="6">
@@ -8148,45 +8171,45 @@
       </c>
     </row>
     <row r="183" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A183" s="8" t="s">
+      <c r="A183" s="11" t="s">
         <v>60</v>
       </c>
-      <c r="B183" s="8"/>
-      <c r="C183" s="8"/>
-      <c r="D183" s="8"/>
-      <c r="E183" s="8"/>
-      <c r="F183" s="8"/>
-      <c r="G183" s="8"/>
-      <c r="H183" s="8"/>
-      <c r="I183" s="8"/>
-      <c r="J183" s="8"/>
-      <c r="K183" s="8"/>
-      <c r="L183" s="8"/>
-      <c r="M183" s="8"/>
+      <c r="B183" s="11"/>
+      <c r="C183" s="11"/>
+      <c r="D183" s="11"/>
+      <c r="E183" s="11"/>
+      <c r="F183" s="11"/>
+      <c r="G183" s="11"/>
+      <c r="H183" s="11"/>
+      <c r="I183" s="11"/>
+      <c r="J183" s="11"/>
+      <c r="K183" s="11"/>
+      <c r="L183" s="11"/>
+      <c r="M183" s="11"/>
       <c r="N183"/>
     </row>
     <row r="184" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A184" s="7" t="s">
+      <c r="A184" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="B184" s="7" t="s">
+      <c r="B184" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="C184" s="7"/>
-      <c r="D184" s="7"/>
-      <c r="E184" s="7"/>
-      <c r="F184" s="7"/>
-      <c r="G184" s="7"/>
-      <c r="H184" s="7"/>
-      <c r="I184" s="7"/>
-      <c r="J184" s="7"/>
-      <c r="K184" s="7"/>
-      <c r="L184" s="7"/>
-      <c r="M184" s="7"/>
+      <c r="C184" s="10"/>
+      <c r="D184" s="10"/>
+      <c r="E184" s="10"/>
+      <c r="F184" s="10"/>
+      <c r="G184" s="10"/>
+      <c r="H184" s="10"/>
+      <c r="I184" s="10"/>
+      <c r="J184" s="10"/>
+      <c r="K184" s="10"/>
+      <c r="L184" s="10"/>
+      <c r="M184" s="10"/>
       <c r="N184"/>
     </row>
     <row r="185" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A185" s="7"/>
+      <c r="A185" s="10"/>
       <c r="B185" s="4" t="s">
         <v>19</v>
       </c>
@@ -8229,10 +8252,10 @@
       <c r="A186" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="B186" s="14">
+      <c r="B186" s="8">
         <v>1E-4</v>
       </c>
-      <c r="C186" s="14">
+      <c r="C186" s="8">
         <v>1E-4</v>
       </c>
       <c r="D186" s="6">
@@ -8273,10 +8296,10 @@
       <c r="A187" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="B187" s="14">
+      <c r="B187" s="8">
         <v>1E-4</v>
       </c>
-      <c r="C187" s="15">
+      <c r="C187" s="9">
         <v>0</v>
       </c>
       <c r="D187" s="6">
@@ -8303,7 +8326,7 @@
       <c r="K187" s="6">
         <v>0</v>
       </c>
-      <c r="L187" s="14">
+      <c r="L187" s="8">
         <v>1E-4</v>
       </c>
       <c r="M187" s="6">
@@ -8317,10 +8340,10 @@
       <c r="A188" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="B188" s="14">
+      <c r="B188" s="8">
         <v>1E-4</v>
       </c>
-      <c r="C188" s="14">
+      <c r="C188" s="8">
         <v>1E-4</v>
       </c>
       <c r="D188" s="6">
@@ -8361,10 +8384,10 @@
       <c r="A189" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="B189" s="14">
+      <c r="B189" s="8">
         <v>1E-4</v>
       </c>
-      <c r="C189" s="14">
+      <c r="C189" s="8">
         <v>1E-4</v>
       </c>
       <c r="D189" s="6">
@@ -8405,10 +8428,10 @@
       <c r="A190" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="B190" s="14">
+      <c r="B190" s="8">
         <v>1E-4</v>
       </c>
-      <c r="C190" s="14">
+      <c r="C190" s="8">
         <v>1E-4</v>
       </c>
       <c r="D190" s="6">
@@ -8449,10 +8472,10 @@
       <c r="A191" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="B191" s="14">
+      <c r="B191" s="8">
         <v>1E-4</v>
       </c>
-      <c r="C191" s="14">
+      <c r="C191" s="8">
         <v>1E-4</v>
       </c>
       <c r="D191" s="6">
@@ -8493,10 +8516,10 @@
       <c r="A192" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="B192" s="14">
+      <c r="B192" s="8">
         <v>1E-4</v>
       </c>
-      <c r="C192" s="14">
+      <c r="C192" s="8">
         <v>1E-4</v>
       </c>
       <c r="D192" s="6">
@@ -8537,10 +8560,10 @@
       <c r="A193" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="B193" s="14">
+      <c r="B193" s="8">
         <v>1E-4</v>
       </c>
-      <c r="C193" s="14">
+      <c r="C193" s="8">
         <v>1E-4</v>
       </c>
       <c r="D193" s="6">
@@ -8581,10 +8604,10 @@
       <c r="A194" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="B194" s="14">
+      <c r="B194" s="8">
         <v>1E-4</v>
       </c>
-      <c r="C194" s="14">
+      <c r="C194" s="8">
         <v>1E-4</v>
       </c>
       <c r="D194" s="6">
@@ -8625,10 +8648,10 @@
       <c r="A195" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="B195" s="14">
+      <c r="B195" s="8">
         <v>1E-4</v>
       </c>
-      <c r="C195" s="14">
+      <c r="C195" s="8">
         <v>1E-4</v>
       </c>
       <c r="D195" s="6">
@@ -8669,10 +8692,10 @@
       <c r="A196" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="B196" s="14">
+      <c r="B196" s="8">
         <v>1E-4</v>
       </c>
-      <c r="C196" s="14">
+      <c r="C196" s="8">
         <v>1E-4</v>
       </c>
       <c r="D196" s="6">
@@ -8713,10 +8736,10 @@
       <c r="A197" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="B197" s="14">
+      <c r="B197" s="8">
         <v>1E-4</v>
       </c>
-      <c r="C197" s="14">
+      <c r="C197" s="8">
         <v>1E-4</v>
       </c>
       <c r="D197" s="6">
@@ -8757,10 +8780,10 @@
       <c r="A198" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="B198" s="14">
+      <c r="B198" s="8">
         <v>1E-4</v>
       </c>
-      <c r="C198" s="14">
+      <c r="C198" s="8">
         <v>1E-4</v>
       </c>
       <c r="D198" s="6">
@@ -8801,10 +8824,10 @@
       <c r="A199" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="B199" s="14">
+      <c r="B199" s="8">
         <v>1E-4</v>
       </c>
-      <c r="C199" s="14">
+      <c r="C199" s="8">
         <v>1E-4</v>
       </c>
       <c r="D199" s="6">
@@ -8845,10 +8868,10 @@
       <c r="A200" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="B200" s="14">
+      <c r="B200" s="8">
         <v>1E-4</v>
       </c>
-      <c r="C200" s="14">
+      <c r="C200" s="8">
         <v>1E-4</v>
       </c>
       <c r="D200" s="6">
@@ -8889,10 +8912,10 @@
       <c r="A201" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="B201" s="14">
+      <c r="B201" s="8">
         <v>1E-4</v>
       </c>
-      <c r="C201" s="14">
+      <c r="C201" s="8">
         <v>1E-4</v>
       </c>
       <c r="D201" s="6">
@@ -8933,10 +8956,10 @@
       <c r="A202" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="B202" s="14">
+      <c r="B202" s="8">
         <v>1E-4</v>
       </c>
-      <c r="C202" s="14">
+      <c r="C202" s="8">
         <v>1E-4</v>
       </c>
       <c r="D202" s="6">
@@ -8977,10 +9000,10 @@
       <c r="A203" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="B203" s="14">
+      <c r="B203" s="8">
         <v>1E-4</v>
       </c>
-      <c r="C203" s="14">
+      <c r="C203" s="8">
         <v>1E-4</v>
       </c>
       <c r="D203" s="6">
@@ -9021,10 +9044,10 @@
       <c r="A204" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="B204" s="14">
+      <c r="B204" s="8">
         <v>1E-4</v>
       </c>
-      <c r="C204" s="14">
+      <c r="C204" s="8">
         <v>1E-4</v>
       </c>
       <c r="D204" s="6">
@@ -9065,10 +9088,10 @@
       <c r="A205" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="B205" s="14">
+      <c r="B205" s="8">
         <v>1E-4</v>
       </c>
-      <c r="C205" s="14">
+      <c r="C205" s="8">
         <v>1E-4</v>
       </c>
       <c r="D205" s="6">
@@ -9109,10 +9132,10 @@
       <c r="A206" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="B206" s="14">
+      <c r="B206" s="8">
         <v>1E-4</v>
       </c>
-      <c r="C206" s="14">
+      <c r="C206" s="8">
         <v>1E-4</v>
       </c>
       <c r="D206" s="6">
@@ -9153,10 +9176,10 @@
       <c r="A207" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="B207" s="14">
+      <c r="B207" s="8">
         <v>1E-4</v>
       </c>
-      <c r="C207" s="14">
+      <c r="C207" s="8">
         <v>0</v>
       </c>
       <c r="D207" s="6">
@@ -9183,7 +9206,7 @@
       <c r="K207" s="6">
         <v>0</v>
       </c>
-      <c r="L207" s="14">
+      <c r="L207" s="8">
         <v>1E-4</v>
       </c>
       <c r="M207" s="6">
@@ -9197,10 +9220,10 @@
       <c r="A208" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="B208" s="14">
+      <c r="B208" s="8">
         <v>1E-4</v>
       </c>
-      <c r="C208" s="14">
+      <c r="C208" s="8">
         <v>1E-4</v>
       </c>
       <c r="D208" s="6">
@@ -9241,10 +9264,10 @@
       <c r="A209" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="B209" s="14">
+      <c r="B209" s="8">
         <v>1E-4</v>
       </c>
-      <c r="C209" s="14">
+      <c r="C209" s="8">
         <v>1E-4</v>
       </c>
       <c r="D209" s="6">
@@ -9285,10 +9308,10 @@
       <c r="A210" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="B210" s="14">
+      <c r="B210" s="8">
         <v>1E-4</v>
       </c>
-      <c r="C210" s="14">
+      <c r="C210" s="8">
         <v>1E-4</v>
       </c>
       <c r="D210" s="6">
@@ -9325,18 +9348,713 @@
         <v>83.7686344219576</v>
       </c>
     </row>
+    <row r="222" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A222" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="B222" s="14" t="s">
+        <v>63</v>
+      </c>
+      <c r="C222" s="15"/>
+      <c r="D222" s="15"/>
+      <c r="E222" s="15"/>
+      <c r="F222" s="15"/>
+      <c r="G222" s="15"/>
+      <c r="H222" s="16"/>
+      <c r="I222"/>
+      <c r="J222"/>
+      <c r="K222"/>
+      <c r="L222"/>
+      <c r="M222"/>
+    </row>
+    <row r="223" spans="1:14" ht="67.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A223" s="10"/>
+      <c r="B223" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="C223" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="D223" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="E223" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="F223" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="G223" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="H223" s="4" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="224" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A224" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="B224" s="7">
+        <v>11.900989976068299</v>
+      </c>
+      <c r="C224" s="7">
+        <v>11.900989976068299</v>
+      </c>
+      <c r="D224" s="17">
+        <v>18.902373150662399</v>
+      </c>
+      <c r="E224" s="17">
+        <v>16.567337498382798</v>
+      </c>
+      <c r="F224" s="17">
+        <v>14.6791870096307</v>
+      </c>
+      <c r="G224" s="17">
+        <v>22.058195790377201</v>
+      </c>
+      <c r="H224" s="17">
+        <v>21.8880113624949</v>
+      </c>
+      <c r="I224" s="3">
+        <f>C224-B224</f>
+        <v>0</v>
+      </c>
+      <c r="J224" s="3">
+        <f>D224-B224</f>
+        <v>7.0013831745940998</v>
+      </c>
+    </row>
+    <row r="225" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A225" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="B225" s="7">
+        <v>0.11217505221518299</v>
+      </c>
+      <c r="C225" s="7">
+        <v>0.185477273165568</v>
+      </c>
+      <c r="D225" s="17">
+        <v>0.28164480341106002</v>
+      </c>
+      <c r="E225" s="17">
+        <v>0.231082570590223</v>
+      </c>
+      <c r="F225" s="17">
+        <v>0.213605654665869</v>
+      </c>
+      <c r="G225" s="17">
+        <v>0.30264703755407901</v>
+      </c>
+      <c r="H225" s="17">
+        <v>0.27742865634421199</v>
+      </c>
+    </row>
+    <row r="226" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A226" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="B226" s="7">
+        <v>11.647528095399799</v>
+      </c>
+      <c r="C226" s="7">
+        <v>15.634794543169001</v>
+      </c>
+      <c r="D226" s="17">
+        <v>16.6952330574182</v>
+      </c>
+      <c r="E226" s="17">
+        <v>16.023461831328301</v>
+      </c>
+      <c r="F226" s="17">
+        <v>14.2387006668241</v>
+      </c>
+      <c r="G226" s="17">
+        <v>21.514599851672699</v>
+      </c>
+      <c r="H226" s="17">
+        <v>21.241933946855099</v>
+      </c>
+    </row>
+    <row r="227" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A227" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="B227" s="7">
+        <v>12.2295481022767</v>
+      </c>
+      <c r="C227" s="7">
+        <v>12.2295481022767</v>
+      </c>
+      <c r="D227" s="17">
+        <v>16.988425347471001</v>
+      </c>
+      <c r="E227" s="17">
+        <v>16.968221756501102</v>
+      </c>
+      <c r="F227" s="17">
+        <v>15.0547911019683</v>
+      </c>
+      <c r="G227" s="17">
+        <v>22.719005612689099</v>
+      </c>
+      <c r="H227" s="17">
+        <v>22.479243667338</v>
+      </c>
+    </row>
+    <row r="228" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A228" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="B228" s="7">
+        <v>94.062296624633703</v>
+      </c>
+      <c r="C228" s="7">
+        <v>151.78875325513999</v>
+      </c>
+      <c r="D228" s="17">
+        <v>152.42780783603601</v>
+      </c>
+      <c r="E228" s="17">
+        <v>129.91027804365601</v>
+      </c>
+      <c r="F228" s="17">
+        <v>115.33815245069</v>
+      </c>
+      <c r="G228" s="17">
+        <v>173.098515517306</v>
+      </c>
+      <c r="H228" s="17">
+        <v>171.617437864832</v>
+      </c>
+    </row>
+    <row r="229" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A229" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="B229" s="7">
+        <v>0.103201141146258</v>
+      </c>
+      <c r="C229" s="7">
+        <v>0.168002863423833</v>
+      </c>
+      <c r="D229" s="17">
+        <v>0.182161757414254</v>
+      </c>
+      <c r="E229" s="17">
+        <v>0.14277302601342801</v>
+      </c>
+      <c r="F229" s="17">
+        <v>0.128723765502507</v>
+      </c>
+      <c r="G229" s="17">
+        <v>0.20530583357393101</v>
+      </c>
+      <c r="H229" s="17">
+        <v>0.19724030237390699</v>
+      </c>
+    </row>
+    <row r="230" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A230" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="B230" s="7">
+        <v>4.0731546354628598</v>
+      </c>
+      <c r="C230" s="7">
+        <v>6.2802046576431003</v>
+      </c>
+      <c r="D230" s="17">
+        <v>6.7902165580880096</v>
+      </c>
+      <c r="E230" s="17">
+        <v>5.6039038502843903</v>
+      </c>
+      <c r="F230" s="17">
+        <v>5.01317442107581</v>
+      </c>
+      <c r="G230" s="17">
+        <v>8.0069282149321808</v>
+      </c>
+      <c r="H230" s="17">
+        <v>7.6974785439546203</v>
+      </c>
+    </row>
+    <row r="231" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A231" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="B231" s="7">
+        <v>1.0489593672989299</v>
+      </c>
+      <c r="C231" s="7">
+        <v>1.7261968078207099</v>
+      </c>
+      <c r="D231" s="17">
+        <v>1.9689089391602399</v>
+      </c>
+      <c r="E231" s="17">
+        <v>1.55414970612749</v>
+      </c>
+      <c r="F231" s="17">
+        <v>1.43660561162567</v>
+      </c>
+      <c r="G231" s="17">
+        <v>2.2243488933572899</v>
+      </c>
+      <c r="H231" s="17">
+        <v>2.0937053262220999</v>
+      </c>
+    </row>
+    <row r="232" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A232" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="B232" s="7">
+        <v>21.697769912597298</v>
+      </c>
+      <c r="C232" s="7">
+        <v>33.8156809380162</v>
+      </c>
+      <c r="D232" s="17">
+        <v>33.850253178713103</v>
+      </c>
+      <c r="E232" s="17">
+        <v>30.005222237933101</v>
+      </c>
+      <c r="F232" s="17">
+        <v>26.641198629804101</v>
+      </c>
+      <c r="G232" s="17">
+        <v>40.2142679086462</v>
+      </c>
+      <c r="H232" s="17">
+        <v>39.750289748753097</v>
+      </c>
+    </row>
+    <row r="233" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A233" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="B233" s="7">
+        <v>44.392183528494002</v>
+      </c>
+      <c r="C233" s="7">
+        <v>58.589571322870597</v>
+      </c>
+      <c r="D233" s="17">
+        <v>73.766338166372094</v>
+      </c>
+      <c r="E233" s="17">
+        <v>61.197655194471501</v>
+      </c>
+      <c r="F233" s="17">
+        <v>54.348727389714803</v>
+      </c>
+      <c r="G233" s="17">
+        <v>81.463266979804999</v>
+      </c>
+      <c r="H233" s="17">
+        <v>80.819339381254693</v>
+      </c>
+    </row>
+    <row r="234" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A234" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="B234" s="7">
+        <v>6.2759047843803897</v>
+      </c>
+      <c r="C234" s="7">
+        <v>9.3576062971268907</v>
+      </c>
+      <c r="D234" s="17">
+        <v>9.3671462326525994</v>
+      </c>
+      <c r="E234" s="17">
+        <v>8.6342566799135891</v>
+      </c>
+      <c r="F234" s="17">
+        <v>7.6723322153644098</v>
+      </c>
+      <c r="G234" s="17">
+        <v>11.5406645212969</v>
+      </c>
+      <c r="H234" s="17">
+        <v>11.4212871493341</v>
+      </c>
+    </row>
+    <row r="235" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A235" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="B235" s="7">
+        <v>36.180997609233202</v>
+      </c>
+      <c r="C235" s="7">
+        <v>51.921203351673803</v>
+      </c>
+      <c r="D235" s="17">
+        <v>53.704814356571603</v>
+      </c>
+      <c r="E235" s="17">
+        <v>49.890630080703303</v>
+      </c>
+      <c r="F235" s="17">
+        <v>44.313214078885899</v>
+      </c>
+      <c r="G235" s="17">
+        <v>67.227853849100299</v>
+      </c>
+      <c r="H235" s="17">
+        <v>66.330557171680198</v>
+      </c>
+    </row>
+    <row r="236" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A236" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="B236" s="7">
+        <v>10.8943136391716</v>
+      </c>
+      <c r="C236" s="7">
+        <v>17.925474103376001</v>
+      </c>
+      <c r="D236" s="17">
+        <v>19.197586534939798</v>
+      </c>
+      <c r="E236" s="17">
+        <v>15.118922223954099</v>
+      </c>
+      <c r="F236" s="17">
+        <v>13.395456456487199</v>
+      </c>
+      <c r="G236" s="17">
+        <v>21.445106023395201</v>
+      </c>
+      <c r="H236" s="17">
+        <v>20.7091804408516</v>
+      </c>
+    </row>
+    <row r="237" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A237" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="B237" s="7">
+        <v>25.564585640505999</v>
+      </c>
+      <c r="C237" s="7">
+        <v>0</v>
+      </c>
+      <c r="D237" s="17">
+        <v>38.150571581775601</v>
+      </c>
+      <c r="E237" s="17">
+        <v>35.167799058533703</v>
+      </c>
+      <c r="F237" s="17">
+        <v>31.251173192906599</v>
+      </c>
+      <c r="G237" s="17">
+        <v>47.341875142050696</v>
+      </c>
+      <c r="H237" s="17">
+        <v>46.711404178688198</v>
+      </c>
+    </row>
+    <row r="238" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A238" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="B238" s="7">
+        <v>4.8580431612366501</v>
+      </c>
+      <c r="C238" s="7">
+        <v>8.7016010815472402</v>
+      </c>
+      <c r="D238" s="17">
+        <v>9.9696220479731892</v>
+      </c>
+      <c r="E238" s="17">
+        <v>7.9893567719332701</v>
+      </c>
+      <c r="F238" s="17">
+        <v>7.3850004686119499</v>
+      </c>
+      <c r="G238" s="17">
+        <v>11.243551983805199</v>
+      </c>
+      <c r="H238" s="17">
+        <v>10.5587795364827</v>
+      </c>
+    </row>
+    <row r="239" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A239" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="B239" s="7">
+        <v>81.462049960467297</v>
+      </c>
+      <c r="C239" s="7">
+        <v>107.512047072138</v>
+      </c>
+      <c r="D239" s="17">
+        <v>133.09747899476301</v>
+      </c>
+      <c r="E239" s="17">
+        <v>112.975697256668</v>
+      </c>
+      <c r="F239" s="17">
+        <v>100.14780858015099</v>
+      </c>
+      <c r="G239" s="17">
+        <v>149.95202017679799</v>
+      </c>
+      <c r="H239" s="17">
+        <v>149.01263236439499</v>
+      </c>
+    </row>
+    <row r="240" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A240" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="B240" s="7">
+        <v>44.516168703418401</v>
+      </c>
+      <c r="C240" s="7">
+        <v>73.963327223912302</v>
+      </c>
+      <c r="D240" s="17">
+        <v>77.019427079225295</v>
+      </c>
+      <c r="E240" s="17">
+        <v>64.158257339076201</v>
+      </c>
+      <c r="F240" s="17">
+        <v>56.5686613704979</v>
+      </c>
+      <c r="G240" s="17">
+        <v>86.204572453926104</v>
+      </c>
+      <c r="H240" s="17">
+        <v>85.485390463978504</v>
+      </c>
+    </row>
+    <row r="241" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A241" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="B241" s="7">
+        <v>4.3595726710144698</v>
+      </c>
+      <c r="C241" s="7">
+        <v>7.5659564653217801</v>
+      </c>
+      <c r="D241" s="17">
+        <v>7.7482842565245802</v>
+      </c>
+      <c r="E241" s="17">
+        <v>6.30219776553204</v>
+      </c>
+      <c r="F241" s="17">
+        <v>5.5573401754625902</v>
+      </c>
+      <c r="G241" s="17">
+        <v>8.6158465719683992</v>
+      </c>
+      <c r="H241" s="17">
+        <v>8.4779800577071107</v>
+      </c>
+    </row>
+    <row r="242" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A242" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="B242" s="7">
+        <v>1.28901481136582</v>
+      </c>
+      <c r="C242" s="7">
+        <v>2.3682723467824598</v>
+      </c>
+      <c r="D242" s="17">
+        <v>2.88889484924964</v>
+      </c>
+      <c r="E242" s="17">
+        <v>2.57555011030581</v>
+      </c>
+      <c r="F242" s="17">
+        <v>2.3807553211351902</v>
+      </c>
+      <c r="G242" s="17">
+        <v>3.5847858817346898</v>
+      </c>
+      <c r="H242" s="17">
+        <v>3.29773843747641</v>
+      </c>
+    </row>
+    <row r="243" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A243" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="B243" s="7">
+        <v>11.4298042889105</v>
+      </c>
+      <c r="C243" s="7">
+        <v>0</v>
+      </c>
+      <c r="D243" s="17">
+        <v>18.657794121339101</v>
+      </c>
+      <c r="E243" s="17">
+        <v>15.723471842409801</v>
+      </c>
+      <c r="F243" s="17">
+        <v>13.972301579022099</v>
+      </c>
+      <c r="G243" s="17">
+        <v>20.783650056315601</v>
+      </c>
+      <c r="H243" s="17">
+        <v>20.672022247666501</v>
+      </c>
+    </row>
+    <row r="244" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A244" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="B244" s="7">
+        <v>19.630850359880402</v>
+      </c>
+      <c r="C244" s="7">
+        <v>32.478453371548603</v>
+      </c>
+      <c r="D244" s="17">
+        <v>33.964103867277302</v>
+      </c>
+      <c r="E244" s="17">
+        <v>27.570380829486702</v>
+      </c>
+      <c r="F244" s="17">
+        <v>24.387245286014</v>
+      </c>
+      <c r="G244" s="17">
+        <v>38.513261837647498</v>
+      </c>
+      <c r="H244" s="17">
+        <v>37.543722883820102</v>
+      </c>
+    </row>
+    <row r="245" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A245" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="B245" s="7">
+        <v>1.6106276372414901</v>
+      </c>
+      <c r="C245" s="7">
+        <v>2.64033581888381</v>
+      </c>
+      <c r="D245" s="17">
+        <v>3.62933000981202</v>
+      </c>
+      <c r="E245" s="17">
+        <v>2.89638158825464</v>
+      </c>
+      <c r="F245" s="17">
+        <v>2.6772001438852899</v>
+      </c>
+      <c r="G245" s="17">
+        <v>4.0105675855552096</v>
+      </c>
+      <c r="H245" s="17">
+        <v>3.6762112532272502</v>
+      </c>
+    </row>
+    <row r="246" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A246" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="B246" s="7">
+        <v>6.22967225031989</v>
+      </c>
+      <c r="C246" s="7">
+        <v>11.046063988098201</v>
+      </c>
+      <c r="D246" s="17">
+        <v>11.283039883543101</v>
+      </c>
+      <c r="E246" s="17">
+        <v>9.1071735728211198</v>
+      </c>
+      <c r="F246" s="17">
+        <v>8.0305028406385901</v>
+      </c>
+      <c r="G246" s="17">
+        <v>12.366209228312901</v>
+      </c>
+      <c r="H246" s="17">
+        <v>12.188716545582301</v>
+      </c>
+    </row>
+    <row r="247" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A247" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="B247" s="7">
+        <v>23.5822013118378</v>
+      </c>
+      <c r="C247" s="7">
+        <v>39.1533929920706</v>
+      </c>
+      <c r="D247" s="17">
+        <v>42.414693110653403</v>
+      </c>
+      <c r="E247" s="17">
+        <v>32.848093469362702</v>
+      </c>
+      <c r="F247" s="17">
+        <v>29.297621491916502</v>
+      </c>
+      <c r="G247" s="17">
+        <v>46.824411941565799</v>
+      </c>
+      <c r="H247" s="17">
+        <v>45.012683789845902</v>
+      </c>
+    </row>
+    <row r="248" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A248" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="B248" s="7">
+        <v>45.8732587076138</v>
+      </c>
+      <c r="C248" s="7">
+        <v>64.550606103073903</v>
+      </c>
+      <c r="D248" s="17">
+        <v>67.159241287165003</v>
+      </c>
+      <c r="E248" s="17">
+        <v>63.513777668380001</v>
+      </c>
+      <c r="F248" s="17">
+        <v>56.356790661194601</v>
+      </c>
+      <c r="G248" s="17">
+        <v>84.320847655563</v>
+      </c>
+      <c r="H248" s="17">
+        <v>83.7686344219576</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="21">
-    <mergeCell ref="A154:A155"/>
-    <mergeCell ref="B154:M154"/>
-    <mergeCell ref="A183:M183"/>
-    <mergeCell ref="A184:A185"/>
-    <mergeCell ref="B184:M184"/>
-    <mergeCell ref="B93:M93"/>
-    <mergeCell ref="A122:M122"/>
-    <mergeCell ref="A123:A124"/>
-    <mergeCell ref="B123:M123"/>
-    <mergeCell ref="A153:M153"/>
+  <mergeCells count="23">
+    <mergeCell ref="A92:M92"/>
+    <mergeCell ref="A93:A94"/>
+    <mergeCell ref="A222:A223"/>
+    <mergeCell ref="B222:H222"/>
     <mergeCell ref="A1:M1"/>
     <mergeCell ref="A2:A3"/>
     <mergeCell ref="B2:M2"/>
@@ -9346,8 +10064,16 @@
     <mergeCell ref="A31:M31"/>
     <mergeCell ref="A32:A33"/>
     <mergeCell ref="B32:M32"/>
-    <mergeCell ref="A92:M92"/>
-    <mergeCell ref="A93:A94"/>
+    <mergeCell ref="B93:M93"/>
+    <mergeCell ref="A122:M122"/>
+    <mergeCell ref="A123:A124"/>
+    <mergeCell ref="B123:M123"/>
+    <mergeCell ref="A153:M153"/>
+    <mergeCell ref="A154:A155"/>
+    <mergeCell ref="B154:M154"/>
+    <mergeCell ref="A183:M183"/>
+    <mergeCell ref="A184:A185"/>
+    <mergeCell ref="B184:M184"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>

--- a/vaccRes.xlsx
+++ b/vaccRes.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20827"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\m.alistratenko\Documents\GitHub\diploma\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nikita\Documents\GitHub\diploma\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{157AA768-3489-4EFD-9431-6CC8059749F1}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="5580" tabRatio="843" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17250" windowHeight="5580" tabRatio="845"/>
   </bookViews>
   <sheets>
     <sheet name="грип 2016 інт.пок." sheetId="8" r:id="rId1"/>
@@ -249,7 +248,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="0.0000"/>
@@ -432,16 +431,11 @@
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -453,11 +447,16 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Обычный 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
+    <cellStyle name="Обычный 2" xfId="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -472,10 +471,1711 @@
 </styleSheet>
 </file>
 
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ru-RU"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Пропорційний</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>'грип 2016 інт.пок.'!$A$224:$A$249</c:f>
+              <c:strCache>
+                <c:ptCount val="25"/>
+                <c:pt idx="0">
+                  <c:v>Вінницька</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Волинська</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Дніпропетровська</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Донецька</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Житомирська</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Закарпатська</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Запорізька</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Ів.-Франковська</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Київська</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Кіровоградська</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Луганська</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Львівська</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>Миколаївська</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>Одеська</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>Полтавська</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>Рівненська</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>Сумська</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>Тернопільська</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>Харківська</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>Херсонська</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>Хмельницька</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>Черкаська</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>Чернівецька</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>Чернігівська</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>м.Київ</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'грип 2016 інт.пок.'!$B$224:$B$248</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="25"/>
+                <c:pt idx="0">
+                  <c:v>11.900989976068299</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.11217505221518299</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>11.647528095399799</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>12.2295481022767</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>94.062296624633703</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.103201141146258</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4.0731546354628598</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.0489593672989299</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>21.697769912597298</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>44.392183528494002</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>6.2759047843803897</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>36.180997609233202</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>10.8943136391716</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>25.564585640505999</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>4.8580431612366501</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>81.462049960467297</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>44.516168703418401</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>4.3595726710144698</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1.28901481136582</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>11.4298042889105</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>19.630850359880402</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1.6106276372414901</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>6.22967225031989</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>23.5822013118378</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>45.8732587076138</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-DEC4-4C4B-9A5F-5B46574E5D55}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Критичний період</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'грип 2016 інт.пок.'!$C$224:$C$248</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="25"/>
+                <c:pt idx="0">
+                  <c:v>11.900989976068299</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.185477273165568</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>15.634794543169001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>12.2295481022767</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>151.78875325513999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.168002863423833</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6.2802046576431003</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.7261968078207099</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>33.8156809380162</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>58.589571322870597</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>9.3576062971268907</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>51.921203351673803</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>17.925474103376001</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>8.7016010815472402</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>107.512047072138</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>73.963327223912302</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>7.5659564653217801</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2.3682723467824598</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>32.478453371548603</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2.64033581888381</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>11.046063988098201</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>39.1533929920706</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>64.550606103073903</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000035-DEC4-4C4B-9A5F-5B46574E5D55}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>Пропорційний оптимізований</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'грип 2016 інт.пок.'!$D$224:$D$248</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="25"/>
+                <c:pt idx="0">
+                  <c:v>18.902373150662399</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.28164480341106002</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>16.6952330574182</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>16.988425347471001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>152.42780783603601</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.182161757414254</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6.7902165580880096</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.9689089391602399</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>33.850253178713103</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>73.766338166372094</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>9.3671462326525994</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>53.704814356571603</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>19.197586534939798</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>38.150571581775601</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>9.9696220479731892</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>133.09747899476301</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>77.019427079225295</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>7.7482842565245802</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2.88889484924964</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>18.657794121339101</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>33.964103867277302</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>3.62933000981202</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>11.283039883543101</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>42.414693110653403</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>67.159241287165003</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000036-DEC4-4C4B-9A5F-5B46574E5D55}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'грип 2016 інт.пок.'!$E$223</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Прогностичний, крок = 0.1, кількість вакцинацій = 1</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'грип 2016 інт.пок.'!$E$224:$E$248</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="25"/>
+                <c:pt idx="0">
+                  <c:v>16.567337498382798</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.231082570590223</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>16.023461831328301</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>16.968221756501102</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>129.91027804365601</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.14277302601342801</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>5.6039038502843903</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.55414970612749</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>30.005222237933101</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>61.197655194471501</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>8.6342566799135891</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>49.890630080703303</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>15.118922223954099</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>35.167799058533703</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>7.9893567719332701</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>112.975697256668</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>64.158257339076201</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>6.30219776553204</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2.57555011030581</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>15.723471842409801</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>27.570380829486702</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2.89638158825464</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>9.1071735728211198</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>32.848093469362702</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>63.513777668380001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000038-DEC4-4C4B-9A5F-5B46574E5D55}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'грип 2016 інт.пок.'!$F$223</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Прогностичний, крок = 0.1, кількість вакцинацій = 2</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'грип 2016 інт.пок.'!$F$224:$F$248</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="25"/>
+                <c:pt idx="0">
+                  <c:v>14.6791870096307</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.213605654665869</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>14.2387006668241</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>15.0547911019683</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>115.33815245069</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.128723765502507</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>5.01317442107581</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.43660561162567</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>26.641198629804101</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>54.348727389714803</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>7.6723322153644098</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>44.313214078885899</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13.395456456487199</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>31.251173192906599</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>7.3850004686119499</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>100.14780858015099</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>56.5686613704979</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>5.5573401754625902</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2.3807553211351902</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>13.972301579022099</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>24.387245286014</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2.6772001438852899</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>8.0305028406385901</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>29.297621491916502</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>56.356790661194601</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000039-DEC4-4C4B-9A5F-5B46574E5D55}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'грип 2016 інт.пок.'!$G$223</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Прогностичний, крок = 0.0001, кількість вакцинацій = 1</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'грип 2016 інт.пок.'!$G$224:$G$248</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="25"/>
+                <c:pt idx="0">
+                  <c:v>22.058195790377201</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.30264703755407901</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>21.514599851672699</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>22.719005612689099</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>173.098515517306</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.20530583357393101</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>8.0069282149321808</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.2243488933572899</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>40.2142679086462</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>81.463266979804999</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11.5406645212969</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>67.227853849100299</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>21.445106023395201</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>47.341875142050696</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>11.243551983805199</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>149.95202017679799</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>86.204572453926104</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>8.6158465719683992</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>3.5847858817346898</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>20.783650056315601</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>38.513261837647498</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>4.0105675855552096</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>12.366209228312901</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>46.824411941565799</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>84.320847655563</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000003A-DEC4-4C4B-9A5F-5B46574E5D55}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="6"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'грип 2016 інт.пок.'!$H$223</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Прогностичний, крок = 0.0001, кількість вакцинацій = 2</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'грип 2016 інт.пок.'!$H$224:$H$248</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="25"/>
+                <c:pt idx="0">
+                  <c:v>21.8880113624949</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.27742865634421199</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>21.241933946855099</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>22.479243667338</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>171.617437864832</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.19724030237390699</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7.6974785439546203</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.0937053262220999</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>39.750289748753097</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>80.819339381254693</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11.4212871493341</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>66.330557171680198</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>20.7091804408516</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>46.711404178688198</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>10.5587795364827</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>149.01263236439499</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>85.485390463978504</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>8.4779800577071107</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>3.29773843747641</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>20.672022247666501</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>37.543722883820102</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>3.6762112532272502</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>12.188716545582301</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>45.012683789845902</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>83.7686344219576</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000003B-DEC4-4C4B-9A5F-5B46574E5D55}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="597596856"/>
+        <c:axId val="597597512"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="597596856"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:effectLst>
+                  <a:outerShdw sx="1000" sy="1000" algn="ctr" rotWithShape="0">
+                    <a:srgbClr val="000000"/>
+                  </a:outerShdw>
+                </a:effectLst>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="597597512"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="0"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="597597512"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="597596856"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.82903629579370286"/>
+          <c:y val="0.2063747187172075"/>
+          <c:w val="0.16679521336901751"/>
+          <c:h val="0.38298993243494395"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>1246253</xdr:colOff>
+      <xdr:row>249</xdr:row>
+      <xdr:rowOff>42740</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>557892</xdr:colOff>
+      <xdr:row>285</xdr:row>
+      <xdr:rowOff>108856</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Диаграмма 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Тема Office">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Стандартная">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -513,7 +2213,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Стандартная">
       <a:majorFont>
         <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -548,23 +2248,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -600,26 +2283,9 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Стандартная">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -792,275 +2458,275 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N248"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A217" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="L229" sqref="L229"/>
+    <sheetView tabSelected="1" topLeftCell="A242" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="L246" sqref="L246"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.6640625" style="3" customWidth="1"/>
-    <col min="2" max="8" width="18.88671875" style="3" customWidth="1"/>
-    <col min="9" max="13" width="15.109375" style="3" customWidth="1"/>
-    <col min="14" max="14" width="13.88671875" style="3" customWidth="1"/>
-    <col min="15" max="256" width="9.109375" style="3"/>
-    <col min="257" max="257" width="18.6640625" style="3" customWidth="1"/>
-    <col min="258" max="269" width="8.6640625" style="3" customWidth="1"/>
-    <col min="270" max="270" width="13.88671875" style="3" customWidth="1"/>
-    <col min="271" max="512" width="9.109375" style="3"/>
-    <col min="513" max="513" width="18.6640625" style="3" customWidth="1"/>
-    <col min="514" max="525" width="8.6640625" style="3" customWidth="1"/>
-    <col min="526" max="526" width="13.88671875" style="3" customWidth="1"/>
-    <col min="527" max="768" width="9.109375" style="3"/>
-    <col min="769" max="769" width="18.6640625" style="3" customWidth="1"/>
-    <col min="770" max="781" width="8.6640625" style="3" customWidth="1"/>
-    <col min="782" max="782" width="13.88671875" style="3" customWidth="1"/>
-    <col min="783" max="1024" width="9.109375" style="3"/>
-    <col min="1025" max="1025" width="18.6640625" style="3" customWidth="1"/>
-    <col min="1026" max="1037" width="8.6640625" style="3" customWidth="1"/>
-    <col min="1038" max="1038" width="13.88671875" style="3" customWidth="1"/>
-    <col min="1039" max="1280" width="9.109375" style="3"/>
-    <col min="1281" max="1281" width="18.6640625" style="3" customWidth="1"/>
-    <col min="1282" max="1293" width="8.6640625" style="3" customWidth="1"/>
-    <col min="1294" max="1294" width="13.88671875" style="3" customWidth="1"/>
-    <col min="1295" max="1536" width="9.109375" style="3"/>
-    <col min="1537" max="1537" width="18.6640625" style="3" customWidth="1"/>
-    <col min="1538" max="1549" width="8.6640625" style="3" customWidth="1"/>
-    <col min="1550" max="1550" width="13.88671875" style="3" customWidth="1"/>
-    <col min="1551" max="1792" width="9.109375" style="3"/>
-    <col min="1793" max="1793" width="18.6640625" style="3" customWidth="1"/>
-    <col min="1794" max="1805" width="8.6640625" style="3" customWidth="1"/>
-    <col min="1806" max="1806" width="13.88671875" style="3" customWidth="1"/>
-    <col min="1807" max="2048" width="9.109375" style="3"/>
-    <col min="2049" max="2049" width="18.6640625" style="3" customWidth="1"/>
-    <col min="2050" max="2061" width="8.6640625" style="3" customWidth="1"/>
-    <col min="2062" max="2062" width="13.88671875" style="3" customWidth="1"/>
-    <col min="2063" max="2304" width="9.109375" style="3"/>
-    <col min="2305" max="2305" width="18.6640625" style="3" customWidth="1"/>
-    <col min="2306" max="2317" width="8.6640625" style="3" customWidth="1"/>
-    <col min="2318" max="2318" width="13.88671875" style="3" customWidth="1"/>
-    <col min="2319" max="2560" width="9.109375" style="3"/>
-    <col min="2561" max="2561" width="18.6640625" style="3" customWidth="1"/>
-    <col min="2562" max="2573" width="8.6640625" style="3" customWidth="1"/>
-    <col min="2574" max="2574" width="13.88671875" style="3" customWidth="1"/>
-    <col min="2575" max="2816" width="9.109375" style="3"/>
-    <col min="2817" max="2817" width="18.6640625" style="3" customWidth="1"/>
-    <col min="2818" max="2829" width="8.6640625" style="3" customWidth="1"/>
-    <col min="2830" max="2830" width="13.88671875" style="3" customWidth="1"/>
-    <col min="2831" max="3072" width="9.109375" style="3"/>
-    <col min="3073" max="3073" width="18.6640625" style="3" customWidth="1"/>
-    <col min="3074" max="3085" width="8.6640625" style="3" customWidth="1"/>
-    <col min="3086" max="3086" width="13.88671875" style="3" customWidth="1"/>
-    <col min="3087" max="3328" width="9.109375" style="3"/>
-    <col min="3329" max="3329" width="18.6640625" style="3" customWidth="1"/>
-    <col min="3330" max="3341" width="8.6640625" style="3" customWidth="1"/>
-    <col min="3342" max="3342" width="13.88671875" style="3" customWidth="1"/>
-    <col min="3343" max="3584" width="9.109375" style="3"/>
-    <col min="3585" max="3585" width="18.6640625" style="3" customWidth="1"/>
-    <col min="3586" max="3597" width="8.6640625" style="3" customWidth="1"/>
-    <col min="3598" max="3598" width="13.88671875" style="3" customWidth="1"/>
-    <col min="3599" max="3840" width="9.109375" style="3"/>
-    <col min="3841" max="3841" width="18.6640625" style="3" customWidth="1"/>
-    <col min="3842" max="3853" width="8.6640625" style="3" customWidth="1"/>
-    <col min="3854" max="3854" width="13.88671875" style="3" customWidth="1"/>
-    <col min="3855" max="4096" width="9.109375" style="3"/>
-    <col min="4097" max="4097" width="18.6640625" style="3" customWidth="1"/>
-    <col min="4098" max="4109" width="8.6640625" style="3" customWidth="1"/>
-    <col min="4110" max="4110" width="13.88671875" style="3" customWidth="1"/>
-    <col min="4111" max="4352" width="9.109375" style="3"/>
-    <col min="4353" max="4353" width="18.6640625" style="3" customWidth="1"/>
-    <col min="4354" max="4365" width="8.6640625" style="3" customWidth="1"/>
-    <col min="4366" max="4366" width="13.88671875" style="3" customWidth="1"/>
-    <col min="4367" max="4608" width="9.109375" style="3"/>
-    <col min="4609" max="4609" width="18.6640625" style="3" customWidth="1"/>
-    <col min="4610" max="4621" width="8.6640625" style="3" customWidth="1"/>
-    <col min="4622" max="4622" width="13.88671875" style="3" customWidth="1"/>
-    <col min="4623" max="4864" width="9.109375" style="3"/>
-    <col min="4865" max="4865" width="18.6640625" style="3" customWidth="1"/>
-    <col min="4866" max="4877" width="8.6640625" style="3" customWidth="1"/>
-    <col min="4878" max="4878" width="13.88671875" style="3" customWidth="1"/>
-    <col min="4879" max="5120" width="9.109375" style="3"/>
-    <col min="5121" max="5121" width="18.6640625" style="3" customWidth="1"/>
-    <col min="5122" max="5133" width="8.6640625" style="3" customWidth="1"/>
-    <col min="5134" max="5134" width="13.88671875" style="3" customWidth="1"/>
-    <col min="5135" max="5376" width="9.109375" style="3"/>
-    <col min="5377" max="5377" width="18.6640625" style="3" customWidth="1"/>
-    <col min="5378" max="5389" width="8.6640625" style="3" customWidth="1"/>
-    <col min="5390" max="5390" width="13.88671875" style="3" customWidth="1"/>
-    <col min="5391" max="5632" width="9.109375" style="3"/>
-    <col min="5633" max="5633" width="18.6640625" style="3" customWidth="1"/>
-    <col min="5634" max="5645" width="8.6640625" style="3" customWidth="1"/>
-    <col min="5646" max="5646" width="13.88671875" style="3" customWidth="1"/>
-    <col min="5647" max="5888" width="9.109375" style="3"/>
-    <col min="5889" max="5889" width="18.6640625" style="3" customWidth="1"/>
-    <col min="5890" max="5901" width="8.6640625" style="3" customWidth="1"/>
-    <col min="5902" max="5902" width="13.88671875" style="3" customWidth="1"/>
-    <col min="5903" max="6144" width="9.109375" style="3"/>
-    <col min="6145" max="6145" width="18.6640625" style="3" customWidth="1"/>
-    <col min="6146" max="6157" width="8.6640625" style="3" customWidth="1"/>
-    <col min="6158" max="6158" width="13.88671875" style="3" customWidth="1"/>
-    <col min="6159" max="6400" width="9.109375" style="3"/>
-    <col min="6401" max="6401" width="18.6640625" style="3" customWidth="1"/>
-    <col min="6402" max="6413" width="8.6640625" style="3" customWidth="1"/>
-    <col min="6414" max="6414" width="13.88671875" style="3" customWidth="1"/>
-    <col min="6415" max="6656" width="9.109375" style="3"/>
-    <col min="6657" max="6657" width="18.6640625" style="3" customWidth="1"/>
-    <col min="6658" max="6669" width="8.6640625" style="3" customWidth="1"/>
-    <col min="6670" max="6670" width="13.88671875" style="3" customWidth="1"/>
-    <col min="6671" max="6912" width="9.109375" style="3"/>
-    <col min="6913" max="6913" width="18.6640625" style="3" customWidth="1"/>
-    <col min="6914" max="6925" width="8.6640625" style="3" customWidth="1"/>
-    <col min="6926" max="6926" width="13.88671875" style="3" customWidth="1"/>
-    <col min="6927" max="7168" width="9.109375" style="3"/>
-    <col min="7169" max="7169" width="18.6640625" style="3" customWidth="1"/>
-    <col min="7170" max="7181" width="8.6640625" style="3" customWidth="1"/>
-    <col min="7182" max="7182" width="13.88671875" style="3" customWidth="1"/>
-    <col min="7183" max="7424" width="9.109375" style="3"/>
-    <col min="7425" max="7425" width="18.6640625" style="3" customWidth="1"/>
-    <col min="7426" max="7437" width="8.6640625" style="3" customWidth="1"/>
-    <col min="7438" max="7438" width="13.88671875" style="3" customWidth="1"/>
-    <col min="7439" max="7680" width="9.109375" style="3"/>
-    <col min="7681" max="7681" width="18.6640625" style="3" customWidth="1"/>
-    <col min="7682" max="7693" width="8.6640625" style="3" customWidth="1"/>
-    <col min="7694" max="7694" width="13.88671875" style="3" customWidth="1"/>
-    <col min="7695" max="7936" width="9.109375" style="3"/>
-    <col min="7937" max="7937" width="18.6640625" style="3" customWidth="1"/>
-    <col min="7938" max="7949" width="8.6640625" style="3" customWidth="1"/>
-    <col min="7950" max="7950" width="13.88671875" style="3" customWidth="1"/>
-    <col min="7951" max="8192" width="9.109375" style="3"/>
-    <col min="8193" max="8193" width="18.6640625" style="3" customWidth="1"/>
-    <col min="8194" max="8205" width="8.6640625" style="3" customWidth="1"/>
-    <col min="8206" max="8206" width="13.88671875" style="3" customWidth="1"/>
-    <col min="8207" max="8448" width="9.109375" style="3"/>
-    <col min="8449" max="8449" width="18.6640625" style="3" customWidth="1"/>
-    <col min="8450" max="8461" width="8.6640625" style="3" customWidth="1"/>
-    <col min="8462" max="8462" width="13.88671875" style="3" customWidth="1"/>
-    <col min="8463" max="8704" width="9.109375" style="3"/>
-    <col min="8705" max="8705" width="18.6640625" style="3" customWidth="1"/>
-    <col min="8706" max="8717" width="8.6640625" style="3" customWidth="1"/>
-    <col min="8718" max="8718" width="13.88671875" style="3" customWidth="1"/>
-    <col min="8719" max="8960" width="9.109375" style="3"/>
-    <col min="8961" max="8961" width="18.6640625" style="3" customWidth="1"/>
-    <col min="8962" max="8973" width="8.6640625" style="3" customWidth="1"/>
-    <col min="8974" max="8974" width="13.88671875" style="3" customWidth="1"/>
-    <col min="8975" max="9216" width="9.109375" style="3"/>
-    <col min="9217" max="9217" width="18.6640625" style="3" customWidth="1"/>
-    <col min="9218" max="9229" width="8.6640625" style="3" customWidth="1"/>
-    <col min="9230" max="9230" width="13.88671875" style="3" customWidth="1"/>
-    <col min="9231" max="9472" width="9.109375" style="3"/>
-    <col min="9473" max="9473" width="18.6640625" style="3" customWidth="1"/>
-    <col min="9474" max="9485" width="8.6640625" style="3" customWidth="1"/>
-    <col min="9486" max="9486" width="13.88671875" style="3" customWidth="1"/>
-    <col min="9487" max="9728" width="9.109375" style="3"/>
-    <col min="9729" max="9729" width="18.6640625" style="3" customWidth="1"/>
-    <col min="9730" max="9741" width="8.6640625" style="3" customWidth="1"/>
-    <col min="9742" max="9742" width="13.88671875" style="3" customWidth="1"/>
-    <col min="9743" max="9984" width="9.109375" style="3"/>
-    <col min="9985" max="9985" width="18.6640625" style="3" customWidth="1"/>
-    <col min="9986" max="9997" width="8.6640625" style="3" customWidth="1"/>
-    <col min="9998" max="9998" width="13.88671875" style="3" customWidth="1"/>
-    <col min="9999" max="10240" width="9.109375" style="3"/>
-    <col min="10241" max="10241" width="18.6640625" style="3" customWidth="1"/>
-    <col min="10242" max="10253" width="8.6640625" style="3" customWidth="1"/>
-    <col min="10254" max="10254" width="13.88671875" style="3" customWidth="1"/>
-    <col min="10255" max="10496" width="9.109375" style="3"/>
-    <col min="10497" max="10497" width="18.6640625" style="3" customWidth="1"/>
-    <col min="10498" max="10509" width="8.6640625" style="3" customWidth="1"/>
-    <col min="10510" max="10510" width="13.88671875" style="3" customWidth="1"/>
-    <col min="10511" max="10752" width="9.109375" style="3"/>
-    <col min="10753" max="10753" width="18.6640625" style="3" customWidth="1"/>
-    <col min="10754" max="10765" width="8.6640625" style="3" customWidth="1"/>
-    <col min="10766" max="10766" width="13.88671875" style="3" customWidth="1"/>
-    <col min="10767" max="11008" width="9.109375" style="3"/>
-    <col min="11009" max="11009" width="18.6640625" style="3" customWidth="1"/>
-    <col min="11010" max="11021" width="8.6640625" style="3" customWidth="1"/>
-    <col min="11022" max="11022" width="13.88671875" style="3" customWidth="1"/>
-    <col min="11023" max="11264" width="9.109375" style="3"/>
-    <col min="11265" max="11265" width="18.6640625" style="3" customWidth="1"/>
-    <col min="11266" max="11277" width="8.6640625" style="3" customWidth="1"/>
-    <col min="11278" max="11278" width="13.88671875" style="3" customWidth="1"/>
-    <col min="11279" max="11520" width="9.109375" style="3"/>
-    <col min="11521" max="11521" width="18.6640625" style="3" customWidth="1"/>
-    <col min="11522" max="11533" width="8.6640625" style="3" customWidth="1"/>
-    <col min="11534" max="11534" width="13.88671875" style="3" customWidth="1"/>
-    <col min="11535" max="11776" width="9.109375" style="3"/>
-    <col min="11777" max="11777" width="18.6640625" style="3" customWidth="1"/>
-    <col min="11778" max="11789" width="8.6640625" style="3" customWidth="1"/>
-    <col min="11790" max="11790" width="13.88671875" style="3" customWidth="1"/>
-    <col min="11791" max="12032" width="9.109375" style="3"/>
-    <col min="12033" max="12033" width="18.6640625" style="3" customWidth="1"/>
-    <col min="12034" max="12045" width="8.6640625" style="3" customWidth="1"/>
-    <col min="12046" max="12046" width="13.88671875" style="3" customWidth="1"/>
-    <col min="12047" max="12288" width="9.109375" style="3"/>
-    <col min="12289" max="12289" width="18.6640625" style="3" customWidth="1"/>
-    <col min="12290" max="12301" width="8.6640625" style="3" customWidth="1"/>
-    <col min="12302" max="12302" width="13.88671875" style="3" customWidth="1"/>
-    <col min="12303" max="12544" width="9.109375" style="3"/>
-    <col min="12545" max="12545" width="18.6640625" style="3" customWidth="1"/>
-    <col min="12546" max="12557" width="8.6640625" style="3" customWidth="1"/>
-    <col min="12558" max="12558" width="13.88671875" style="3" customWidth="1"/>
-    <col min="12559" max="12800" width="9.109375" style="3"/>
-    <col min="12801" max="12801" width="18.6640625" style="3" customWidth="1"/>
-    <col min="12802" max="12813" width="8.6640625" style="3" customWidth="1"/>
-    <col min="12814" max="12814" width="13.88671875" style="3" customWidth="1"/>
-    <col min="12815" max="13056" width="9.109375" style="3"/>
-    <col min="13057" max="13057" width="18.6640625" style="3" customWidth="1"/>
-    <col min="13058" max="13069" width="8.6640625" style="3" customWidth="1"/>
-    <col min="13070" max="13070" width="13.88671875" style="3" customWidth="1"/>
-    <col min="13071" max="13312" width="9.109375" style="3"/>
-    <col min="13313" max="13313" width="18.6640625" style="3" customWidth="1"/>
-    <col min="13314" max="13325" width="8.6640625" style="3" customWidth="1"/>
-    <col min="13326" max="13326" width="13.88671875" style="3" customWidth="1"/>
-    <col min="13327" max="13568" width="9.109375" style="3"/>
-    <col min="13569" max="13569" width="18.6640625" style="3" customWidth="1"/>
-    <col min="13570" max="13581" width="8.6640625" style="3" customWidth="1"/>
-    <col min="13582" max="13582" width="13.88671875" style="3" customWidth="1"/>
-    <col min="13583" max="13824" width="9.109375" style="3"/>
-    <col min="13825" max="13825" width="18.6640625" style="3" customWidth="1"/>
-    <col min="13826" max="13837" width="8.6640625" style="3" customWidth="1"/>
-    <col min="13838" max="13838" width="13.88671875" style="3" customWidth="1"/>
-    <col min="13839" max="14080" width="9.109375" style="3"/>
-    <col min="14081" max="14081" width="18.6640625" style="3" customWidth="1"/>
-    <col min="14082" max="14093" width="8.6640625" style="3" customWidth="1"/>
-    <col min="14094" max="14094" width="13.88671875" style="3" customWidth="1"/>
-    <col min="14095" max="14336" width="9.109375" style="3"/>
-    <col min="14337" max="14337" width="18.6640625" style="3" customWidth="1"/>
-    <col min="14338" max="14349" width="8.6640625" style="3" customWidth="1"/>
-    <col min="14350" max="14350" width="13.88671875" style="3" customWidth="1"/>
-    <col min="14351" max="14592" width="9.109375" style="3"/>
-    <col min="14593" max="14593" width="18.6640625" style="3" customWidth="1"/>
-    <col min="14594" max="14605" width="8.6640625" style="3" customWidth="1"/>
-    <col min="14606" max="14606" width="13.88671875" style="3" customWidth="1"/>
-    <col min="14607" max="14848" width="9.109375" style="3"/>
-    <col min="14849" max="14849" width="18.6640625" style="3" customWidth="1"/>
-    <col min="14850" max="14861" width="8.6640625" style="3" customWidth="1"/>
-    <col min="14862" max="14862" width="13.88671875" style="3" customWidth="1"/>
-    <col min="14863" max="15104" width="9.109375" style="3"/>
-    <col min="15105" max="15105" width="18.6640625" style="3" customWidth="1"/>
-    <col min="15106" max="15117" width="8.6640625" style="3" customWidth="1"/>
-    <col min="15118" max="15118" width="13.88671875" style="3" customWidth="1"/>
-    <col min="15119" max="15360" width="9.109375" style="3"/>
-    <col min="15361" max="15361" width="18.6640625" style="3" customWidth="1"/>
-    <col min="15362" max="15373" width="8.6640625" style="3" customWidth="1"/>
-    <col min="15374" max="15374" width="13.88671875" style="3" customWidth="1"/>
-    <col min="15375" max="15616" width="9.109375" style="3"/>
-    <col min="15617" max="15617" width="18.6640625" style="3" customWidth="1"/>
-    <col min="15618" max="15629" width="8.6640625" style="3" customWidth="1"/>
-    <col min="15630" max="15630" width="13.88671875" style="3" customWidth="1"/>
-    <col min="15631" max="15872" width="9.109375" style="3"/>
-    <col min="15873" max="15873" width="18.6640625" style="3" customWidth="1"/>
-    <col min="15874" max="15885" width="8.6640625" style="3" customWidth="1"/>
-    <col min="15886" max="15886" width="13.88671875" style="3" customWidth="1"/>
-    <col min="15887" max="16128" width="9.109375" style="3"/>
-    <col min="16129" max="16129" width="18.6640625" style="3" customWidth="1"/>
-    <col min="16130" max="16141" width="8.6640625" style="3" customWidth="1"/>
-    <col min="16142" max="16142" width="13.88671875" style="3" customWidth="1"/>
-    <col min="16143" max="16384" width="9.109375" style="3"/>
+    <col min="1" max="1" width="18.7109375" style="3" customWidth="1"/>
+    <col min="2" max="8" width="18.85546875" style="3" customWidth="1"/>
+    <col min="9" max="13" width="15.140625" style="3" customWidth="1"/>
+    <col min="14" max="14" width="13.85546875" style="3" customWidth="1"/>
+    <col min="15" max="256" width="9.140625" style="3"/>
+    <col min="257" max="257" width="18.7109375" style="3" customWidth="1"/>
+    <col min="258" max="269" width="8.7109375" style="3" customWidth="1"/>
+    <col min="270" max="270" width="13.85546875" style="3" customWidth="1"/>
+    <col min="271" max="512" width="9.140625" style="3"/>
+    <col min="513" max="513" width="18.7109375" style="3" customWidth="1"/>
+    <col min="514" max="525" width="8.7109375" style="3" customWidth="1"/>
+    <col min="526" max="526" width="13.85546875" style="3" customWidth="1"/>
+    <col min="527" max="768" width="9.140625" style="3"/>
+    <col min="769" max="769" width="18.7109375" style="3" customWidth="1"/>
+    <col min="770" max="781" width="8.7109375" style="3" customWidth="1"/>
+    <col min="782" max="782" width="13.85546875" style="3" customWidth="1"/>
+    <col min="783" max="1024" width="9.140625" style="3"/>
+    <col min="1025" max="1025" width="18.7109375" style="3" customWidth="1"/>
+    <col min="1026" max="1037" width="8.7109375" style="3" customWidth="1"/>
+    <col min="1038" max="1038" width="13.85546875" style="3" customWidth="1"/>
+    <col min="1039" max="1280" width="9.140625" style="3"/>
+    <col min="1281" max="1281" width="18.7109375" style="3" customWidth="1"/>
+    <col min="1282" max="1293" width="8.7109375" style="3" customWidth="1"/>
+    <col min="1294" max="1294" width="13.85546875" style="3" customWidth="1"/>
+    <col min="1295" max="1536" width="9.140625" style="3"/>
+    <col min="1537" max="1537" width="18.7109375" style="3" customWidth="1"/>
+    <col min="1538" max="1549" width="8.7109375" style="3" customWidth="1"/>
+    <col min="1550" max="1550" width="13.85546875" style="3" customWidth="1"/>
+    <col min="1551" max="1792" width="9.140625" style="3"/>
+    <col min="1793" max="1793" width="18.7109375" style="3" customWidth="1"/>
+    <col min="1794" max="1805" width="8.7109375" style="3" customWidth="1"/>
+    <col min="1806" max="1806" width="13.85546875" style="3" customWidth="1"/>
+    <col min="1807" max="2048" width="9.140625" style="3"/>
+    <col min="2049" max="2049" width="18.7109375" style="3" customWidth="1"/>
+    <col min="2050" max="2061" width="8.7109375" style="3" customWidth="1"/>
+    <col min="2062" max="2062" width="13.85546875" style="3" customWidth="1"/>
+    <col min="2063" max="2304" width="9.140625" style="3"/>
+    <col min="2305" max="2305" width="18.7109375" style="3" customWidth="1"/>
+    <col min="2306" max="2317" width="8.7109375" style="3" customWidth="1"/>
+    <col min="2318" max="2318" width="13.85546875" style="3" customWidth="1"/>
+    <col min="2319" max="2560" width="9.140625" style="3"/>
+    <col min="2561" max="2561" width="18.7109375" style="3" customWidth="1"/>
+    <col min="2562" max="2573" width="8.7109375" style="3" customWidth="1"/>
+    <col min="2574" max="2574" width="13.85546875" style="3" customWidth="1"/>
+    <col min="2575" max="2816" width="9.140625" style="3"/>
+    <col min="2817" max="2817" width="18.7109375" style="3" customWidth="1"/>
+    <col min="2818" max="2829" width="8.7109375" style="3" customWidth="1"/>
+    <col min="2830" max="2830" width="13.85546875" style="3" customWidth="1"/>
+    <col min="2831" max="3072" width="9.140625" style="3"/>
+    <col min="3073" max="3073" width="18.7109375" style="3" customWidth="1"/>
+    <col min="3074" max="3085" width="8.7109375" style="3" customWidth="1"/>
+    <col min="3086" max="3086" width="13.85546875" style="3" customWidth="1"/>
+    <col min="3087" max="3328" width="9.140625" style="3"/>
+    <col min="3329" max="3329" width="18.7109375" style="3" customWidth="1"/>
+    <col min="3330" max="3341" width="8.7109375" style="3" customWidth="1"/>
+    <col min="3342" max="3342" width="13.85546875" style="3" customWidth="1"/>
+    <col min="3343" max="3584" width="9.140625" style="3"/>
+    <col min="3585" max="3585" width="18.7109375" style="3" customWidth="1"/>
+    <col min="3586" max="3597" width="8.7109375" style="3" customWidth="1"/>
+    <col min="3598" max="3598" width="13.85546875" style="3" customWidth="1"/>
+    <col min="3599" max="3840" width="9.140625" style="3"/>
+    <col min="3841" max="3841" width="18.7109375" style="3" customWidth="1"/>
+    <col min="3842" max="3853" width="8.7109375" style="3" customWidth="1"/>
+    <col min="3854" max="3854" width="13.85546875" style="3" customWidth="1"/>
+    <col min="3855" max="4096" width="9.140625" style="3"/>
+    <col min="4097" max="4097" width="18.7109375" style="3" customWidth="1"/>
+    <col min="4098" max="4109" width="8.7109375" style="3" customWidth="1"/>
+    <col min="4110" max="4110" width="13.85546875" style="3" customWidth="1"/>
+    <col min="4111" max="4352" width="9.140625" style="3"/>
+    <col min="4353" max="4353" width="18.7109375" style="3" customWidth="1"/>
+    <col min="4354" max="4365" width="8.7109375" style="3" customWidth="1"/>
+    <col min="4366" max="4366" width="13.85546875" style="3" customWidth="1"/>
+    <col min="4367" max="4608" width="9.140625" style="3"/>
+    <col min="4609" max="4609" width="18.7109375" style="3" customWidth="1"/>
+    <col min="4610" max="4621" width="8.7109375" style="3" customWidth="1"/>
+    <col min="4622" max="4622" width="13.85546875" style="3" customWidth="1"/>
+    <col min="4623" max="4864" width="9.140625" style="3"/>
+    <col min="4865" max="4865" width="18.7109375" style="3" customWidth="1"/>
+    <col min="4866" max="4877" width="8.7109375" style="3" customWidth="1"/>
+    <col min="4878" max="4878" width="13.85546875" style="3" customWidth="1"/>
+    <col min="4879" max="5120" width="9.140625" style="3"/>
+    <col min="5121" max="5121" width="18.7109375" style="3" customWidth="1"/>
+    <col min="5122" max="5133" width="8.7109375" style="3" customWidth="1"/>
+    <col min="5134" max="5134" width="13.85546875" style="3" customWidth="1"/>
+    <col min="5135" max="5376" width="9.140625" style="3"/>
+    <col min="5377" max="5377" width="18.7109375" style="3" customWidth="1"/>
+    <col min="5378" max="5389" width="8.7109375" style="3" customWidth="1"/>
+    <col min="5390" max="5390" width="13.85546875" style="3" customWidth="1"/>
+    <col min="5391" max="5632" width="9.140625" style="3"/>
+    <col min="5633" max="5633" width="18.7109375" style="3" customWidth="1"/>
+    <col min="5634" max="5645" width="8.7109375" style="3" customWidth="1"/>
+    <col min="5646" max="5646" width="13.85546875" style="3" customWidth="1"/>
+    <col min="5647" max="5888" width="9.140625" style="3"/>
+    <col min="5889" max="5889" width="18.7109375" style="3" customWidth="1"/>
+    <col min="5890" max="5901" width="8.7109375" style="3" customWidth="1"/>
+    <col min="5902" max="5902" width="13.85546875" style="3" customWidth="1"/>
+    <col min="5903" max="6144" width="9.140625" style="3"/>
+    <col min="6145" max="6145" width="18.7109375" style="3" customWidth="1"/>
+    <col min="6146" max="6157" width="8.7109375" style="3" customWidth="1"/>
+    <col min="6158" max="6158" width="13.85546875" style="3" customWidth="1"/>
+    <col min="6159" max="6400" width="9.140625" style="3"/>
+    <col min="6401" max="6401" width="18.7109375" style="3" customWidth="1"/>
+    <col min="6402" max="6413" width="8.7109375" style="3" customWidth="1"/>
+    <col min="6414" max="6414" width="13.85546875" style="3" customWidth="1"/>
+    <col min="6415" max="6656" width="9.140625" style="3"/>
+    <col min="6657" max="6657" width="18.7109375" style="3" customWidth="1"/>
+    <col min="6658" max="6669" width="8.7109375" style="3" customWidth="1"/>
+    <col min="6670" max="6670" width="13.85546875" style="3" customWidth="1"/>
+    <col min="6671" max="6912" width="9.140625" style="3"/>
+    <col min="6913" max="6913" width="18.7109375" style="3" customWidth="1"/>
+    <col min="6914" max="6925" width="8.7109375" style="3" customWidth="1"/>
+    <col min="6926" max="6926" width="13.85546875" style="3" customWidth="1"/>
+    <col min="6927" max="7168" width="9.140625" style="3"/>
+    <col min="7169" max="7169" width="18.7109375" style="3" customWidth="1"/>
+    <col min="7170" max="7181" width="8.7109375" style="3" customWidth="1"/>
+    <col min="7182" max="7182" width="13.85546875" style="3" customWidth="1"/>
+    <col min="7183" max="7424" width="9.140625" style="3"/>
+    <col min="7425" max="7425" width="18.7109375" style="3" customWidth="1"/>
+    <col min="7426" max="7437" width="8.7109375" style="3" customWidth="1"/>
+    <col min="7438" max="7438" width="13.85546875" style="3" customWidth="1"/>
+    <col min="7439" max="7680" width="9.140625" style="3"/>
+    <col min="7681" max="7681" width="18.7109375" style="3" customWidth="1"/>
+    <col min="7682" max="7693" width="8.7109375" style="3" customWidth="1"/>
+    <col min="7694" max="7694" width="13.85546875" style="3" customWidth="1"/>
+    <col min="7695" max="7936" width="9.140625" style="3"/>
+    <col min="7937" max="7937" width="18.7109375" style="3" customWidth="1"/>
+    <col min="7938" max="7949" width="8.7109375" style="3" customWidth="1"/>
+    <col min="7950" max="7950" width="13.85546875" style="3" customWidth="1"/>
+    <col min="7951" max="8192" width="9.140625" style="3"/>
+    <col min="8193" max="8193" width="18.7109375" style="3" customWidth="1"/>
+    <col min="8194" max="8205" width="8.7109375" style="3" customWidth="1"/>
+    <col min="8206" max="8206" width="13.85546875" style="3" customWidth="1"/>
+    <col min="8207" max="8448" width="9.140625" style="3"/>
+    <col min="8449" max="8449" width="18.7109375" style="3" customWidth="1"/>
+    <col min="8450" max="8461" width="8.7109375" style="3" customWidth="1"/>
+    <col min="8462" max="8462" width="13.85546875" style="3" customWidth="1"/>
+    <col min="8463" max="8704" width="9.140625" style="3"/>
+    <col min="8705" max="8705" width="18.7109375" style="3" customWidth="1"/>
+    <col min="8706" max="8717" width="8.7109375" style="3" customWidth="1"/>
+    <col min="8718" max="8718" width="13.85546875" style="3" customWidth="1"/>
+    <col min="8719" max="8960" width="9.140625" style="3"/>
+    <col min="8961" max="8961" width="18.7109375" style="3" customWidth="1"/>
+    <col min="8962" max="8973" width="8.7109375" style="3" customWidth="1"/>
+    <col min="8974" max="8974" width="13.85546875" style="3" customWidth="1"/>
+    <col min="8975" max="9216" width="9.140625" style="3"/>
+    <col min="9217" max="9217" width="18.7109375" style="3" customWidth="1"/>
+    <col min="9218" max="9229" width="8.7109375" style="3" customWidth="1"/>
+    <col min="9230" max="9230" width="13.85546875" style="3" customWidth="1"/>
+    <col min="9231" max="9472" width="9.140625" style="3"/>
+    <col min="9473" max="9473" width="18.7109375" style="3" customWidth="1"/>
+    <col min="9474" max="9485" width="8.7109375" style="3" customWidth="1"/>
+    <col min="9486" max="9486" width="13.85546875" style="3" customWidth="1"/>
+    <col min="9487" max="9728" width="9.140625" style="3"/>
+    <col min="9729" max="9729" width="18.7109375" style="3" customWidth="1"/>
+    <col min="9730" max="9741" width="8.7109375" style="3" customWidth="1"/>
+    <col min="9742" max="9742" width="13.85546875" style="3" customWidth="1"/>
+    <col min="9743" max="9984" width="9.140625" style="3"/>
+    <col min="9985" max="9985" width="18.7109375" style="3" customWidth="1"/>
+    <col min="9986" max="9997" width="8.7109375" style="3" customWidth="1"/>
+    <col min="9998" max="9998" width="13.85546875" style="3" customWidth="1"/>
+    <col min="9999" max="10240" width="9.140625" style="3"/>
+    <col min="10241" max="10241" width="18.7109375" style="3" customWidth="1"/>
+    <col min="10242" max="10253" width="8.7109375" style="3" customWidth="1"/>
+    <col min="10254" max="10254" width="13.85546875" style="3" customWidth="1"/>
+    <col min="10255" max="10496" width="9.140625" style="3"/>
+    <col min="10497" max="10497" width="18.7109375" style="3" customWidth="1"/>
+    <col min="10498" max="10509" width="8.7109375" style="3" customWidth="1"/>
+    <col min="10510" max="10510" width="13.85546875" style="3" customWidth="1"/>
+    <col min="10511" max="10752" width="9.140625" style="3"/>
+    <col min="10753" max="10753" width="18.7109375" style="3" customWidth="1"/>
+    <col min="10754" max="10765" width="8.7109375" style="3" customWidth="1"/>
+    <col min="10766" max="10766" width="13.85546875" style="3" customWidth="1"/>
+    <col min="10767" max="11008" width="9.140625" style="3"/>
+    <col min="11009" max="11009" width="18.7109375" style="3" customWidth="1"/>
+    <col min="11010" max="11021" width="8.7109375" style="3" customWidth="1"/>
+    <col min="11022" max="11022" width="13.85546875" style="3" customWidth="1"/>
+    <col min="11023" max="11264" width="9.140625" style="3"/>
+    <col min="11265" max="11265" width="18.7109375" style="3" customWidth="1"/>
+    <col min="11266" max="11277" width="8.7109375" style="3" customWidth="1"/>
+    <col min="11278" max="11278" width="13.85546875" style="3" customWidth="1"/>
+    <col min="11279" max="11520" width="9.140625" style="3"/>
+    <col min="11521" max="11521" width="18.7109375" style="3" customWidth="1"/>
+    <col min="11522" max="11533" width="8.7109375" style="3" customWidth="1"/>
+    <col min="11534" max="11534" width="13.85546875" style="3" customWidth="1"/>
+    <col min="11535" max="11776" width="9.140625" style="3"/>
+    <col min="11777" max="11777" width="18.7109375" style="3" customWidth="1"/>
+    <col min="11778" max="11789" width="8.7109375" style="3" customWidth="1"/>
+    <col min="11790" max="11790" width="13.85546875" style="3" customWidth="1"/>
+    <col min="11791" max="12032" width="9.140625" style="3"/>
+    <col min="12033" max="12033" width="18.7109375" style="3" customWidth="1"/>
+    <col min="12034" max="12045" width="8.7109375" style="3" customWidth="1"/>
+    <col min="12046" max="12046" width="13.85546875" style="3" customWidth="1"/>
+    <col min="12047" max="12288" width="9.140625" style="3"/>
+    <col min="12289" max="12289" width="18.7109375" style="3" customWidth="1"/>
+    <col min="12290" max="12301" width="8.7109375" style="3" customWidth="1"/>
+    <col min="12302" max="12302" width="13.85546875" style="3" customWidth="1"/>
+    <col min="12303" max="12544" width="9.140625" style="3"/>
+    <col min="12545" max="12545" width="18.7109375" style="3" customWidth="1"/>
+    <col min="12546" max="12557" width="8.7109375" style="3" customWidth="1"/>
+    <col min="12558" max="12558" width="13.85546875" style="3" customWidth="1"/>
+    <col min="12559" max="12800" width="9.140625" style="3"/>
+    <col min="12801" max="12801" width="18.7109375" style="3" customWidth="1"/>
+    <col min="12802" max="12813" width="8.7109375" style="3" customWidth="1"/>
+    <col min="12814" max="12814" width="13.85546875" style="3" customWidth="1"/>
+    <col min="12815" max="13056" width="9.140625" style="3"/>
+    <col min="13057" max="13057" width="18.7109375" style="3" customWidth="1"/>
+    <col min="13058" max="13069" width="8.7109375" style="3" customWidth="1"/>
+    <col min="13070" max="13070" width="13.85546875" style="3" customWidth="1"/>
+    <col min="13071" max="13312" width="9.140625" style="3"/>
+    <col min="13313" max="13313" width="18.7109375" style="3" customWidth="1"/>
+    <col min="13314" max="13325" width="8.7109375" style="3" customWidth="1"/>
+    <col min="13326" max="13326" width="13.85546875" style="3" customWidth="1"/>
+    <col min="13327" max="13568" width="9.140625" style="3"/>
+    <col min="13569" max="13569" width="18.7109375" style="3" customWidth="1"/>
+    <col min="13570" max="13581" width="8.7109375" style="3" customWidth="1"/>
+    <col min="13582" max="13582" width="13.85546875" style="3" customWidth="1"/>
+    <col min="13583" max="13824" width="9.140625" style="3"/>
+    <col min="13825" max="13825" width="18.7109375" style="3" customWidth="1"/>
+    <col min="13826" max="13837" width="8.7109375" style="3" customWidth="1"/>
+    <col min="13838" max="13838" width="13.85546875" style="3" customWidth="1"/>
+    <col min="13839" max="14080" width="9.140625" style="3"/>
+    <col min="14081" max="14081" width="18.7109375" style="3" customWidth="1"/>
+    <col min="14082" max="14093" width="8.7109375" style="3" customWidth="1"/>
+    <col min="14094" max="14094" width="13.85546875" style="3" customWidth="1"/>
+    <col min="14095" max="14336" width="9.140625" style="3"/>
+    <col min="14337" max="14337" width="18.7109375" style="3" customWidth="1"/>
+    <col min="14338" max="14349" width="8.7109375" style="3" customWidth="1"/>
+    <col min="14350" max="14350" width="13.85546875" style="3" customWidth="1"/>
+    <col min="14351" max="14592" width="9.140625" style="3"/>
+    <col min="14593" max="14593" width="18.7109375" style="3" customWidth="1"/>
+    <col min="14594" max="14605" width="8.7109375" style="3" customWidth="1"/>
+    <col min="14606" max="14606" width="13.85546875" style="3" customWidth="1"/>
+    <col min="14607" max="14848" width="9.140625" style="3"/>
+    <col min="14849" max="14849" width="18.7109375" style="3" customWidth="1"/>
+    <col min="14850" max="14861" width="8.7109375" style="3" customWidth="1"/>
+    <col min="14862" max="14862" width="13.85546875" style="3" customWidth="1"/>
+    <col min="14863" max="15104" width="9.140625" style="3"/>
+    <col min="15105" max="15105" width="18.7109375" style="3" customWidth="1"/>
+    <col min="15106" max="15117" width="8.7109375" style="3" customWidth="1"/>
+    <col min="15118" max="15118" width="13.85546875" style="3" customWidth="1"/>
+    <col min="15119" max="15360" width="9.140625" style="3"/>
+    <col min="15361" max="15361" width="18.7109375" style="3" customWidth="1"/>
+    <col min="15362" max="15373" width="8.7109375" style="3" customWidth="1"/>
+    <col min="15374" max="15374" width="13.85546875" style="3" customWidth="1"/>
+    <col min="15375" max="15616" width="9.140625" style="3"/>
+    <col min="15617" max="15617" width="18.7109375" style="3" customWidth="1"/>
+    <col min="15618" max="15629" width="8.7109375" style="3" customWidth="1"/>
+    <col min="15630" max="15630" width="13.85546875" style="3" customWidth="1"/>
+    <col min="15631" max="15872" width="9.140625" style="3"/>
+    <col min="15873" max="15873" width="18.7109375" style="3" customWidth="1"/>
+    <col min="15874" max="15885" width="8.7109375" style="3" customWidth="1"/>
+    <col min="15886" max="15886" width="13.85546875" style="3" customWidth="1"/>
+    <col min="15887" max="16128" width="9.140625" style="3"/>
+    <col min="16129" max="16129" width="18.7109375" style="3" customWidth="1"/>
+    <col min="16130" max="16141" width="8.7109375" style="3" customWidth="1"/>
+    <col min="16142" max="16142" width="13.85546875" style="3" customWidth="1"/>
+    <col min="16143" max="16384" width="9.140625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="11" t="s">
         <v>56</v>
       </c>
@@ -1077,27 +2743,27 @@
       <c r="L1" s="11"/>
       <c r="M1" s="11"/>
     </row>
-    <row r="2" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="10" t="s">
+    <row r="2" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="B2" s="10" t="s">
+      <c r="B2" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="C2" s="10"/>
-      <c r="D2" s="10"/>
-      <c r="E2" s="10"/>
-      <c r="F2" s="10"/>
-      <c r="G2" s="10"/>
-      <c r="H2" s="10"/>
-      <c r="I2" s="10"/>
-      <c r="J2" s="10"/>
-      <c r="K2" s="10"/>
-      <c r="L2" s="10"/>
-      <c r="M2" s="10"/>
-    </row>
-    <row r="3" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="10"/>
+      <c r="C2" s="12"/>
+      <c r="D2" s="12"/>
+      <c r="E2" s="12"/>
+      <c r="F2" s="12"/>
+      <c r="G2" s="12"/>
+      <c r="H2" s="12"/>
+      <c r="I2" s="12"/>
+      <c r="J2" s="12"/>
+      <c r="K2" s="12"/>
+      <c r="L2" s="12"/>
+      <c r="M2" s="12"/>
+    </row>
+    <row r="3" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="12"/>
       <c r="B3" s="4" t="s">
         <v>19</v>
       </c>
@@ -1135,7 +2801,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="4" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
         <v>31</v>
       </c>
@@ -1179,7 +2845,7 @@
         <v>11.900989976068299</v>
       </c>
     </row>
-    <row r="5" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
         <v>32</v>
       </c>
@@ -1223,7 +2889,7 @@
         <v>0.11217505221518299</v>
       </c>
     </row>
-    <row r="6" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
         <v>33</v>
       </c>
@@ -1267,7 +2933,7 @@
         <v>11.647528095399799</v>
       </c>
     </row>
-    <row r="7" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
         <v>34</v>
       </c>
@@ -1311,7 +2977,7 @@
         <v>12.2295481022767</v>
       </c>
     </row>
-    <row r="8" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
         <v>35</v>
       </c>
@@ -1355,7 +3021,7 @@
         <v>94.062296624633703</v>
       </c>
     </row>
-    <row r="9" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
         <v>36</v>
       </c>
@@ -1399,7 +3065,7 @@
         <v>0.103201141146258</v>
       </c>
     </row>
-    <row r="10" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
         <v>37</v>
       </c>
@@ -1443,7 +3109,7 @@
         <v>4.0731546354628598</v>
       </c>
     </row>
-    <row r="11" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
         <v>38</v>
       </c>
@@ -1487,7 +3153,7 @@
         <v>1.0489593672989299</v>
       </c>
     </row>
-    <row r="12" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
         <v>39</v>
       </c>
@@ -1531,7 +3197,7 @@
         <v>21.697769912597298</v>
       </c>
     </row>
-    <row r="13" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
         <v>40</v>
       </c>
@@ -1575,7 +3241,7 @@
         <v>44.392183528494002</v>
       </c>
     </row>
-    <row r="14" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
         <v>41</v>
       </c>
@@ -1619,7 +3285,7 @@
         <v>6.2759047843803897</v>
       </c>
     </row>
-    <row r="15" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="s">
         <v>42</v>
       </c>
@@ -1663,7 +3329,7 @@
         <v>36.180997609233202</v>
       </c>
     </row>
-    <row r="16" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="5" t="s">
         <v>43</v>
       </c>
@@ -1707,7 +3373,7 @@
         <v>10.8943136391716</v>
       </c>
     </row>
-    <row r="17" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
         <v>44</v>
       </c>
@@ -1751,7 +3417,7 @@
         <v>25.564585640505999</v>
       </c>
     </row>
-    <row r="18" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="s">
         <v>45</v>
       </c>
@@ -1795,7 +3461,7 @@
         <v>4.8580431612366501</v>
       </c>
     </row>
-    <row r="19" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="5" t="s">
         <v>46</v>
       </c>
@@ -1839,7 +3505,7 @@
         <v>81.462049960467297</v>
       </c>
     </row>
-    <row r="20" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="5" t="s">
         <v>47</v>
       </c>
@@ -1883,7 +3549,7 @@
         <v>44.516168703418401</v>
       </c>
     </row>
-    <row r="21" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="5" t="s">
         <v>48</v>
       </c>
@@ -1927,7 +3593,7 @@
         <v>4.3595726710144698</v>
       </c>
     </row>
-    <row r="22" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="5" t="s">
         <v>49</v>
       </c>
@@ -1971,7 +3637,7 @@
         <v>1.28901481136582</v>
       </c>
     </row>
-    <row r="23" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="5" t="s">
         <v>50</v>
       </c>
@@ -2015,7 +3681,7 @@
         <v>11.4298042889105</v>
       </c>
     </row>
-    <row r="24" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="5" t="s">
         <v>51</v>
       </c>
@@ -2059,7 +3725,7 @@
         <v>19.630850359880402</v>
       </c>
     </row>
-    <row r="25" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="5" t="s">
         <v>52</v>
       </c>
@@ -2103,7 +3769,7 @@
         <v>1.6106276372414901</v>
       </c>
     </row>
-    <row r="26" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="5" t="s">
         <v>53</v>
       </c>
@@ -2147,7 +3813,7 @@
         <v>6.22967225031989</v>
       </c>
     </row>
-    <row r="27" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="5" t="s">
         <v>54</v>
       </c>
@@ -2191,7 +3857,7 @@
         <v>23.5822013118378</v>
       </c>
     </row>
-    <row r="28" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="5" t="s">
         <v>55</v>
       </c>
@@ -2235,7 +3901,7 @@
         <v>45.8732587076138</v>
       </c>
     </row>
-    <row r="30" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30"/>
       <c r="B30"/>
       <c r="C30"/>
@@ -2251,7 +3917,7 @@
       <c r="M30"/>
       <c r="N30"/>
     </row>
-    <row r="31" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="11" t="s">
         <v>58</v>
       </c>
@@ -2268,27 +3934,27 @@
       <c r="L31" s="11"/>
       <c r="M31" s="11"/>
     </row>
-    <row r="32" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="12" t="s">
+    <row r="32" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="B32" s="14" t="s">
+      <c r="B32" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="C32" s="15"/>
-      <c r="D32" s="15"/>
-      <c r="E32" s="15"/>
-      <c r="F32" s="15"/>
-      <c r="G32" s="15"/>
-      <c r="H32" s="15"/>
-      <c r="I32" s="15"/>
-      <c r="J32" s="15"/>
-      <c r="K32" s="15"/>
-      <c r="L32" s="15"/>
-      <c r="M32" s="16"/>
-    </row>
-    <row r="33" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="13"/>
+      <c r="C32" s="14"/>
+      <c r="D32" s="14"/>
+      <c r="E32" s="14"/>
+      <c r="F32" s="14"/>
+      <c r="G32" s="14"/>
+      <c r="H32" s="14"/>
+      <c r="I32" s="14"/>
+      <c r="J32" s="14"/>
+      <c r="K32" s="14"/>
+      <c r="L32" s="14"/>
+      <c r="M32" s="15"/>
+    </row>
+    <row r="33" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="17"/>
       <c r="B33" s="4" t="s">
         <v>19</v>
       </c>
@@ -2326,7 +3992,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="34" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="5" t="s">
         <v>31</v>
       </c>
@@ -2370,7 +4036,7 @@
         <v>11.900989976068299</v>
       </c>
     </row>
-    <row r="35" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="5" t="s">
         <v>32</v>
       </c>
@@ -2414,7 +4080,7 @@
         <v>0.185477273165568</v>
       </c>
     </row>
-    <row r="36" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="5" t="s">
         <v>33</v>
       </c>
@@ -2458,7 +4124,7 @@
         <v>15.634794543169001</v>
       </c>
     </row>
-    <row r="37" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="5" t="s">
         <v>34</v>
       </c>
@@ -2502,7 +4168,7 @@
         <v>12.2295481022767</v>
       </c>
     </row>
-    <row r="38" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="5" t="s">
         <v>35</v>
       </c>
@@ -2546,7 +4212,7 @@
         <v>151.78875325513999</v>
       </c>
     </row>
-    <row r="39" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="5" t="s">
         <v>36</v>
       </c>
@@ -2590,7 +4256,7 @@
         <v>0.168002863423833</v>
       </c>
     </row>
-    <row r="40" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="5" t="s">
         <v>37</v>
       </c>
@@ -2634,7 +4300,7 @@
         <v>6.2802046576431003</v>
       </c>
     </row>
-    <row r="41" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="5" t="s">
         <v>38</v>
       </c>
@@ -2678,7 +4344,7 @@
         <v>1.7261968078207099</v>
       </c>
     </row>
-    <row r="42" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="5" t="s">
         <v>39</v>
       </c>
@@ -2722,7 +4388,7 @@
         <v>33.8156809380162</v>
       </c>
     </row>
-    <row r="43" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="5" t="s">
         <v>40</v>
       </c>
@@ -2766,7 +4432,7 @@
         <v>58.589571322870597</v>
       </c>
     </row>
-    <row r="44" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="5" t="s">
         <v>41</v>
       </c>
@@ -2810,7 +4476,7 @@
         <v>9.3576062971268907</v>
       </c>
     </row>
-    <row r="45" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="5" t="s">
         <v>42</v>
       </c>
@@ -2854,7 +4520,7 @@
         <v>51.921203351673803</v>
       </c>
     </row>
-    <row r="46" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="5" t="s">
         <v>43</v>
       </c>
@@ -2898,7 +4564,7 @@
         <v>17.925474103376001</v>
       </c>
     </row>
-    <row r="47" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="5" t="s">
         <v>44</v>
       </c>
@@ -2942,7 +4608,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="5" t="s">
         <v>45</v>
       </c>
@@ -2986,7 +4652,7 @@
         <v>8.7016010815472402</v>
       </c>
     </row>
-    <row r="49" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="5" t="s">
         <v>46</v>
       </c>
@@ -3030,7 +4696,7 @@
         <v>107.512047072138</v>
       </c>
     </row>
-    <row r="50" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="5" t="s">
         <v>47</v>
       </c>
@@ -3074,7 +4740,7 @@
         <v>73.963327223912302</v>
       </c>
     </row>
-    <row r="51" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="5" t="s">
         <v>48</v>
       </c>
@@ -3118,7 +4784,7 @@
         <v>7.5659564653217801</v>
       </c>
     </row>
-    <row r="52" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="5" t="s">
         <v>49</v>
       </c>
@@ -3162,7 +4828,7 @@
         <v>2.3682723467824598</v>
       </c>
     </row>
-    <row r="53" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="5" t="s">
         <v>50</v>
       </c>
@@ -3206,7 +4872,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="5" t="s">
         <v>51</v>
       </c>
@@ -3250,7 +4916,7 @@
         <v>32.478453371548603</v>
       </c>
     </row>
-    <row r="55" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="5" t="s">
         <v>52</v>
       </c>
@@ -3294,7 +4960,7 @@
         <v>2.64033581888381</v>
       </c>
     </row>
-    <row r="56" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="5" t="s">
         <v>53</v>
       </c>
@@ -3338,7 +5004,7 @@
         <v>11.046063988098201</v>
       </c>
     </row>
-    <row r="57" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="5" t="s">
         <v>54</v>
       </c>
@@ -3382,7 +5048,7 @@
         <v>39.1533929920706</v>
       </c>
     </row>
-    <row r="58" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="5" t="s">
         <v>55</v>
       </c>
@@ -3426,7 +5092,7 @@
         <v>64.550606103073903</v>
       </c>
     </row>
-    <row r="62" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="11" t="s">
         <v>57</v>
       </c>
@@ -3444,28 +5110,28 @@
       <c r="M62" s="11"/>
       <c r="N62"/>
     </row>
-    <row r="63" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A63" s="10" t="s">
+    <row r="63" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A63" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="B63" s="10" t="s">
+      <c r="B63" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="C63" s="10"/>
-      <c r="D63" s="10"/>
-      <c r="E63" s="10"/>
-      <c r="F63" s="10"/>
-      <c r="G63" s="10"/>
-      <c r="H63" s="10"/>
-      <c r="I63" s="10"/>
-      <c r="J63" s="10"/>
-      <c r="K63" s="10"/>
-      <c r="L63" s="10"/>
-      <c r="M63" s="10"/>
+      <c r="C63" s="12"/>
+      <c r="D63" s="12"/>
+      <c r="E63" s="12"/>
+      <c r="F63" s="12"/>
+      <c r="G63" s="12"/>
+      <c r="H63" s="12"/>
+      <c r="I63" s="12"/>
+      <c r="J63" s="12"/>
+      <c r="K63" s="12"/>
+      <c r="L63" s="12"/>
+      <c r="M63" s="12"/>
       <c r="N63"/>
     </row>
-    <row r="64" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A64" s="10"/>
+    <row r="64" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A64" s="12"/>
       <c r="B64" s="4" t="s">
         <v>19</v>
       </c>
@@ -3504,7 +5170,7 @@
       </c>
       <c r="N64"/>
     </row>
-    <row r="65" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="5" t="s">
         <v>31</v>
       </c>
@@ -3548,7 +5214,7 @@
         <v>18.902373150662399</v>
       </c>
     </row>
-    <row r="66" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="5" t="s">
         <v>32</v>
       </c>
@@ -3592,7 +5258,7 @@
         <v>0.28164480341106002</v>
       </c>
     </row>
-    <row r="67" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="5" t="s">
         <v>33</v>
       </c>
@@ -3636,7 +5302,7 @@
         <v>16.6952330574182</v>
       </c>
     </row>
-    <row r="68" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="5" t="s">
         <v>34</v>
       </c>
@@ -3680,7 +5346,7 @@
         <v>16.988425347471001</v>
       </c>
     </row>
-    <row r="69" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="5" t="s">
         <v>35</v>
       </c>
@@ -3724,7 +5390,7 @@
         <v>152.42780783603601</v>
       </c>
     </row>
-    <row r="70" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="5" t="s">
         <v>36</v>
       </c>
@@ -3768,7 +5434,7 @@
         <v>0.182161757414254</v>
       </c>
     </row>
-    <row r="71" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="5" t="s">
         <v>37</v>
       </c>
@@ -3812,7 +5478,7 @@
         <v>6.7902165580880096</v>
       </c>
     </row>
-    <row r="72" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="5" t="s">
         <v>38</v>
       </c>
@@ -3856,7 +5522,7 @@
         <v>1.9689089391602399</v>
       </c>
     </row>
-    <row r="73" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="5" t="s">
         <v>39</v>
       </c>
@@ -3900,7 +5566,7 @@
         <v>33.850253178713103</v>
       </c>
     </row>
-    <row r="74" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="5" t="s">
         <v>40</v>
       </c>
@@ -3944,7 +5610,7 @@
         <v>73.766338166372094</v>
       </c>
     </row>
-    <row r="75" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="5" t="s">
         <v>41</v>
       </c>
@@ -3988,7 +5654,7 @@
         <v>9.3671462326525994</v>
       </c>
     </row>
-    <row r="76" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="5" t="s">
         <v>42</v>
       </c>
@@ -4032,7 +5698,7 @@
         <v>53.704814356571603</v>
       </c>
     </row>
-    <row r="77" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="5" t="s">
         <v>43</v>
       </c>
@@ -4076,7 +5742,7 @@
         <v>19.197586534939798</v>
       </c>
     </row>
-    <row r="78" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="5" t="s">
         <v>44</v>
       </c>
@@ -4120,7 +5786,7 @@
         <v>38.150571581775601</v>
       </c>
     </row>
-    <row r="79" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="5" t="s">
         <v>45</v>
       </c>
@@ -4164,7 +5830,7 @@
         <v>9.9696220479731892</v>
       </c>
     </row>
-    <row r="80" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="5" t="s">
         <v>46</v>
       </c>
@@ -4208,7 +5874,7 @@
         <v>133.09747899476301</v>
       </c>
     </row>
-    <row r="81" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" s="5" t="s">
         <v>47</v>
       </c>
@@ -4252,7 +5918,7 @@
         <v>77.019427079225295</v>
       </c>
     </row>
-    <row r="82" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" s="5" t="s">
         <v>48</v>
       </c>
@@ -4296,7 +5962,7 @@
         <v>7.7482842565245802</v>
       </c>
     </row>
-    <row r="83" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="5" t="s">
         <v>49</v>
       </c>
@@ -4340,7 +6006,7 @@
         <v>2.88889484924964</v>
       </c>
     </row>
-    <row r="84" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="5" t="s">
         <v>50</v>
       </c>
@@ -4384,7 +6050,7 @@
         <v>18.657794121339101</v>
       </c>
     </row>
-    <row r="85" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" s="5" t="s">
         <v>51</v>
       </c>
@@ -4428,7 +6094,7 @@
         <v>33.964103867277302</v>
       </c>
     </row>
-    <row r="86" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A86" s="5" t="s">
         <v>52</v>
       </c>
@@ -4472,7 +6138,7 @@
         <v>3.62933000981202</v>
       </c>
     </row>
-    <row r="87" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A87" s="5" t="s">
         <v>53</v>
       </c>
@@ -4516,7 +6182,7 @@
         <v>11.283039883543101</v>
       </c>
     </row>
-    <row r="88" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A88" s="5" t="s">
         <v>54</v>
       </c>
@@ -4560,7 +6226,7 @@
         <v>42.414693110653403</v>
       </c>
     </row>
-    <row r="89" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" s="5" t="s">
         <v>55</v>
       </c>
@@ -4604,7 +6270,7 @@
         <v>67.159241287165003</v>
       </c>
     </row>
-    <row r="90" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A90"/>
       <c r="B90"/>
       <c r="C90"/>
@@ -4620,7 +6286,7 @@
       <c r="M90"/>
       <c r="N90"/>
     </row>
-    <row r="91" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A91"/>
       <c r="B91"/>
       <c r="C91"/>
@@ -4636,7 +6302,7 @@
       <c r="M91"/>
       <c r="N91"/>
     </row>
-    <row r="92" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A92" s="11" t="s">
         <v>61</v>
       </c>
@@ -4654,28 +6320,28 @@
       <c r="M92" s="11"/>
       <c r="N92"/>
     </row>
-    <row r="93" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A93" s="10" t="s">
+    <row r="93" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A93" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="B93" s="10" t="s">
+      <c r="B93" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="C93" s="10"/>
-      <c r="D93" s="10"/>
-      <c r="E93" s="10"/>
-      <c r="F93" s="10"/>
-      <c r="G93" s="10"/>
-      <c r="H93" s="10"/>
-      <c r="I93" s="10"/>
-      <c r="J93" s="10"/>
-      <c r="K93" s="10"/>
-      <c r="L93" s="10"/>
-      <c r="M93" s="10"/>
+      <c r="C93" s="12"/>
+      <c r="D93" s="12"/>
+      <c r="E93" s="12"/>
+      <c r="F93" s="12"/>
+      <c r="G93" s="12"/>
+      <c r="H93" s="12"/>
+      <c r="I93" s="12"/>
+      <c r="J93" s="12"/>
+      <c r="K93" s="12"/>
+      <c r="L93" s="12"/>
+      <c r="M93" s="12"/>
       <c r="N93"/>
     </row>
-    <row r="94" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A94" s="10"/>
+    <row r="94" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A94" s="12"/>
       <c r="B94" s="4" t="s">
         <v>19</v>
       </c>
@@ -4714,7 +6380,7 @@
       </c>
       <c r="N94"/>
     </row>
-    <row r="95" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A95" s="5" t="s">
         <v>31</v>
       </c>
@@ -4758,7 +6424,7 @@
         <v>16.567337498382798</v>
       </c>
     </row>
-    <row r="96" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A96" s="5" t="s">
         <v>32</v>
       </c>
@@ -4802,7 +6468,7 @@
         <v>0.231082570590223</v>
       </c>
     </row>
-    <row r="97" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A97" s="5" t="s">
         <v>33</v>
       </c>
@@ -4846,7 +6512,7 @@
         <v>16.023461831328301</v>
       </c>
     </row>
-    <row r="98" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A98" s="5" t="s">
         <v>34</v>
       </c>
@@ -4890,7 +6556,7 @@
         <v>16.968221756501102</v>
       </c>
     </row>
-    <row r="99" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A99" s="5" t="s">
         <v>35</v>
       </c>
@@ -4934,7 +6600,7 @@
         <v>129.91027804365601</v>
       </c>
     </row>
-    <row r="100" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A100" s="5" t="s">
         <v>36</v>
       </c>
@@ -4978,7 +6644,7 @@
         <v>0.14277302601342801</v>
       </c>
     </row>
-    <row r="101" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A101" s="5" t="s">
         <v>37</v>
       </c>
@@ -5022,7 +6688,7 @@
         <v>5.6039038502843903</v>
       </c>
     </row>
-    <row r="102" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A102" s="5" t="s">
         <v>38</v>
       </c>
@@ -5066,7 +6732,7 @@
         <v>1.55414970612749</v>
       </c>
     </row>
-    <row r="103" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A103" s="5" t="s">
         <v>39</v>
       </c>
@@ -5110,7 +6776,7 @@
         <v>30.005222237933101</v>
       </c>
     </row>
-    <row r="104" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A104" s="5" t="s">
         <v>40</v>
       </c>
@@ -5154,7 +6820,7 @@
         <v>61.197655194471501</v>
       </c>
     </row>
-    <row r="105" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A105" s="5" t="s">
         <v>41</v>
       </c>
@@ -5198,7 +6864,7 @@
         <v>8.6342566799135891</v>
       </c>
     </row>
-    <row r="106" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A106" s="5" t="s">
         <v>42</v>
       </c>
@@ -5242,7 +6908,7 @@
         <v>49.890630080703303</v>
       </c>
     </row>
-    <row r="107" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A107" s="5" t="s">
         <v>43</v>
       </c>
@@ -5286,7 +6952,7 @@
         <v>15.118922223954099</v>
       </c>
     </row>
-    <row r="108" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A108" s="5" t="s">
         <v>44</v>
       </c>
@@ -5330,7 +6996,7 @@
         <v>35.167799058533703</v>
       </c>
     </row>
-    <row r="109" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A109" s="5" t="s">
         <v>45</v>
       </c>
@@ -5374,7 +7040,7 @@
         <v>7.9893567719332701</v>
       </c>
     </row>
-    <row r="110" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A110" s="5" t="s">
         <v>46</v>
       </c>
@@ -5418,7 +7084,7 @@
         <v>112.975697256668</v>
       </c>
     </row>
-    <row r="111" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A111" s="5" t="s">
         <v>47</v>
       </c>
@@ -5462,7 +7128,7 @@
         <v>64.158257339076201</v>
       </c>
     </row>
-    <row r="112" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A112" s="5" t="s">
         <v>48</v>
       </c>
@@ -5506,7 +7172,7 @@
         <v>6.30219776553204</v>
       </c>
     </row>
-    <row r="113" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A113" s="5" t="s">
         <v>49</v>
       </c>
@@ -5550,7 +7216,7 @@
         <v>2.57555011030581</v>
       </c>
     </row>
-    <row r="114" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A114" s="5" t="s">
         <v>50</v>
       </c>
@@ -5594,7 +7260,7 @@
         <v>15.723471842409801</v>
       </c>
     </row>
-    <row r="115" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A115" s="5" t="s">
         <v>51</v>
       </c>
@@ -5638,7 +7304,7 @@
         <v>27.570380829486702</v>
       </c>
     </row>
-    <row r="116" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A116" s="5" t="s">
         <v>52</v>
       </c>
@@ -5682,7 +7348,7 @@
         <v>2.89638158825464</v>
       </c>
     </row>
-    <row r="117" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A117" s="5" t="s">
         <v>53</v>
       </c>
@@ -5726,7 +7392,7 @@
         <v>9.1071735728211198</v>
       </c>
     </row>
-    <row r="118" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A118" s="5" t="s">
         <v>54</v>
       </c>
@@ -5770,7 +7436,7 @@
         <v>32.848093469362702</v>
       </c>
     </row>
-    <row r="119" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A119" s="5" t="s">
         <v>55</v>
       </c>
@@ -5814,7 +7480,7 @@
         <v>63.513777668380001</v>
       </c>
     </row>
-    <row r="122" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A122" s="11" t="s">
         <v>62</v>
       </c>
@@ -5832,28 +7498,28 @@
       <c r="M122" s="11"/>
       <c r="N122"/>
     </row>
-    <row r="123" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A123" s="10" t="s">
+    <row r="123" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A123" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="B123" s="10" t="s">
+      <c r="B123" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="C123" s="10"/>
-      <c r="D123" s="10"/>
-      <c r="E123" s="10"/>
-      <c r="F123" s="10"/>
-      <c r="G123" s="10"/>
-      <c r="H123" s="10"/>
-      <c r="I123" s="10"/>
-      <c r="J123" s="10"/>
-      <c r="K123" s="10"/>
-      <c r="L123" s="10"/>
-      <c r="M123" s="10"/>
+      <c r="C123" s="12"/>
+      <c r="D123" s="12"/>
+      <c r="E123" s="12"/>
+      <c r="F123" s="12"/>
+      <c r="G123" s="12"/>
+      <c r="H123" s="12"/>
+      <c r="I123" s="12"/>
+      <c r="J123" s="12"/>
+      <c r="K123" s="12"/>
+      <c r="L123" s="12"/>
+      <c r="M123" s="12"/>
       <c r="N123"/>
     </row>
-    <row r="124" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A124" s="10"/>
+    <row r="124" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A124" s="12"/>
       <c r="B124" s="4" t="s">
         <v>19</v>
       </c>
@@ -5892,7 +7558,7 @@
       </c>
       <c r="N124"/>
     </row>
-    <row r="125" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A125" s="5" t="s">
         <v>31</v>
       </c>
@@ -5936,7 +7602,7 @@
         <v>14.6791870096307</v>
       </c>
     </row>
-    <row r="126" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A126" s="5" t="s">
         <v>32</v>
       </c>
@@ -5980,7 +7646,7 @@
         <v>0.213605654665869</v>
       </c>
     </row>
-    <row r="127" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A127" s="5" t="s">
         <v>33</v>
       </c>
@@ -6024,7 +7690,7 @@
         <v>14.2387006668241</v>
       </c>
     </row>
-    <row r="128" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A128" s="5" t="s">
         <v>34</v>
       </c>
@@ -6068,7 +7734,7 @@
         <v>15.0547911019683</v>
       </c>
     </row>
-    <row r="129" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A129" s="5" t="s">
         <v>35</v>
       </c>
@@ -6112,7 +7778,7 @@
         <v>115.33815245069</v>
       </c>
     </row>
-    <row r="130" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A130" s="5" t="s">
         <v>36</v>
       </c>
@@ -6156,7 +7822,7 @@
         <v>0.128723765502507</v>
       </c>
     </row>
-    <row r="131" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A131" s="5" t="s">
         <v>37</v>
       </c>
@@ -6200,7 +7866,7 @@
         <v>5.01317442107581</v>
       </c>
     </row>
-    <row r="132" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A132" s="5" t="s">
         <v>38</v>
       </c>
@@ -6244,7 +7910,7 @@
         <v>1.43660561162567</v>
       </c>
     </row>
-    <row r="133" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A133" s="5" t="s">
         <v>39</v>
       </c>
@@ -6288,7 +7954,7 @@
         <v>26.641198629804101</v>
       </c>
     </row>
-    <row r="134" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A134" s="5" t="s">
         <v>40</v>
       </c>
@@ -6332,7 +7998,7 @@
         <v>54.348727389714803</v>
       </c>
     </row>
-    <row r="135" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A135" s="5" t="s">
         <v>41</v>
       </c>
@@ -6376,7 +8042,7 @@
         <v>7.6723322153644098</v>
       </c>
     </row>
-    <row r="136" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A136" s="5" t="s">
         <v>42</v>
       </c>
@@ -6420,7 +8086,7 @@
         <v>44.313214078885899</v>
       </c>
     </row>
-    <row r="137" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A137" s="5" t="s">
         <v>43</v>
       </c>
@@ -6464,7 +8130,7 @@
         <v>13.395456456487199</v>
       </c>
     </row>
-    <row r="138" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A138" s="5" t="s">
         <v>44</v>
       </c>
@@ -6508,7 +8174,7 @@
         <v>31.251173192906599</v>
       </c>
     </row>
-    <row r="139" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A139" s="5" t="s">
         <v>45</v>
       </c>
@@ -6552,7 +8218,7 @@
         <v>7.3850004686119499</v>
       </c>
     </row>
-    <row r="140" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A140" s="5" t="s">
         <v>46</v>
       </c>
@@ -6596,7 +8262,7 @@
         <v>100.14780858015099</v>
       </c>
     </row>
-    <row r="141" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A141" s="5" t="s">
         <v>47</v>
       </c>
@@ -6640,7 +8306,7 @@
         <v>56.5686613704979</v>
       </c>
     </row>
-    <row r="142" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A142" s="5" t="s">
         <v>48</v>
       </c>
@@ -6684,7 +8350,7 @@
         <v>5.5573401754625902</v>
       </c>
     </row>
-    <row r="143" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A143" s="5" t="s">
         <v>49</v>
       </c>
@@ -6728,7 +8394,7 @@
         <v>2.3807553211351902</v>
       </c>
     </row>
-    <row r="144" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A144" s="5" t="s">
         <v>50</v>
       </c>
@@ -6772,7 +8438,7 @@
         <v>13.972301579022099</v>
       </c>
     </row>
-    <row r="145" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A145" s="5" t="s">
         <v>51</v>
       </c>
@@ -6816,7 +8482,7 @@
         <v>24.387245286014</v>
       </c>
     </row>
-    <row r="146" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A146" s="5" t="s">
         <v>52</v>
       </c>
@@ -6860,7 +8526,7 @@
         <v>2.6772001438852899</v>
       </c>
     </row>
-    <row r="147" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A147" s="5" t="s">
         <v>53</v>
       </c>
@@ -6904,7 +8570,7 @@
         <v>8.0305028406385901</v>
       </c>
     </row>
-    <row r="148" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A148" s="5" t="s">
         <v>54</v>
       </c>
@@ -6948,7 +8614,7 @@
         <v>29.297621491916502</v>
       </c>
     </row>
-    <row r="149" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A149" s="5" t="s">
         <v>55</v>
       </c>
@@ -6992,7 +8658,7 @@
         <v>56.356790661194601</v>
       </c>
     </row>
-    <row r="153" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A153" s="11" t="s">
         <v>59</v>
       </c>
@@ -7010,28 +8676,28 @@
       <c r="M153" s="11"/>
       <c r="N153"/>
     </row>
-    <row r="154" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A154" s="10" t="s">
+    <row r="154" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A154" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="B154" s="10" t="s">
+      <c r="B154" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="C154" s="10"/>
-      <c r="D154" s="10"/>
-      <c r="E154" s="10"/>
-      <c r="F154" s="10"/>
-      <c r="G154" s="10"/>
-      <c r="H154" s="10"/>
-      <c r="I154" s="10"/>
-      <c r="J154" s="10"/>
-      <c r="K154" s="10"/>
-      <c r="L154" s="10"/>
-      <c r="M154" s="10"/>
+      <c r="C154" s="12"/>
+      <c r="D154" s="12"/>
+      <c r="E154" s="12"/>
+      <c r="F154" s="12"/>
+      <c r="G154" s="12"/>
+      <c r="H154" s="12"/>
+      <c r="I154" s="12"/>
+      <c r="J154" s="12"/>
+      <c r="K154" s="12"/>
+      <c r="L154" s="12"/>
+      <c r="M154" s="12"/>
       <c r="N154"/>
     </row>
-    <row r="155" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A155" s="10"/>
+    <row r="155" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A155" s="12"/>
       <c r="B155" s="4" t="s">
         <v>19</v>
       </c>
@@ -7070,7 +8736,7 @@
       </c>
       <c r="N155"/>
     </row>
-    <row r="156" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A156" s="5" t="s">
         <v>31</v>
       </c>
@@ -7114,7 +8780,7 @@
         <v>22.058195790377201</v>
       </c>
     </row>
-    <row r="157" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A157" s="5" t="s">
         <v>32</v>
       </c>
@@ -7158,7 +8824,7 @@
         <v>0.30264703755407901</v>
       </c>
     </row>
-    <row r="158" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A158" s="5" t="s">
         <v>33</v>
       </c>
@@ -7202,7 +8868,7 @@
         <v>21.514599851672699</v>
       </c>
     </row>
-    <row r="159" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A159" s="5" t="s">
         <v>34</v>
       </c>
@@ -7246,7 +8912,7 @@
         <v>22.719005612689099</v>
       </c>
     </row>
-    <row r="160" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A160" s="5" t="s">
         <v>35</v>
       </c>
@@ -7290,7 +8956,7 @@
         <v>173.098515517306</v>
       </c>
     </row>
-    <row r="161" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A161" s="5" t="s">
         <v>36</v>
       </c>
@@ -7334,7 +9000,7 @@
         <v>0.20530583357393101</v>
       </c>
     </row>
-    <row r="162" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A162" s="5" t="s">
         <v>37</v>
       </c>
@@ -7378,7 +9044,7 @@
         <v>8.0069282149321808</v>
       </c>
     </row>
-    <row r="163" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A163" s="5" t="s">
         <v>38</v>
       </c>
@@ -7422,7 +9088,7 @@
         <v>2.2243488933572899</v>
       </c>
     </row>
-    <row r="164" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A164" s="5" t="s">
         <v>39</v>
       </c>
@@ -7466,7 +9132,7 @@
         <v>40.2142679086462</v>
       </c>
     </row>
-    <row r="165" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A165" s="5" t="s">
         <v>40</v>
       </c>
@@ -7510,7 +9176,7 @@
         <v>81.463266979804999</v>
       </c>
     </row>
-    <row r="166" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A166" s="5" t="s">
         <v>41</v>
       </c>
@@ -7554,7 +9220,7 @@
         <v>11.5406645212969</v>
       </c>
     </row>
-    <row r="167" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A167" s="5" t="s">
         <v>42</v>
       </c>
@@ -7598,7 +9264,7 @@
         <v>67.227853849100299</v>
       </c>
     </row>
-    <row r="168" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A168" s="5" t="s">
         <v>43</v>
       </c>
@@ -7642,7 +9308,7 @@
         <v>21.445106023395201</v>
       </c>
     </row>
-    <row r="169" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A169" s="5" t="s">
         <v>44</v>
       </c>
@@ -7686,7 +9352,7 @@
         <v>47.341875142050696</v>
       </c>
     </row>
-    <row r="170" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A170" s="5" t="s">
         <v>45</v>
       </c>
@@ -7730,7 +9396,7 @@
         <v>11.243551983805199</v>
       </c>
     </row>
-    <row r="171" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A171" s="5" t="s">
         <v>46</v>
       </c>
@@ -7774,7 +9440,7 @@
         <v>149.95202017679799</v>
       </c>
     </row>
-    <row r="172" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A172" s="5" t="s">
         <v>47</v>
       </c>
@@ -7818,7 +9484,7 @@
         <v>86.204572453926104</v>
       </c>
     </row>
-    <row r="173" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A173" s="5" t="s">
         <v>48</v>
       </c>
@@ -7862,7 +9528,7 @@
         <v>8.6158465719683992</v>
       </c>
     </row>
-    <row r="174" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A174" s="5" t="s">
         <v>49</v>
       </c>
@@ -7906,7 +9572,7 @@
         <v>3.5847858817346898</v>
       </c>
     </row>
-    <row r="175" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A175" s="5" t="s">
         <v>50</v>
       </c>
@@ -7950,7 +9616,7 @@
         <v>20.783650056315601</v>
       </c>
     </row>
-    <row r="176" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A176" s="5" t="s">
         <v>51</v>
       </c>
@@ -7994,7 +9660,7 @@
         <v>38.513261837647498</v>
       </c>
     </row>
-    <row r="177" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A177" s="5" t="s">
         <v>52</v>
       </c>
@@ -8038,7 +9704,7 @@
         <v>4.0105675855552096</v>
       </c>
     </row>
-    <row r="178" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A178" s="5" t="s">
         <v>53</v>
       </c>
@@ -8082,7 +9748,7 @@
         <v>12.366209228312901</v>
       </c>
     </row>
-    <row r="179" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A179" s="5" t="s">
         <v>54</v>
       </c>
@@ -8126,7 +9792,7 @@
         <v>46.824411941565799</v>
       </c>
     </row>
-    <row r="180" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A180" s="5" t="s">
         <v>55</v>
       </c>
@@ -8170,7 +9836,7 @@
         <v>84.320847655563</v>
       </c>
     </row>
-    <row r="183" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A183" s="11" t="s">
         <v>60</v>
       </c>
@@ -8188,28 +9854,28 @@
       <c r="M183" s="11"/>
       <c r="N183"/>
     </row>
-    <row r="184" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A184" s="10" t="s">
+    <row r="184" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A184" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="B184" s="10" t="s">
+      <c r="B184" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="C184" s="10"/>
-      <c r="D184" s="10"/>
-      <c r="E184" s="10"/>
-      <c r="F184" s="10"/>
-      <c r="G184" s="10"/>
-      <c r="H184" s="10"/>
-      <c r="I184" s="10"/>
-      <c r="J184" s="10"/>
-      <c r="K184" s="10"/>
-      <c r="L184" s="10"/>
-      <c r="M184" s="10"/>
+      <c r="C184" s="12"/>
+      <c r="D184" s="12"/>
+      <c r="E184" s="12"/>
+      <c r="F184" s="12"/>
+      <c r="G184" s="12"/>
+      <c r="H184" s="12"/>
+      <c r="I184" s="12"/>
+      <c r="J184" s="12"/>
+      <c r="K184" s="12"/>
+      <c r="L184" s="12"/>
+      <c r="M184" s="12"/>
       <c r="N184"/>
     </row>
-    <row r="185" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A185" s="10"/>
+    <row r="185" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A185" s="12"/>
       <c r="B185" s="4" t="s">
         <v>19</v>
       </c>
@@ -8248,7 +9914,7 @@
       </c>
       <c r="N185"/>
     </row>
-    <row r="186" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A186" s="5" t="s">
         <v>31</v>
       </c>
@@ -8292,7 +9958,7 @@
         <v>21.8880113624949</v>
       </c>
     </row>
-    <row r="187" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A187" s="5" t="s">
         <v>32</v>
       </c>
@@ -8336,7 +10002,7 @@
         <v>0.27742865634421199</v>
       </c>
     </row>
-    <row r="188" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A188" s="5" t="s">
         <v>33</v>
       </c>
@@ -8380,7 +10046,7 @@
         <v>21.241933946855099</v>
       </c>
     </row>
-    <row r="189" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A189" s="5" t="s">
         <v>34</v>
       </c>
@@ -8424,7 +10090,7 @@
         <v>22.479243667338</v>
       </c>
     </row>
-    <row r="190" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A190" s="5" t="s">
         <v>35</v>
       </c>
@@ -8468,7 +10134,7 @@
         <v>171.617437864832</v>
       </c>
     </row>
-    <row r="191" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A191" s="5" t="s">
         <v>36</v>
       </c>
@@ -8512,7 +10178,7 @@
         <v>0.19724030237390699</v>
       </c>
     </row>
-    <row r="192" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A192" s="5" t="s">
         <v>37</v>
       </c>
@@ -8556,7 +10222,7 @@
         <v>7.6974785439546203</v>
       </c>
     </row>
-    <row r="193" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A193" s="5" t="s">
         <v>38</v>
       </c>
@@ -8600,7 +10266,7 @@
         <v>2.0937053262220999</v>
       </c>
     </row>
-    <row r="194" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A194" s="5" t="s">
         <v>39</v>
       </c>
@@ -8644,7 +10310,7 @@
         <v>39.750289748753097</v>
       </c>
     </row>
-    <row r="195" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A195" s="5" t="s">
         <v>40</v>
       </c>
@@ -8688,7 +10354,7 @@
         <v>80.819339381254693</v>
       </c>
     </row>
-    <row r="196" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A196" s="5" t="s">
         <v>41</v>
       </c>
@@ -8732,7 +10398,7 @@
         <v>11.4212871493341</v>
       </c>
     </row>
-    <row r="197" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A197" s="5" t="s">
         <v>42</v>
       </c>
@@ -8776,7 +10442,7 @@
         <v>66.330557171680198</v>
       </c>
     </row>
-    <row r="198" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A198" s="5" t="s">
         <v>43</v>
       </c>
@@ -8820,7 +10486,7 @@
         <v>20.7091804408516</v>
       </c>
     </row>
-    <row r="199" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A199" s="5" t="s">
         <v>44</v>
       </c>
@@ -8864,7 +10530,7 @@
         <v>46.711404178688198</v>
       </c>
     </row>
-    <row r="200" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A200" s="5" t="s">
         <v>45</v>
       </c>
@@ -8908,7 +10574,7 @@
         <v>10.5587795364827</v>
       </c>
     </row>
-    <row r="201" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A201" s="5" t="s">
         <v>46</v>
       </c>
@@ -8952,7 +10618,7 @@
         <v>149.01263236439499</v>
       </c>
     </row>
-    <row r="202" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A202" s="5" t="s">
         <v>47</v>
       </c>
@@ -8996,7 +10662,7 @@
         <v>85.485390463978504</v>
       </c>
     </row>
-    <row r="203" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A203" s="5" t="s">
         <v>48</v>
       </c>
@@ -9040,7 +10706,7 @@
         <v>8.4779800577071107</v>
       </c>
     </row>
-    <row r="204" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A204" s="5" t="s">
         <v>49</v>
       </c>
@@ -9084,7 +10750,7 @@
         <v>3.29773843747641</v>
       </c>
     </row>
-    <row r="205" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A205" s="5" t="s">
         <v>50</v>
       </c>
@@ -9128,7 +10794,7 @@
         <v>20.672022247666501</v>
       </c>
     </row>
-    <row r="206" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A206" s="5" t="s">
         <v>51</v>
       </c>
@@ -9172,7 +10838,7 @@
         <v>37.543722883820102</v>
       </c>
     </row>
-    <row r="207" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A207" s="5" t="s">
         <v>52</v>
       </c>
@@ -9216,7 +10882,7 @@
         <v>3.6762112532272502</v>
       </c>
     </row>
-    <row r="208" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A208" s="5" t="s">
         <v>53</v>
       </c>
@@ -9260,7 +10926,7 @@
         <v>12.188716545582301</v>
       </c>
     </row>
-    <row r="209" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A209" s="5" t="s">
         <v>54</v>
       </c>
@@ -9304,7 +10970,7 @@
         <v>45.012683789845902</v>
       </c>
     </row>
-    <row r="210" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A210" s="5" t="s">
         <v>55</v>
       </c>
@@ -9348,27 +11014,27 @@
         <v>83.7686344219576</v>
       </c>
     </row>
-    <row r="222" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A222" s="10" t="s">
+    <row r="222" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A222" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="B222" s="14" t="s">
+      <c r="B222" s="13" t="s">
         <v>63</v>
       </c>
-      <c r="C222" s="15"/>
-      <c r="D222" s="15"/>
-      <c r="E222" s="15"/>
-      <c r="F222" s="15"/>
-      <c r="G222" s="15"/>
-      <c r="H222" s="16"/>
+      <c r="C222" s="14"/>
+      <c r="D222" s="14"/>
+      <c r="E222" s="14"/>
+      <c r="F222" s="14"/>
+      <c r="G222" s="14"/>
+      <c r="H222" s="15"/>
       <c r="I222"/>
       <c r="J222"/>
       <c r="K222"/>
       <c r="L222"/>
       <c r="M222"/>
     </row>
-    <row r="223" spans="1:14" ht="67.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A223" s="10"/>
+    <row r="223" spans="1:14" ht="67.900000000000006" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A223" s="12"/>
       <c r="B223" s="4" t="s">
         <v>56</v>
       </c>
@@ -9391,7 +11057,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="224" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A224" s="5" t="s">
         <v>31</v>
       </c>
@@ -9401,19 +11067,19 @@
       <c r="C224" s="7">
         <v>11.900989976068299</v>
       </c>
-      <c r="D224" s="17">
+      <c r="D224" s="10">
         <v>18.902373150662399</v>
       </c>
-      <c r="E224" s="17">
+      <c r="E224" s="10">
         <v>16.567337498382798</v>
       </c>
-      <c r="F224" s="17">
+      <c r="F224" s="10">
         <v>14.6791870096307</v>
       </c>
-      <c r="G224" s="17">
+      <c r="G224" s="10">
         <v>22.058195790377201</v>
       </c>
-      <c r="H224" s="17">
+      <c r="H224" s="10">
         <v>21.8880113624949</v>
       </c>
       <c r="I224" s="3">
@@ -9425,7 +11091,7 @@
         <v>7.0013831745940998</v>
       </c>
     </row>
-    <row r="225" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A225" s="5" t="s">
         <v>32</v>
       </c>
@@ -9435,23 +11101,23 @@
       <c r="C225" s="7">
         <v>0.185477273165568</v>
       </c>
-      <c r="D225" s="17">
+      <c r="D225" s="10">
         <v>0.28164480341106002</v>
       </c>
-      <c r="E225" s="17">
+      <c r="E225" s="10">
         <v>0.231082570590223</v>
       </c>
-      <c r="F225" s="17">
+      <c r="F225" s="10">
         <v>0.213605654665869</v>
       </c>
-      <c r="G225" s="17">
+      <c r="G225" s="10">
         <v>0.30264703755407901</v>
       </c>
-      <c r="H225" s="17">
+      <c r="H225" s="10">
         <v>0.27742865634421199</v>
       </c>
     </row>
-    <row r="226" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A226" s="5" t="s">
         <v>33</v>
       </c>
@@ -9461,23 +11127,23 @@
       <c r="C226" s="7">
         <v>15.634794543169001</v>
       </c>
-      <c r="D226" s="17">
+      <c r="D226" s="10">
         <v>16.6952330574182</v>
       </c>
-      <c r="E226" s="17">
+      <c r="E226" s="10">
         <v>16.023461831328301</v>
       </c>
-      <c r="F226" s="17">
+      <c r="F226" s="10">
         <v>14.2387006668241</v>
       </c>
-      <c r="G226" s="17">
+      <c r="G226" s="10">
         <v>21.514599851672699</v>
       </c>
-      <c r="H226" s="17">
+      <c r="H226" s="10">
         <v>21.241933946855099</v>
       </c>
     </row>
-    <row r="227" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A227" s="5" t="s">
         <v>34</v>
       </c>
@@ -9487,23 +11153,23 @@
       <c r="C227" s="7">
         <v>12.2295481022767</v>
       </c>
-      <c r="D227" s="17">
+      <c r="D227" s="10">
         <v>16.988425347471001</v>
       </c>
-      <c r="E227" s="17">
+      <c r="E227" s="10">
         <v>16.968221756501102</v>
       </c>
-      <c r="F227" s="17">
+      <c r="F227" s="10">
         <v>15.0547911019683</v>
       </c>
-      <c r="G227" s="17">
+      <c r="G227" s="10">
         <v>22.719005612689099</v>
       </c>
-      <c r="H227" s="17">
+      <c r="H227" s="10">
         <v>22.479243667338</v>
       </c>
     </row>
-    <row r="228" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A228" s="5" t="s">
         <v>35</v>
       </c>
@@ -9513,23 +11179,23 @@
       <c r="C228" s="7">
         <v>151.78875325513999</v>
       </c>
-      <c r="D228" s="17">
+      <c r="D228" s="10">
         <v>152.42780783603601</v>
       </c>
-      <c r="E228" s="17">
+      <c r="E228" s="10">
         <v>129.91027804365601</v>
       </c>
-      <c r="F228" s="17">
+      <c r="F228" s="10">
         <v>115.33815245069</v>
       </c>
-      <c r="G228" s="17">
+      <c r="G228" s="10">
         <v>173.098515517306</v>
       </c>
-      <c r="H228" s="17">
+      <c r="H228" s="10">
         <v>171.617437864832</v>
       </c>
     </row>
-    <row r="229" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A229" s="5" t="s">
         <v>36</v>
       </c>
@@ -9539,23 +11205,23 @@
       <c r="C229" s="7">
         <v>0.168002863423833</v>
       </c>
-      <c r="D229" s="17">
+      <c r="D229" s="10">
         <v>0.182161757414254</v>
       </c>
-      <c r="E229" s="17">
+      <c r="E229" s="10">
         <v>0.14277302601342801</v>
       </c>
-      <c r="F229" s="17">
+      <c r="F229" s="10">
         <v>0.128723765502507</v>
       </c>
-      <c r="G229" s="17">
+      <c r="G229" s="10">
         <v>0.20530583357393101</v>
       </c>
-      <c r="H229" s="17">
+      <c r="H229" s="10">
         <v>0.19724030237390699</v>
       </c>
     </row>
-    <row r="230" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A230" s="5" t="s">
         <v>37</v>
       </c>
@@ -9565,23 +11231,23 @@
       <c r="C230" s="7">
         <v>6.2802046576431003</v>
       </c>
-      <c r="D230" s="17">
+      <c r="D230" s="10">
         <v>6.7902165580880096</v>
       </c>
-      <c r="E230" s="17">
+      <c r="E230" s="10">
         <v>5.6039038502843903</v>
       </c>
-      <c r="F230" s="17">
+      <c r="F230" s="10">
         <v>5.01317442107581</v>
       </c>
-      <c r="G230" s="17">
+      <c r="G230" s="10">
         <v>8.0069282149321808</v>
       </c>
-      <c r="H230" s="17">
+      <c r="H230" s="10">
         <v>7.6974785439546203</v>
       </c>
     </row>
-    <row r="231" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A231" s="5" t="s">
         <v>38</v>
       </c>
@@ -9591,23 +11257,23 @@
       <c r="C231" s="7">
         <v>1.7261968078207099</v>
       </c>
-      <c r="D231" s="17">
+      <c r="D231" s="10">
         <v>1.9689089391602399</v>
       </c>
-      <c r="E231" s="17">
+      <c r="E231" s="10">
         <v>1.55414970612749</v>
       </c>
-      <c r="F231" s="17">
+      <c r="F231" s="10">
         <v>1.43660561162567</v>
       </c>
-      <c r="G231" s="17">
+      <c r="G231" s="10">
         <v>2.2243488933572899</v>
       </c>
-      <c r="H231" s="17">
+      <c r="H231" s="10">
         <v>2.0937053262220999</v>
       </c>
     </row>
-    <row r="232" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A232" s="5" t="s">
         <v>39</v>
       </c>
@@ -9617,23 +11283,23 @@
       <c r="C232" s="7">
         <v>33.8156809380162</v>
       </c>
-      <c r="D232" s="17">
+      <c r="D232" s="10">
         <v>33.850253178713103</v>
       </c>
-      <c r="E232" s="17">
+      <c r="E232" s="10">
         <v>30.005222237933101</v>
       </c>
-      <c r="F232" s="17">
+      <c r="F232" s="10">
         <v>26.641198629804101</v>
       </c>
-      <c r="G232" s="17">
+      <c r="G232" s="10">
         <v>40.2142679086462</v>
       </c>
-      <c r="H232" s="17">
+      <c r="H232" s="10">
         <v>39.750289748753097</v>
       </c>
     </row>
-    <row r="233" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A233" s="5" t="s">
         <v>40</v>
       </c>
@@ -9643,23 +11309,23 @@
       <c r="C233" s="7">
         <v>58.589571322870597</v>
       </c>
-      <c r="D233" s="17">
+      <c r="D233" s="10">
         <v>73.766338166372094</v>
       </c>
-      <c r="E233" s="17">
+      <c r="E233" s="10">
         <v>61.197655194471501</v>
       </c>
-      <c r="F233" s="17">
+      <c r="F233" s="10">
         <v>54.348727389714803</v>
       </c>
-      <c r="G233" s="17">
+      <c r="G233" s="10">
         <v>81.463266979804999</v>
       </c>
-      <c r="H233" s="17">
+      <c r="H233" s="10">
         <v>80.819339381254693</v>
       </c>
     </row>
-    <row r="234" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A234" s="5" t="s">
         <v>41</v>
       </c>
@@ -9669,23 +11335,23 @@
       <c r="C234" s="7">
         <v>9.3576062971268907</v>
       </c>
-      <c r="D234" s="17">
+      <c r="D234" s="10">
         <v>9.3671462326525994</v>
       </c>
-      <c r="E234" s="17">
+      <c r="E234" s="10">
         <v>8.6342566799135891</v>
       </c>
-      <c r="F234" s="17">
+      <c r="F234" s="10">
         <v>7.6723322153644098</v>
       </c>
-      <c r="G234" s="17">
+      <c r="G234" s="10">
         <v>11.5406645212969</v>
       </c>
-      <c r="H234" s="17">
+      <c r="H234" s="10">
         <v>11.4212871493341</v>
       </c>
     </row>
-    <row r="235" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A235" s="5" t="s">
         <v>42</v>
       </c>
@@ -9695,23 +11361,23 @@
       <c r="C235" s="7">
         <v>51.921203351673803</v>
       </c>
-      <c r="D235" s="17">
+      <c r="D235" s="10">
         <v>53.704814356571603</v>
       </c>
-      <c r="E235" s="17">
+      <c r="E235" s="10">
         <v>49.890630080703303</v>
       </c>
-      <c r="F235" s="17">
+      <c r="F235" s="10">
         <v>44.313214078885899</v>
       </c>
-      <c r="G235" s="17">
+      <c r="G235" s="10">
         <v>67.227853849100299</v>
       </c>
-      <c r="H235" s="17">
+      <c r="H235" s="10">
         <v>66.330557171680198</v>
       </c>
     </row>
-    <row r="236" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A236" s="5" t="s">
         <v>43</v>
       </c>
@@ -9721,23 +11387,23 @@
       <c r="C236" s="7">
         <v>17.925474103376001</v>
       </c>
-      <c r="D236" s="17">
+      <c r="D236" s="10">
         <v>19.197586534939798</v>
       </c>
-      <c r="E236" s="17">
+      <c r="E236" s="10">
         <v>15.118922223954099</v>
       </c>
-      <c r="F236" s="17">
+      <c r="F236" s="10">
         <v>13.395456456487199</v>
       </c>
-      <c r="G236" s="17">
+      <c r="G236" s="10">
         <v>21.445106023395201</v>
       </c>
-      <c r="H236" s="17">
+      <c r="H236" s="10">
         <v>20.7091804408516</v>
       </c>
     </row>
-    <row r="237" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A237" s="5" t="s">
         <v>44</v>
       </c>
@@ -9747,23 +11413,23 @@
       <c r="C237" s="7">
         <v>0</v>
       </c>
-      <c r="D237" s="17">
+      <c r="D237" s="10">
         <v>38.150571581775601</v>
       </c>
-      <c r="E237" s="17">
+      <c r="E237" s="10">
         <v>35.167799058533703</v>
       </c>
-      <c r="F237" s="17">
+      <c r="F237" s="10">
         <v>31.251173192906599</v>
       </c>
-      <c r="G237" s="17">
+      <c r="G237" s="10">
         <v>47.341875142050696</v>
       </c>
-      <c r="H237" s="17">
+      <c r="H237" s="10">
         <v>46.711404178688198</v>
       </c>
     </row>
-    <row r="238" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A238" s="5" t="s">
         <v>45</v>
       </c>
@@ -9773,23 +11439,23 @@
       <c r="C238" s="7">
         <v>8.7016010815472402</v>
       </c>
-      <c r="D238" s="17">
+      <c r="D238" s="10">
         <v>9.9696220479731892</v>
       </c>
-      <c r="E238" s="17">
+      <c r="E238" s="10">
         <v>7.9893567719332701</v>
       </c>
-      <c r="F238" s="17">
+      <c r="F238" s="10">
         <v>7.3850004686119499</v>
       </c>
-      <c r="G238" s="17">
+      <c r="G238" s="10">
         <v>11.243551983805199</v>
       </c>
-      <c r="H238" s="17">
+      <c r="H238" s="10">
         <v>10.5587795364827</v>
       </c>
     </row>
-    <row r="239" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A239" s="5" t="s">
         <v>46</v>
       </c>
@@ -9799,23 +11465,23 @@
       <c r="C239" s="7">
         <v>107.512047072138</v>
       </c>
-      <c r="D239" s="17">
+      <c r="D239" s="10">
         <v>133.09747899476301</v>
       </c>
-      <c r="E239" s="17">
+      <c r="E239" s="10">
         <v>112.975697256668</v>
       </c>
-      <c r="F239" s="17">
+      <c r="F239" s="10">
         <v>100.14780858015099</v>
       </c>
-      <c r="G239" s="17">
+      <c r="G239" s="10">
         <v>149.95202017679799</v>
       </c>
-      <c r="H239" s="17">
+      <c r="H239" s="10">
         <v>149.01263236439499</v>
       </c>
     </row>
-    <row r="240" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A240" s="5" t="s">
         <v>47</v>
       </c>
@@ -9825,23 +11491,23 @@
       <c r="C240" s="7">
         <v>73.963327223912302</v>
       </c>
-      <c r="D240" s="17">
+      <c r="D240" s="10">
         <v>77.019427079225295</v>
       </c>
-      <c r="E240" s="17">
+      <c r="E240" s="10">
         <v>64.158257339076201</v>
       </c>
-      <c r="F240" s="17">
+      <c r="F240" s="10">
         <v>56.5686613704979</v>
       </c>
-      <c r="G240" s="17">
+      <c r="G240" s="10">
         <v>86.204572453926104</v>
       </c>
-      <c r="H240" s="17">
+      <c r="H240" s="10">
         <v>85.485390463978504</v>
       </c>
     </row>
-    <row r="241" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A241" s="5" t="s">
         <v>48</v>
       </c>
@@ -9851,23 +11517,23 @@
       <c r="C241" s="7">
         <v>7.5659564653217801</v>
       </c>
-      <c r="D241" s="17">
+      <c r="D241" s="10">
         <v>7.7482842565245802</v>
       </c>
-      <c r="E241" s="17">
+      <c r="E241" s="10">
         <v>6.30219776553204</v>
       </c>
-      <c r="F241" s="17">
+      <c r="F241" s="10">
         <v>5.5573401754625902</v>
       </c>
-      <c r="G241" s="17">
+      <c r="G241" s="10">
         <v>8.6158465719683992</v>
       </c>
-      <c r="H241" s="17">
+      <c r="H241" s="10">
         <v>8.4779800577071107</v>
       </c>
     </row>
-    <row r="242" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A242" s="5" t="s">
         <v>49</v>
       </c>
@@ -9877,23 +11543,23 @@
       <c r="C242" s="7">
         <v>2.3682723467824598</v>
       </c>
-      <c r="D242" s="17">
+      <c r="D242" s="10">
         <v>2.88889484924964</v>
       </c>
-      <c r="E242" s="17">
+      <c r="E242" s="10">
         <v>2.57555011030581</v>
       </c>
-      <c r="F242" s="17">
+      <c r="F242" s="10">
         <v>2.3807553211351902</v>
       </c>
-      <c r="G242" s="17">
+      <c r="G242" s="10">
         <v>3.5847858817346898</v>
       </c>
-      <c r="H242" s="17">
+      <c r="H242" s="10">
         <v>3.29773843747641</v>
       </c>
     </row>
-    <row r="243" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A243" s="5" t="s">
         <v>50</v>
       </c>
@@ -9903,23 +11569,23 @@
       <c r="C243" s="7">
         <v>0</v>
       </c>
-      <c r="D243" s="17">
+      <c r="D243" s="10">
         <v>18.657794121339101</v>
       </c>
-      <c r="E243" s="17">
+      <c r="E243" s="10">
         <v>15.723471842409801</v>
       </c>
-      <c r="F243" s="17">
+      <c r="F243" s="10">
         <v>13.972301579022099</v>
       </c>
-      <c r="G243" s="17">
+      <c r="G243" s="10">
         <v>20.783650056315601</v>
       </c>
-      <c r="H243" s="17">
+      <c r="H243" s="10">
         <v>20.672022247666501</v>
       </c>
     </row>
-    <row r="244" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A244" s="5" t="s">
         <v>51</v>
       </c>
@@ -9929,23 +11595,23 @@
       <c r="C244" s="7">
         <v>32.478453371548603</v>
       </c>
-      <c r="D244" s="17">
+      <c r="D244" s="10">
         <v>33.964103867277302</v>
       </c>
-      <c r="E244" s="17">
+      <c r="E244" s="10">
         <v>27.570380829486702</v>
       </c>
-      <c r="F244" s="17">
+      <c r="F244" s="10">
         <v>24.387245286014</v>
       </c>
-      <c r="G244" s="17">
+      <c r="G244" s="10">
         <v>38.513261837647498</v>
       </c>
-      <c r="H244" s="17">
+      <c r="H244" s="10">
         <v>37.543722883820102</v>
       </c>
     </row>
-    <row r="245" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A245" s="5" t="s">
         <v>52</v>
       </c>
@@ -9955,23 +11621,23 @@
       <c r="C245" s="7">
         <v>2.64033581888381</v>
       </c>
-      <c r="D245" s="17">
+      <c r="D245" s="10">
         <v>3.62933000981202</v>
       </c>
-      <c r="E245" s="17">
+      <c r="E245" s="10">
         <v>2.89638158825464</v>
       </c>
-      <c r="F245" s="17">
+      <c r="F245" s="10">
         <v>2.6772001438852899</v>
       </c>
-      <c r="G245" s="17">
+      <c r="G245" s="10">
         <v>4.0105675855552096</v>
       </c>
-      <c r="H245" s="17">
+      <c r="H245" s="10">
         <v>3.6762112532272502</v>
       </c>
     </row>
-    <row r="246" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A246" s="5" t="s">
         <v>53</v>
       </c>
@@ -9981,23 +11647,23 @@
       <c r="C246" s="7">
         <v>11.046063988098201</v>
       </c>
-      <c r="D246" s="17">
+      <c r="D246" s="10">
         <v>11.283039883543101</v>
       </c>
-      <c r="E246" s="17">
+      <c r="E246" s="10">
         <v>9.1071735728211198</v>
       </c>
-      <c r="F246" s="17">
+      <c r="F246" s="10">
         <v>8.0305028406385901</v>
       </c>
-      <c r="G246" s="17">
+      <c r="G246" s="10">
         <v>12.366209228312901</v>
       </c>
-      <c r="H246" s="17">
+      <c r="H246" s="10">
         <v>12.188716545582301</v>
       </c>
     </row>
-    <row r="247" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A247" s="5" t="s">
         <v>54</v>
       </c>
@@ -10007,23 +11673,23 @@
       <c r="C247" s="7">
         <v>39.1533929920706</v>
       </c>
-      <c r="D247" s="17">
+      <c r="D247" s="10">
         <v>42.414693110653403</v>
       </c>
-      <c r="E247" s="17">
+      <c r="E247" s="10">
         <v>32.848093469362702</v>
       </c>
-      <c r="F247" s="17">
+      <c r="F247" s="10">
         <v>29.297621491916502</v>
       </c>
-      <c r="G247" s="17">
+      <c r="G247" s="10">
         <v>46.824411941565799</v>
       </c>
-      <c r="H247" s="17">
+      <c r="H247" s="10">
         <v>45.012683789845902</v>
       </c>
     </row>
-    <row r="248" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A248" s="5" t="s">
         <v>55</v>
       </c>
@@ -10033,24 +11699,31 @@
       <c r="C248" s="7">
         <v>64.550606103073903</v>
       </c>
-      <c r="D248" s="17">
+      <c r="D248" s="10">
         <v>67.159241287165003</v>
       </c>
-      <c r="E248" s="17">
+      <c r="E248" s="10">
         <v>63.513777668380001</v>
       </c>
-      <c r="F248" s="17">
+      <c r="F248" s="10">
         <v>56.356790661194601</v>
       </c>
-      <c r="G248" s="17">
+      <c r="G248" s="10">
         <v>84.320847655563</v>
       </c>
-      <c r="H248" s="17">
+      <c r="H248" s="10">
         <v>83.7686344219576</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="23">
+    <mergeCell ref="A184:A185"/>
+    <mergeCell ref="B184:M184"/>
+    <mergeCell ref="B123:M123"/>
+    <mergeCell ref="A153:M153"/>
+    <mergeCell ref="A154:A155"/>
+    <mergeCell ref="B154:M154"/>
+    <mergeCell ref="A183:M183"/>
     <mergeCell ref="A92:M92"/>
     <mergeCell ref="A93:A94"/>
     <mergeCell ref="A222:A223"/>
@@ -10067,36 +11740,30 @@
     <mergeCell ref="B93:M93"/>
     <mergeCell ref="A122:M122"/>
     <mergeCell ref="A123:A124"/>
-    <mergeCell ref="B123:M123"/>
-    <mergeCell ref="A153:M153"/>
-    <mergeCell ref="A154:A155"/>
-    <mergeCell ref="B154:M154"/>
-    <mergeCell ref="A183:M183"/>
-    <mergeCell ref="A184:A185"/>
-    <mergeCell ref="B184:M184"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C28"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="36.6640625" customWidth="1"/>
+    <col min="1" max="2" width="36.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -10107,17 +11774,17 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>5</v>
       </c>
@@ -10125,17 +11792,17 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B8">
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="e">
         <f>CB_DATA_!#REF!</f>
         <v>#REF!</v>
@@ -10145,12 +11812,12 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>12</v>
       </c>
@@ -10158,17 +11825,17 @@
         <v>16</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>28</v>
       </c>
@@ -10176,22 +11843,22 @@
         <v>26</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
         <v>15</v>
       </c>
